--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5064,6 +5064,69 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>377.8733333333333</v>
+      </c>
+      <c r="C228" t="n">
+        <v>378.2378260869565</v>
+      </c>
+      <c r="D228" t="n">
+        <v>384.3636363636364</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="C229" t="n">
+        <v>354.9865217391304</v>
+      </c>
+      <c r="D229" t="n">
+        <v>365.6790909090909</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>357.8966666666667</v>
+      </c>
+      <c r="C230" t="n">
+        <v>359.7830434782609</v>
+      </c>
+      <c r="D230" t="n">
+        <v>371.9772727272728</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7506,6 +7569,36 @@
       </c>
       <c r="B242" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -7674,28 +7767,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1791466214141793</v>
+        <v>-0.1746455473561285</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01303093716251735</v>
+        <v>0.01272839095524003</v>
       </c>
       <c r="M2" t="n">
-        <v>9.049889387634822</v>
+        <v>9.016369434458987</v>
       </c>
       <c r="N2" t="n">
-        <v>130.6748619184868</v>
+        <v>129.7788767070338</v>
       </c>
       <c r="O2" t="n">
-        <v>11.43131059496184</v>
+        <v>11.39205322613241</v>
       </c>
       <c r="P2" t="n">
-        <v>369.8388824910429</v>
+        <v>369.7972249377152</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -7745,28 +7838,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.05847556877190209</v>
+        <v>-0.04338297327755953</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K3" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001350296802261841</v>
+        <v>0.000760302899587284</v>
       </c>
       <c r="M3" t="n">
-        <v>9.376257221058527</v>
+        <v>9.359578377869973</v>
       </c>
       <c r="N3" t="n">
-        <v>140.9513097290939</v>
+        <v>140.7277927903412</v>
       </c>
       <c r="O3" t="n">
-        <v>11.87229167975138</v>
+        <v>11.8628745584846</v>
       </c>
       <c r="P3" t="n">
-        <v>360.6816130454957</v>
+        <v>360.5462572276514</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -7822,28 +7915,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08264646338627481</v>
+        <v>0.09296642253046941</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K4" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004084247738710634</v>
+        <v>0.005293213576855527</v>
       </c>
       <c r="M4" t="n">
-        <v>7.474410279250489</v>
+        <v>7.464406466017583</v>
       </c>
       <c r="N4" t="n">
-        <v>90.02261022401471</v>
+        <v>89.75791476382531</v>
       </c>
       <c r="O4" t="n">
-        <v>9.48802456910893</v>
+        <v>9.474065376797085</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4685125412495</v>
+        <v>368.3755058287046</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -7880,7 +7973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13733,6 +13826,87 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-34.80760962538812,173.16397061386434</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-34.808341709336815,173.16386608952936</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-34.80908023338452,173.16383102896387</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-34.80759529804669,173.16382642782423</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-34.808317430375475,173.16361358742398</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-34.809061366263194,173.16362802925764</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-34.80758807858375,173.16375377399882</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-34.80832243893596,173.16366567618172</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-34.80906772602551,173.16369645633668</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -7612,7 +7612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7703,35 +7703,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -7790,27 +7795,28 @@
       <c r="P2" t="n">
         <v>369.7972249377152</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.15986894728943 -34.807201986211176, 173.16994899551082 -34.80820352468787)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1598689472894</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.80720198621118</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1699489955108</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.80820352468787</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1649089714001</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.80770275544953</v>
       </c>
     </row>
@@ -7861,27 +7867,28 @@
       <c r="P3" t="n">
         <v>360.5462572276514</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.15975855971462 -34.80794668909967, 173.16984327018505 -34.80891627894113)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1597585597146</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.80794668909967</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1698432701851</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.80891627894113</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1648009149498</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.8084314840204</v>
       </c>
     </row>
@@ -7938,27 +7945,28 @@
       <c r="P4" t="n">
         <v>368.3755058287046</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.1596550985128 -34.808692045711666, 173.16974432214795 -34.80962967196614)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1596550985128</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.80869204571167</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1697443221479</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.80962967196614</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1646997103304</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.80916085883891</v>
       </c>
     </row>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,6 +5125,67 @@
         <v>371.9772727272728</v>
       </c>
       <c r="E230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>374.6766666666667</v>
+      </c>
+      <c r="C231" t="n">
+        <v>367.9960869565218</v>
+      </c>
+      <c r="D231" t="n">
+        <v>374.8745454545455</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>369.6366666666667</v>
+      </c>
+      <c r="C232" t="n">
+        <v>366.7526086956522</v>
+      </c>
+      <c r="D232" t="n">
+        <v>373.0536363636364</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>355.86</v>
+      </c>
+      <c r="C233" t="n">
+        <v>345.4295652173913</v>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5141,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7599,6 +7660,36 @@
       </c>
       <c r="B245" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -7772,28 +7863,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1746455473561285</v>
+        <v>-0.1706406266736115</v>
       </c>
       <c r="J2" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01272839095524003</v>
+        <v>0.01248138843918123</v>
       </c>
       <c r="M2" t="n">
-        <v>9.016369434458987</v>
+        <v>8.995807882381696</v>
       </c>
       <c r="N2" t="n">
-        <v>129.7788767070338</v>
+        <v>128.8208235896842</v>
       </c>
       <c r="O2" t="n">
-        <v>11.39205322613241</v>
+        <v>11.34992614908503</v>
       </c>
       <c r="P2" t="n">
-        <v>369.7972249377152</v>
+        <v>369.760049463141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7844,28 +7935,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.04338297327755953</v>
+        <v>-0.04176142649285024</v>
       </c>
       <c r="J3" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K3" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000760302899587284</v>
+        <v>0.0007208425656615169</v>
       </c>
       <c r="M3" t="n">
-        <v>9.359578377869973</v>
+        <v>9.368501323731872</v>
       </c>
       <c r="N3" t="n">
-        <v>140.7277927903412</v>
+        <v>140.2521583642683</v>
       </c>
       <c r="O3" t="n">
-        <v>11.8628745584846</v>
+        <v>11.84281040818725</v>
       </c>
       <c r="P3" t="n">
-        <v>360.5462572276514</v>
+        <v>360.5323641930499</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7922,28 +8013,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09296642253046941</v>
+        <v>0.09928870164026493</v>
       </c>
       <c r="J4" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K4" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005293213576855527</v>
+        <v>0.006169069513590197</v>
       </c>
       <c r="M4" t="n">
-        <v>7.464406466017583</v>
+        <v>7.424319274793091</v>
       </c>
       <c r="N4" t="n">
-        <v>89.75791476382531</v>
+        <v>89.01306460663778</v>
       </c>
       <c r="O4" t="n">
-        <v>9.474065376797085</v>
+        <v>9.434673529414665</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3755058287046</v>
+        <v>368.3180640808789</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -7981,7 +8072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13915,6 +14006,83 @@
         </is>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-34.80760617749397,173.1639359151365</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-34.808331014999766,173.16375486733412</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-34.8090706516134,173.16372793398173</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-34.80760074137798,173.16388120765902</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-34.808329716563385,173.16374136353753</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-34.809068812909445,173.16370815057292</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-34.80758588181624,173.16373166668689</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-34.808307450870224,173.16350980182028</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5186,6 +5186,48 @@
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>334.85</v>
+      </c>
+      <c r="C234" t="n">
+        <v>338.5221739130435</v>
+      </c>
+      <c r="D234" t="n">
+        <v>357.7881818181818</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>359.81</v>
+      </c>
+      <c r="C235" t="n">
+        <v>345.3478260869565</v>
+      </c>
+      <c r="D235" t="n">
+        <v>364.0618181818182</v>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5202,7 +5244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7690,6 +7732,26 @@
       </c>
       <c r="B248" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -7863,28 +7925,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1706406266736115</v>
+        <v>-0.2053678987580246</v>
       </c>
       <c r="J2" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K2" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01248138843918123</v>
+        <v>0.017742929018704</v>
       </c>
       <c r="M2" t="n">
-        <v>8.995807882381696</v>
+        <v>9.088006316448228</v>
       </c>
       <c r="N2" t="n">
-        <v>128.8208235896842</v>
+        <v>132.1586271968409</v>
       </c>
       <c r="O2" t="n">
-        <v>11.34992614908503</v>
+        <v>11.49602658299123</v>
       </c>
       <c r="P2" t="n">
-        <v>369.760049463141</v>
+        <v>370.0900148658084</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7935,28 +7997,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.04176142649285024</v>
+        <v>-0.07437842658832795</v>
       </c>
       <c r="J3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007208425656615169</v>
+        <v>0.002285380351341959</v>
       </c>
       <c r="M3" t="n">
-        <v>9.368501323731872</v>
+        <v>9.435724644188486</v>
       </c>
       <c r="N3" t="n">
-        <v>140.2521583642683</v>
+        <v>141.8533084762364</v>
       </c>
       <c r="O3" t="n">
-        <v>11.84281040818725</v>
+        <v>11.91021865778443</v>
       </c>
       <c r="P3" t="n">
-        <v>360.5323641930499</v>
+        <v>360.8297618281958</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8013,28 +8075,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09928870164026493</v>
+        <v>0.08005245462751655</v>
       </c>
       <c r="J4" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006169069513590197</v>
+        <v>0.004067593764544686</v>
       </c>
       <c r="M4" t="n">
-        <v>7.424319274793091</v>
+        <v>7.445764966643737</v>
       </c>
       <c r="N4" t="n">
-        <v>89.01306460663778</v>
+        <v>89.16853746239562</v>
       </c>
       <c r="O4" t="n">
-        <v>9.434673529414665</v>
+        <v>9.442909374890538</v>
       </c>
       <c r="P4" t="n">
-        <v>368.3180640808789</v>
+        <v>368.49413326194</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8072,7 +8134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14083,6 +14145,60 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-34.807563220001235,173.16350361047444</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-34.8083002380222,173.16343478969395</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-34.809053398146354,173.1635422978857</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-34.807590142319135,173.16377454257113</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-34.808307365516704,173.1635089141586</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-34.80905973317136,173.1636104582758</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5228,6 +5228,27 @@
         <v>364.0618181818182</v>
       </c>
       <c r="E235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>352.1533333333333</v>
+      </c>
+      <c r="C236" t="n">
+        <v>343.8378260869565</v>
+      </c>
+      <c r="D236" t="n">
+        <v>367.7481818181818</v>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5244,7 +5265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7752,6 +7773,16 @@
       </c>
       <c r="B250" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7956,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2053678987580246</v>
+        <v>-0.2174124090301885</v>
       </c>
       <c r="J2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.017742929018704</v>
+        <v>0.01993965278936205</v>
       </c>
       <c r="M2" t="n">
-        <v>9.088006316448228</v>
+        <v>9.106684569206609</v>
       </c>
       <c r="N2" t="n">
-        <v>132.1586271968409</v>
+        <v>132.2803774676636</v>
       </c>
       <c r="O2" t="n">
-        <v>11.49602658299123</v>
+        <v>11.50132068362862</v>
       </c>
       <c r="P2" t="n">
-        <v>370.0900148658084</v>
+        <v>370.2047959338676</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7997,28 +8028,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.07437842658832795</v>
+        <v>-0.08826018552917481</v>
       </c>
       <c r="J3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K3" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002285380351341959</v>
+        <v>0.003225612128679889</v>
       </c>
       <c r="M3" t="n">
-        <v>9.435724644188486</v>
+        <v>9.462175880262235</v>
       </c>
       <c r="N3" t="n">
-        <v>141.8533084762364</v>
+        <v>142.2394037226544</v>
       </c>
       <c r="O3" t="n">
-        <v>11.91021865778443</v>
+        <v>11.92641621454888</v>
       </c>
       <c r="P3" t="n">
-        <v>360.8297618281958</v>
+        <v>360.9566808513388</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8075,28 +8106,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08005245462751655</v>
+        <v>0.0773646001039458</v>
       </c>
       <c r="J4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004067593764544686</v>
+        <v>0.003841738041722498</v>
       </c>
       <c r="M4" t="n">
-        <v>7.445764966643737</v>
+        <v>7.424041972819213</v>
       </c>
       <c r="N4" t="n">
-        <v>89.16853746239562</v>
+        <v>88.7899790760938</v>
       </c>
       <c r="O4" t="n">
-        <v>9.442909374890538</v>
+        <v>9.422843470847523</v>
       </c>
       <c r="P4" t="n">
-        <v>368.49413326194</v>
+        <v>368.5187991807033</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8134,7 +8165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8953,7 +8984,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.80904730818772,173.1634767746338</t>
+          <t>-34.80904730818773,173.1634767746338</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -14194,6 +14225,33 @@
         </is>
       </c>
       <c r="E235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-34.807581883760975,173.1636914321058</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-34.808305788745734,173.16349251602605</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-34.80906345558889,173.16365050905324</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,6 +5249,48 @@
         <v>367.7481818181818</v>
       </c>
       <c r="E236" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>356.5830434782609</v>
+      </c>
+      <c r="D237" t="n">
+        <v>367.1736363636364</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>374.0633333333333</v>
+      </c>
+      <c r="C238" t="n">
+        <v>370.7421739130435</v>
+      </c>
+      <c r="D238" t="n">
+        <v>373.2890909090909</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5265,7 +5307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7783,6 +7825,26 @@
       </c>
       <c r="B251" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7956,28 +8018,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2174124090301885</v>
+        <v>-0.2225929472321442</v>
       </c>
       <c r="J2" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K2" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01993965278936205</v>
+        <v>0.02107492756983464</v>
       </c>
       <c r="M2" t="n">
-        <v>9.106684569206609</v>
+        <v>9.138136445713117</v>
       </c>
       <c r="N2" t="n">
-        <v>132.2803774676636</v>
+        <v>132.5328483670028</v>
       </c>
       <c r="O2" t="n">
-        <v>11.50132068362862</v>
+        <v>11.51229118668403</v>
       </c>
       <c r="P2" t="n">
-        <v>370.2047959338676</v>
+        <v>370.2541259504681</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8028,28 +8090,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.08826018552917481</v>
+        <v>-0.07931303914926457</v>
       </c>
       <c r="J3" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K3" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003225612128679889</v>
+        <v>0.002648429764375293</v>
       </c>
       <c r="M3" t="n">
-        <v>9.462175880262235</v>
+        <v>9.439930675449521</v>
       </c>
       <c r="N3" t="n">
-        <v>142.2394037226544</v>
+        <v>141.6039934142788</v>
       </c>
       <c r="O3" t="n">
-        <v>11.92641621454888</v>
+        <v>11.89974761977239</v>
       </c>
       <c r="P3" t="n">
-        <v>360.9566808513388</v>
+        <v>360.874684962955</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8106,28 +8168,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0773646001039458</v>
+        <v>0.07683831062194059</v>
       </c>
       <c r="J4" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003841738041722498</v>
+        <v>0.003870613309358895</v>
       </c>
       <c r="M4" t="n">
-        <v>7.424041972819213</v>
+        <v>7.383759552212813</v>
       </c>
       <c r="N4" t="n">
-        <v>88.7899790760938</v>
+        <v>88.05849422653466</v>
       </c>
       <c r="O4" t="n">
-        <v>9.422843470847523</v>
+        <v>9.383948754470831</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5187991807033</v>
+        <v>368.5236095625107</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8165,7 +8227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14257,6 +14319,60 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-34.80757902183552,173.16366263109506</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-34.808319097476776,173.16363092516062</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-34.80906287542506,173.16364426686033</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-34.80760551595736,173.1639292576124</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-34.808333882450434,173.16378468900675</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-34.80906905066515,173.16371070868712</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5291,6 +5291,27 @@
         <v>373.2890909090909</v>
       </c>
       <c r="E238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>347.3933333333333</v>
+      </c>
+      <c r="C239" t="n">
+        <v>342.3952173913044</v>
+      </c>
+      <c r="D239" t="n">
+        <v>363.9627272727273</v>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5307,7 +5328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7845,6 +7866,16 @@
       </c>
       <c r="B253" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -8018,28 +8049,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2225929472321442</v>
+        <v>-0.2383335429218074</v>
       </c>
       <c r="J2" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02107492756983464</v>
+        <v>0.02408642630883473</v>
       </c>
       <c r="M2" t="n">
-        <v>9.138136445713117</v>
+        <v>9.179834434527441</v>
       </c>
       <c r="N2" t="n">
-        <v>132.5328483670028</v>
+        <v>133.2748653294858</v>
       </c>
       <c r="O2" t="n">
-        <v>11.51229118668403</v>
+        <v>11.5444733673514</v>
       </c>
       <c r="P2" t="n">
-        <v>370.2541259504681</v>
+        <v>370.4050830127154</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8090,28 +8121,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.07931303914926457</v>
+        <v>-0.09393318015563784</v>
       </c>
       <c r="J3" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002648429764375293</v>
+        <v>0.003716835854676859</v>
       </c>
       <c r="M3" t="n">
-        <v>9.439930675449521</v>
+        <v>9.471747053865219</v>
       </c>
       <c r="N3" t="n">
-        <v>141.6039934142788</v>
+        <v>142.1811201421707</v>
       </c>
       <c r="O3" t="n">
-        <v>11.89974761977239</v>
+        <v>11.92397249838202</v>
       </c>
       <c r="P3" t="n">
-        <v>360.874684962955</v>
+        <v>361.0092176402408</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8168,28 +8199,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07683831062194059</v>
+        <v>0.0707928743362414</v>
       </c>
       <c r="J4" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003870613309358895</v>
+        <v>0.003316126494642857</v>
       </c>
       <c r="M4" t="n">
-        <v>7.383759552212813</v>
+        <v>7.379108469408916</v>
       </c>
       <c r="N4" t="n">
-        <v>88.05849422653466</v>
+        <v>87.84853325259976</v>
       </c>
       <c r="O4" t="n">
-        <v>9.383948754470831</v>
+        <v>9.372754837965184</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5236095625107</v>
+        <v>368.5794201361686</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8227,7 +8258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14373,6 +14404,33 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-34.80757674954816,173.16363976396232</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-34.808304282344,173.1634768497428</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-34.809059633111126,173.16360938169515</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5312,6 +5312,46 @@
         <v>363.9627272727273</v>
       </c>
       <c r="E239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>349.4466666666667</v>
+      </c>
+      <c r="C240" t="n">
+        <v>341.4273913043478</v>
+      </c>
+      <c r="D240" t="n">
+        <v>356.9727272727272</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>340.3866666666667</v>
+      </c>
+      <c r="C241" t="n">
+        <v>335.7169565217391</v>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5328,7 +5368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7876,6 +7916,26 @@
       </c>
       <c r="B254" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -8049,28 +8109,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2383335429218074</v>
+        <v>-0.2730272747926741</v>
       </c>
       <c r="J2" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02408642630883473</v>
+        <v>0.03117004098700438</v>
       </c>
       <c r="M2" t="n">
-        <v>9.179834434527441</v>
+        <v>9.282312678426305</v>
       </c>
       <c r="N2" t="n">
-        <v>133.2748653294858</v>
+        <v>135.6302934137633</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5444733673514</v>
+        <v>11.64604196342102</v>
       </c>
       <c r="P2" t="n">
-        <v>370.4050830127154</v>
+        <v>370.7388140650424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8121,28 +8181,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.09393318015563784</v>
+        <v>-0.1286778909457173</v>
       </c>
       <c r="J3" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003716835854676859</v>
+        <v>0.006915736296663089</v>
       </c>
       <c r="M3" t="n">
-        <v>9.471747053865219</v>
+        <v>9.569739965806905</v>
       </c>
       <c r="N3" t="n">
-        <v>142.1811201421707</v>
+        <v>144.5234660797926</v>
       </c>
       <c r="O3" t="n">
-        <v>11.92397249838202</v>
+        <v>12.02179130079177</v>
       </c>
       <c r="P3" t="n">
-        <v>361.0092176402408</v>
+        <v>361.3298691765613</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8199,28 +8259,28 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0707928743362414</v>
+        <v>0.05855691746851981</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003316126494642857</v>
+        <v>0.002274645307898004</v>
       </c>
       <c r="M4" t="n">
-        <v>7.379108469408916</v>
+        <v>7.40416887633773</v>
       </c>
       <c r="N4" t="n">
-        <v>87.84853325259976</v>
+        <v>88.26015936436259</v>
       </c>
       <c r="O4" t="n">
-        <v>9.372754837965184</v>
+        <v>9.394687826871236</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5794201361686</v>
+        <v>368.692494097697</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8258,7 +8318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14431,6 +14491,56 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-34.807578964309315,173.1636620521803</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-34.808303271718934,173.16346633945182</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-34.809052574709625,173.16353343831972</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-34.80756919200447,173.16356370904555</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-34.808297308740045,173.16340432590718</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.2933333333333</v>
+        <v>365.29</v>
       </c>
       <c r="C2" t="n">
-        <v>360.8182608695652</v>
+        <v>360.82</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378.6166666666667</v>
+        <v>378.62</v>
       </c>
       <c r="C3" t="n">
-        <v>372.7469565217392</v>
+        <v>372.75</v>
       </c>
       <c r="D3" t="n">
-        <v>374.8845454545455</v>
+        <v>374.88</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>368.9518181818182</v>
+        <v>368.95</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.5433333333333</v>
+        <v>371.54</v>
       </c>
       <c r="C5" t="n">
-        <v>370.8921739130435</v>
+        <v>370.89</v>
       </c>
       <c r="D5" t="n">
-        <v>375.7945454545454</v>
+        <v>375.79</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374.9633333333333</v>
+        <v>374.96</v>
       </c>
       <c r="C6" t="n">
-        <v>369.2530434782609</v>
+        <v>369.25</v>
       </c>
       <c r="D6" t="n">
-        <v>373.5145454545454</v>
+        <v>373.51</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.8066666666667</v>
+        <v>363.81</v>
       </c>
       <c r="C7" t="n">
-        <v>359.8895652173913</v>
+        <v>359.89</v>
       </c>
       <c r="D7" t="n">
-        <v>360.7054545454546</v>
+        <v>360.71</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         <v>347.19</v>
       </c>
       <c r="C9" t="n">
-        <v>343.8217391304348</v>
+        <v>343.82</v>
       </c>
       <c r="D9" t="n">
-        <v>362.9054545454546</v>
+        <v>362.91</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.5466666666667</v>
+        <v>368.55</v>
       </c>
       <c r="C10" t="n">
-        <v>357.6578260869565</v>
+        <v>357.66</v>
       </c>
       <c r="D10" t="n">
         <v>373.14</v>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.3633333333333</v>
+        <v>370.36</v>
       </c>
       <c r="C11" t="n">
-        <v>362.1382608695652</v>
+        <v>362.14</v>
       </c>
       <c r="D11" t="n">
-        <v>373.8218181818182</v>
+        <v>373.82</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.8966666666667</v>
+        <v>370.9</v>
       </c>
       <c r="C12" t="n">
-        <v>357.4078260869565</v>
+        <v>357.41</v>
       </c>
       <c r="D12" t="n">
-        <v>371.8654545454546</v>
+        <v>371.87</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -696,10 +696,10 @@
         <v>367.51</v>
       </c>
       <c r="C13" t="n">
-        <v>354.2191304347826</v>
+        <v>354.22</v>
       </c>
       <c r="D13" t="n">
-        <v>369.5245454545454</v>
+        <v>369.52</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>352.7643478260869</v>
+        <v>352.76</v>
       </c>
       <c r="D14" t="n">
-        <v>363.4790909090909</v>
+        <v>363.48</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352.5466666666667</v>
+        <v>352.55</v>
       </c>
       <c r="C15" t="n">
-        <v>341.4204347826087</v>
+        <v>341.42</v>
       </c>
       <c r="D15" t="n">
-        <v>365.8863636363636</v>
+        <v>365.89</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>353.1533333333333</v>
+        <v>353.15</v>
       </c>
       <c r="C16" t="n">
-        <v>338.6365217391304</v>
+        <v>338.64</v>
       </c>
       <c r="D16" t="n">
-        <v>356.1354545454545</v>
+        <v>356.14</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.9333333333333</v>
+        <v>376.93</v>
       </c>
       <c r="C17" t="n">
         <v>362.65</v>
       </c>
       <c r="D17" t="n">
-        <v>370.6172727272727</v>
+        <v>370.62</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.8733333333333</v>
+        <v>377.87</v>
       </c>
       <c r="C18" t="n">
-        <v>374.7278260869565</v>
+        <v>374.73</v>
       </c>
       <c r="D18" t="n">
-        <v>380.819090909091</v>
+        <v>380.82</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -820,10 +820,10 @@
         <v>374.32</v>
       </c>
       <c r="C19" t="n">
-        <v>369.0504347826087</v>
+        <v>369.05</v>
       </c>
       <c r="D19" t="n">
-        <v>373.3127272727273</v>
+        <v>373.31</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -841,10 +841,10 @@
         <v>375.96</v>
       </c>
       <c r="C20" t="n">
-        <v>363.7886956521739</v>
+        <v>363.79</v>
       </c>
       <c r="D20" t="n">
-        <v>374.4118181818182</v>
+        <v>374.41</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>374.43</v>
       </c>
       <c r="C21" t="n">
-        <v>374.0517391304348</v>
+        <v>374.05</v>
       </c>
       <c r="D21" t="n">
-        <v>369.5754545454545</v>
+        <v>369.58</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.4066666666667</v>
+        <v>377.41</v>
       </c>
       <c r="C22" t="n">
-        <v>374.0986956521739</v>
+        <v>374.1</v>
       </c>
       <c r="D22" t="n">
-        <v>375.0709090909091</v>
+        <v>375.07</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.8733333333333</v>
+        <v>364.87</v>
       </c>
       <c r="C23" t="n">
-        <v>357.3130434782609</v>
+        <v>357.31</v>
       </c>
       <c r="D23" t="n">
-        <v>361.8545454545454</v>
+        <v>361.85</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>383.7</v>
       </c>
       <c r="C24" t="n">
-        <v>373.8008695652174</v>
+        <v>373.8</v>
       </c>
       <c r="D24" t="n">
         <v>382.03</v>
@@ -945,7 +945,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>381.9936363636364</v>
+        <v>381.99</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>371.2566666666667</v>
+        <v>371.26</v>
       </c>
       <c r="C26" t="n">
-        <v>361.0565217391305</v>
+        <v>361.06</v>
       </c>
       <c r="D26" t="n">
-        <v>364.0772727272728</v>
+        <v>364.08</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.1166666666667</v>
+        <v>360.12</v>
       </c>
       <c r="C27" t="n">
-        <v>351.2460869565218</v>
+        <v>351.25</v>
       </c>
       <c r="D27" t="n">
         <v>365.25</v>
@@ -1003,10 +1003,10 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>370.8939130434783</v>
+        <v>370.89</v>
       </c>
       <c r="D28" t="n">
-        <v>375.6563636363636</v>
+        <v>375.66</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>357.7536363636364</v>
+        <v>357.75</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>354.2060869565217</v>
+        <v>354.21</v>
       </c>
       <c r="D30" t="n">
-        <v>367.7927272727272</v>
+        <v>367.79</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>378.7833333333333</v>
+        <v>378.78</v>
       </c>
       <c r="C31" t="n">
-        <v>372.835652173913</v>
+        <v>372.84</v>
       </c>
       <c r="D31" t="n">
-        <v>370.5409090909091</v>
+        <v>370.54</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.3966666666667</v>
+        <v>345.4</v>
       </c>
       <c r="C32" t="n">
-        <v>344.8765217391305</v>
+        <v>344.88</v>
       </c>
       <c r="D32" t="n">
-        <v>351.7572727272727</v>
+        <v>351.76</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>374.7966666666667</v>
+        <v>374.8</v>
       </c>
       <c r="C33" t="n">
-        <v>374.8521739130435</v>
+        <v>374.85</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.2233333333333</v>
+        <v>376.22</v>
       </c>
       <c r="C34" t="n">
-        <v>372.6321739130435</v>
+        <v>372.63</v>
       </c>
       <c r="D34" t="n">
-        <v>383.6754545454546</v>
+        <v>383.68</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.1133333333333</v>
+        <v>386.11</v>
       </c>
       <c r="C35" t="n">
-        <v>374.2904347826087</v>
+        <v>374.29</v>
       </c>
       <c r="D35" t="n">
-        <v>378.6590909090909</v>
+        <v>378.66</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>348.5818181818182</v>
+        <v>348.58</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         <v>377.12</v>
       </c>
       <c r="C37" t="n">
-        <v>375.3073913043478</v>
+        <v>375.31</v>
       </c>
       <c r="D37" t="n">
-        <v>383.0345454545454</v>
+        <v>383.03</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>352.79</v>
       </c>
       <c r="D38" t="n">
-        <v>359.8318181818182</v>
+        <v>359.83</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>385.4233333333333</v>
+        <v>385.42</v>
       </c>
       <c r="C39" t="n">
-        <v>373.2447826086956</v>
+        <v>373.24</v>
       </c>
       <c r="D39" t="n">
         <v>372</v>
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>370.9333333333333</v>
+        <v>370.93</v>
       </c>
       <c r="C40" t="n">
         <v>363.54</v>
       </c>
       <c r="D40" t="n">
-        <v>371.0763636363636</v>
+        <v>371.08</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.5866666666667</v>
+        <v>379.59</v>
       </c>
       <c r="C41" t="n">
-        <v>377.4708695652174</v>
+        <v>377.47</v>
       </c>
       <c r="D41" t="n">
-        <v>381.8236363636364</v>
+        <v>381.82</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>368.0490909090909</v>
+        <v>368.05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>361.5004347826087</v>
+        <v>361.5</v>
       </c>
       <c r="D43" t="n">
-        <v>364.6754545454546</v>
+        <v>364.68</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>357.9013043478261</v>
+        <v>357.9</v>
       </c>
       <c r="D44" t="n">
-        <v>367.6490909090909</v>
+        <v>367.65</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
         <v>350.77</v>
       </c>
       <c r="C45" t="n">
-        <v>346.7747826086956</v>
+        <v>346.77</v>
       </c>
       <c r="D45" t="n">
-        <v>357.129090909091</v>
+        <v>357.13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.7366666666667</v>
+        <v>363.74</v>
       </c>
       <c r="C46" t="n">
-        <v>357.7921739130435</v>
+        <v>357.79</v>
       </c>
       <c r="D46" t="n">
-        <v>364.1763636363637</v>
+        <v>364.18</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>364.0966666666667</v>
+        <v>364.1</v>
       </c>
       <c r="C47" t="n">
-        <v>355.3934782608696</v>
+        <v>355.39</v>
       </c>
       <c r="D47" t="n">
-        <v>373.9945454545455</v>
+        <v>373.99</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>377.3433333333333</v>
+        <v>377.34</v>
       </c>
       <c r="C48" t="n">
         <v>373.91</v>
       </c>
       <c r="D48" t="n">
-        <v>374.9163636363636</v>
+        <v>374.92</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.1666666666667</v>
+        <v>369.17</v>
       </c>
       <c r="C49" t="n">
         <v>358.32</v>
       </c>
       <c r="D49" t="n">
-        <v>368.5436363636364</v>
+        <v>368.54</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1441,10 +1441,10 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>375.3404347826087</v>
+        <v>375.34</v>
       </c>
       <c r="D50" t="n">
-        <v>383.0209090909091</v>
+        <v>383.02</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>380.7233333333333</v>
+        <v>380.72</v>
       </c>
       <c r="C51" t="n">
-        <v>371.4365217391305</v>
+        <v>371.44</v>
       </c>
       <c r="D51" t="n">
-        <v>378.9754545454546</v>
+        <v>378.98</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>377.2166666666667</v>
+        <v>377.22</v>
       </c>
       <c r="C52" t="n">
         <v>372.8</v>
       </c>
       <c r="D52" t="n">
-        <v>378.7481818181818</v>
+        <v>378.75</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>371.6133333333333</v>
+        <v>371.61</v>
       </c>
       <c r="C53" t="n">
-        <v>363.9913043478261</v>
+        <v>363.99</v>
       </c>
       <c r="D53" t="n">
         <v>370.1</v>
@@ -1525,10 +1525,10 @@
         <v>365.66</v>
       </c>
       <c r="C54" t="n">
-        <v>355.7739130434783</v>
+        <v>355.77</v>
       </c>
       <c r="D54" t="n">
-        <v>363.2736363636364</v>
+        <v>363.27</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1546,10 +1546,10 @@
         <v>359.37</v>
       </c>
       <c r="C55" t="n">
-        <v>351.7369565217391</v>
+        <v>351.74</v>
       </c>
       <c r="D55" t="n">
-        <v>367.4618181818182</v>
+        <v>367.46</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>356.52</v>
       </c>
       <c r="C56" t="n">
-        <v>350.8186956521739</v>
+        <v>350.82</v>
       </c>
       <c r="D56" t="n">
-        <v>367.9872727272728</v>
+        <v>367.99</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>361.4545454545454</v>
+        <v>361.45</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1603,10 +1603,10 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>343.3765217391305</v>
+        <v>343.38</v>
       </c>
       <c r="D58" t="n">
-        <v>354.2936363636364</v>
+        <v>354.29</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>365.7466666666666</v>
+        <v>365.75</v>
       </c>
       <c r="C59" t="n">
-        <v>363.9121739130435</v>
+        <v>363.91</v>
       </c>
       <c r="D59" t="n">
-        <v>375.9518181818182</v>
+        <v>375.95</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1645,10 +1645,10 @@
         <v>386.75</v>
       </c>
       <c r="C60" t="n">
-        <v>387.4104347826087</v>
+        <v>387.41</v>
       </c>
       <c r="D60" t="n">
-        <v>387.7981818181818</v>
+        <v>387.8</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>330.4004347826087</v>
+        <v>330.4</v>
       </c>
       <c r="D61" t="n">
-        <v>329.2072727272728</v>
+        <v>329.21</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>399.6233333333333</v>
+        <v>399.62</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
         <v>359.57</v>
       </c>
       <c r="C63" t="n">
-        <v>351.3208695652174</v>
+        <v>351.32</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -1719,10 +1719,10 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>354.1182608695652</v>
+        <v>354.12</v>
       </c>
       <c r="D64" t="n">
-        <v>356.1827272727273</v>
+        <v>356.18</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>386.5333333333333</v>
+        <v>386.53</v>
       </c>
       <c r="C65" t="n">
-        <v>384.8073913043478</v>
+        <v>384.81</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1757,10 +1757,10 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>357.1547826086957</v>
+        <v>357.15</v>
       </c>
       <c r="D66" t="n">
-        <v>367.5818181818182</v>
+        <v>367.58</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>358.9433333333333</v>
+        <v>358.94</v>
       </c>
       <c r="C67" t="n">
-        <v>352.5743478260869</v>
+        <v>352.57</v>
       </c>
       <c r="D67" t="n">
-        <v>364.9072727272728</v>
+        <v>364.91</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1797,10 +1797,10 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>359.3908695652174</v>
+        <v>359.39</v>
       </c>
       <c r="D68" t="n">
-        <v>350.1081818181818</v>
+        <v>350.11</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>348.4833333333333</v>
+        <v>348.48</v>
       </c>
       <c r="C69" t="n">
-        <v>340.6617391304348</v>
+        <v>340.66</v>
       </c>
       <c r="D69" t="n">
-        <v>366.7272727272728</v>
+        <v>366.73</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>356.7009090909091</v>
+        <v>356.7</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
         <v>363.56</v>
       </c>
       <c r="C71" t="n">
-        <v>353.5443478260869</v>
+        <v>353.54</v>
       </c>
       <c r="D71" t="n">
-        <v>371.8918181818182</v>
+        <v>371.89</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>371.36</v>
       </c>
       <c r="C72" t="n">
-        <v>357.2460869565218</v>
+        <v>357.25</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -1896,10 +1896,10 @@
         <v>356.05</v>
       </c>
       <c r="C73" t="n">
-        <v>343.2491304347826</v>
+        <v>343.25</v>
       </c>
       <c r="D73" t="n">
-        <v>358.3445454545454</v>
+        <v>358.34</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1914,13 +1914,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>366.6266666666667</v>
+        <v>366.63</v>
       </c>
       <c r="C74" t="n">
-        <v>354.8213043478261</v>
+        <v>354.82</v>
       </c>
       <c r="D74" t="n">
-        <v>364.3509090909091</v>
+        <v>364.35</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>358.1590909090909</v>
+        <v>358.16</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>378.8933333333333</v>
+        <v>378.89</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>373.8990909090909</v>
+        <v>373.9</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1974,10 +1974,10 @@
         <v>366.41</v>
       </c>
       <c r="C77" t="n">
-        <v>353.5039130434782</v>
+        <v>353.5</v>
       </c>
       <c r="D77" t="n">
-        <v>362.1681818181818</v>
+        <v>362.17</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>354.16</v>
       </c>
       <c r="C79" t="n">
-        <v>344.5052173913044</v>
+        <v>344.51</v>
       </c>
       <c r="D79" t="n">
-        <v>354.2709090909091</v>
+        <v>354.27</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>373.8366666666667</v>
+        <v>373.84</v>
       </c>
       <c r="C80" t="n">
-        <v>358.8391304347826</v>
+        <v>358.84</v>
       </c>
       <c r="D80" t="n">
-        <v>370.8736363636364</v>
+        <v>370.87</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>342.4566666666667</v>
+        <v>342.46</v>
       </c>
       <c r="C81" t="n">
-        <v>332.2417391304348</v>
+        <v>332.24</v>
       </c>
       <c r="D81" t="n">
-        <v>354.8245454545454</v>
+        <v>354.82</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>379.4166666666667</v>
+        <v>379.42</v>
       </c>
       <c r="C82" t="n">
-        <v>368.6108695652174</v>
+        <v>368.61</v>
       </c>
       <c r="D82" t="n">
-        <v>379.7890909090909</v>
+        <v>379.79</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>363.7233333333333</v>
+        <v>363.72</v>
       </c>
       <c r="C83" t="n">
-        <v>351.2273913043478</v>
+        <v>351.23</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>372.2366666666667</v>
+        <v>372.24</v>
       </c>
       <c r="C84" t="n">
-        <v>367.4195652173913</v>
+        <v>367.42</v>
       </c>
       <c r="D84" t="n">
-        <v>374.3654545454546</v>
+        <v>374.37</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>349.6091304347826</v>
+        <v>349.61</v>
       </c>
       <c r="D85" t="n">
-        <v>362.8018181818182</v>
+        <v>362.8</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>353.65</v>
       </c>
       <c r="C86" t="n">
-        <v>344.1534782608696</v>
+        <v>344.15</v>
       </c>
       <c r="D86" t="n">
-        <v>358.9854545454546</v>
+        <v>358.99</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>358.5466666666667</v>
+        <v>358.55</v>
       </c>
       <c r="C87" t="n">
-        <v>344.0656521739131</v>
+        <v>344.07</v>
       </c>
       <c r="D87" t="n">
-        <v>366.1018181818182</v>
+        <v>366.1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>374.5933333333333</v>
+        <v>374.59</v>
       </c>
       <c r="C88" t="n">
-        <v>364.0517391304348</v>
+        <v>364.05</v>
       </c>
       <c r="D88" t="n">
-        <v>373.4518181818182</v>
+        <v>373.45</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>354.7833333333333</v>
+        <v>354.78</v>
       </c>
       <c r="C89" t="n">
-        <v>353.7456521739131</v>
+        <v>353.75</v>
       </c>
       <c r="D89" t="n">
-        <v>363.3209090909091</v>
+        <v>363.32</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>375.2033333333333</v>
+        <v>375.2</v>
       </c>
       <c r="C90" t="n">
-        <v>369.8582608695652</v>
+        <v>369.86</v>
       </c>
       <c r="D90" t="n">
-        <v>377.2263636363636</v>
+        <v>377.23</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.8033333333333</v>
+        <v>374.8</v>
       </c>
       <c r="C91" t="n">
-        <v>363.8604347826087</v>
+        <v>363.86</v>
       </c>
       <c r="D91" t="n">
-        <v>375.3945454545454</v>
+        <v>375.39</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>370.1466666666667</v>
+        <v>370.15</v>
       </c>
       <c r="C92" t="n">
-        <v>364.0582608695652</v>
+        <v>364.06</v>
       </c>
       <c r="D92" t="n">
-        <v>371.8727272727273</v>
+        <v>371.87</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>377.2633333333333</v>
+        <v>377.26</v>
       </c>
       <c r="C93" t="n">
-        <v>365.8717391304348</v>
+        <v>365.87</v>
       </c>
       <c r="D93" t="n">
-        <v>376.3518181818182</v>
+        <v>376.35</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>365.1866666666667</v>
+        <v>365.19</v>
       </c>
       <c r="C94" t="n">
-        <v>365.7043478260869</v>
+        <v>365.7</v>
       </c>
       <c r="D94" t="n">
-        <v>369.7290909090909</v>
+        <v>369.73</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>369.9066666666667</v>
+        <v>369.91</v>
       </c>
       <c r="C95" t="n">
-        <v>364.7004347826087</v>
+        <v>364.7</v>
       </c>
       <c r="D95" t="n">
-        <v>371.3263636363636</v>
+        <v>371.33</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>386.3433333333333</v>
+        <v>386.34</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
         <v>365.7</v>
       </c>
       <c r="C98" t="n">
-        <v>363.6156521739131</v>
+        <v>363.62</v>
       </c>
       <c r="D98" t="n">
-        <v>378.7245454545454</v>
+        <v>378.72</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2422,10 +2422,10 @@
         <v>364.03</v>
       </c>
       <c r="C99" t="n">
-        <v>362.0891304347826</v>
+        <v>362.09</v>
       </c>
       <c r="D99" t="n">
-        <v>366.9745454545454</v>
+        <v>366.97</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>358.3895652173913</v>
+        <v>358.39</v>
       </c>
       <c r="D100" t="n">
-        <v>364.1227272727273</v>
+        <v>364.12</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>377.9463636363636</v>
+        <v>377.95</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2476,13 +2476,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>368.5633333333333</v>
+        <v>368.56</v>
       </c>
       <c r="C102" t="n">
         <v>368.92</v>
       </c>
       <c r="D102" t="n">
-        <v>375.1163636363637</v>
+        <v>375.12</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         <v>358.75</v>
       </c>
       <c r="C103" t="n">
-        <v>350.7291304347826</v>
+        <v>350.73</v>
       </c>
       <c r="D103" t="n">
-        <v>362.8445454545454</v>
+        <v>362.84</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>358.1066666666667</v>
+        <v>358.11</v>
       </c>
       <c r="C104" t="n">
-        <v>358.3173913043478</v>
+        <v>358.32</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>365.1733333333333</v>
+        <v>365.17</v>
       </c>
       <c r="C106" t="n">
-        <v>354.5126086956522</v>
+        <v>354.51</v>
       </c>
       <c r="D106" t="n">
-        <v>368.4527272727273</v>
+        <v>368.45</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2575,11 +2575,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>368.2166666666667</v>
+        <v>368.22</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>392.2936363636364</v>
+        <v>392.29</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>364.4033333333333</v>
+        <v>364.4</v>
       </c>
       <c r="C108" t="n">
-        <v>368.2869565217391</v>
+        <v>368.29</v>
       </c>
       <c r="D108" t="n">
-        <v>375.7290909090909</v>
+        <v>375.73</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>359.1366666666667</v>
+        <v>359.14</v>
       </c>
       <c r="C110" t="n">
-        <v>356.2234782608696</v>
+        <v>356.22</v>
       </c>
       <c r="D110" t="n">
-        <v>364.3345454545454</v>
+        <v>364.33</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2656,10 +2656,10 @@
         <v>364.34</v>
       </c>
       <c r="C111" t="n">
-        <v>354.9804347826087</v>
+        <v>354.98</v>
       </c>
       <c r="D111" t="n">
-        <v>368.3472727272728</v>
+        <v>368.35</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>366.3</v>
       </c>
       <c r="C112" t="n">
-        <v>357.2817391304347</v>
+        <v>357.28</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>366.7266666666667</v>
+        <v>366.73</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>369.8433333333333</v>
+        <v>369.84</v>
       </c>
       <c r="C114" t="n">
-        <v>357.7930434782609</v>
+        <v>357.79</v>
       </c>
       <c r="D114" t="n">
-        <v>368.6245454545455</v>
+        <v>368.62</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>374.9633333333333</v>
+        <v>374.96</v>
       </c>
       <c r="C115" t="n">
-        <v>366.0221739130435</v>
+        <v>366.02</v>
       </c>
       <c r="D115" t="n">
         <v>375.72</v>
@@ -2754,7 +2754,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>351.9181818181818</v>
+        <v>351.92</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>369.6154545454546</v>
+        <v>369.62</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>381.4233333333333</v>
+        <v>381.42</v>
       </c>
       <c r="C118" t="n">
-        <v>365.5630434782609</v>
+        <v>365.56</v>
       </c>
       <c r="D118" t="n">
-        <v>356.3245454545454</v>
+        <v>356.32</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>362.8433333333333</v>
+        <v>362.84</v>
       </c>
       <c r="C119" t="n">
-        <v>359.8208695652174</v>
+        <v>359.82</v>
       </c>
       <c r="D119" t="n">
-        <v>365.4172727272728</v>
+        <v>365.42</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2828,13 +2828,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>369.5766666666667</v>
+        <v>369.58</v>
       </c>
       <c r="C120" t="n">
-        <v>364.3508695652174</v>
+        <v>364.35</v>
       </c>
       <c r="D120" t="n">
-        <v>373.3481818181818</v>
+        <v>373.35</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         <v>348.7</v>
       </c>
       <c r="C121" t="n">
-        <v>341.8782608695652</v>
+        <v>341.88</v>
       </c>
       <c r="D121" t="n">
-        <v>353.129090909091</v>
+        <v>353.13</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>360.2733333333333</v>
+        <v>360.27</v>
       </c>
       <c r="C122" t="n">
-        <v>356.4956521739131</v>
+        <v>356.5</v>
       </c>
       <c r="D122" t="n">
         <v>366.59</v>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>361.0366666666667</v>
+        <v>361.04</v>
       </c>
       <c r="C123" t="n">
         <v>354.65</v>
       </c>
       <c r="D123" t="n">
-        <v>364.2636363636364</v>
+        <v>364.26</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>353.7133333333333</v>
+        <v>353.71</v>
       </c>
       <c r="C124" t="n">
-        <v>352.1239130434782</v>
+        <v>352.12</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
@@ -2934,7 +2934,7 @@
         <v>364.18</v>
       </c>
       <c r="C125" t="n">
-        <v>352.0991304347826</v>
+        <v>352.1</v>
       </c>
       <c r="D125" t="n">
         <v>364.26</v>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>363.2033333333333</v>
+        <v>363.2</v>
       </c>
       <c r="C126" t="n">
-        <v>364.3252173913044</v>
+        <v>364.33</v>
       </c>
       <c r="D126" t="n">
-        <v>376.6336363636364</v>
+        <v>376.63</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>361.62</v>
       </c>
       <c r="C127" t="n">
-        <v>350.4217391304348</v>
+        <v>350.42</v>
       </c>
       <c r="D127" t="n">
         <v>367.89</v>
@@ -2994,13 +2994,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>377.3566666666667</v>
+        <v>377.36</v>
       </c>
       <c r="C128" t="n">
-        <v>364.6604347826087</v>
+        <v>364.66</v>
       </c>
       <c r="D128" t="n">
-        <v>374.2163636363636</v>
+        <v>374.22</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>367.5866666666667</v>
+        <v>367.59</v>
       </c>
       <c r="C129" t="n">
-        <v>355.6065217391304</v>
+        <v>355.61</v>
       </c>
       <c r="D129" t="n">
-        <v>363.1772727272728</v>
+        <v>363.18</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3036,13 +3036,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>365.2066666666667</v>
+        <v>365.21</v>
       </c>
       <c r="C130" t="n">
-        <v>363.3121739130435</v>
+        <v>363.31</v>
       </c>
       <c r="D130" t="n">
-        <v>369.4509090909091</v>
+        <v>369.45</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>361.7633333333333</v>
+        <v>361.76</v>
       </c>
       <c r="C131" t="n">
-        <v>353.5852173913044</v>
+        <v>353.59</v>
       </c>
       <c r="D131" t="n">
-        <v>363.1927272727273</v>
+        <v>363.19</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3081,10 +3081,10 @@
         <v>367.24</v>
       </c>
       <c r="C132" t="n">
-        <v>361.5986956521739</v>
+        <v>361.6</v>
       </c>
       <c r="D132" t="n">
-        <v>374.1072727272728</v>
+        <v>374.11</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3099,13 +3099,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>350.4233333333333</v>
+        <v>350.42</v>
       </c>
       <c r="C133" t="n">
-        <v>356.8843478260869</v>
+        <v>356.88</v>
       </c>
       <c r="D133" t="n">
-        <v>366.4881818181818</v>
+        <v>366.49</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3120,13 +3120,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>373.4166666666667</v>
+        <v>373.42</v>
       </c>
       <c r="C134" t="n">
-        <v>364.9804347826087</v>
+        <v>364.98</v>
       </c>
       <c r="D134" t="n">
-        <v>378.0063636363636</v>
+        <v>378.01</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3141,13 +3141,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>339.9933333333333</v>
+        <v>339.99</v>
       </c>
       <c r="C135" t="n">
-        <v>333.9356521739131</v>
+        <v>333.94</v>
       </c>
       <c r="D135" t="n">
-        <v>363.550909090909</v>
+        <v>363.55</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>352.93</v>
       </c>
       <c r="C136" t="n">
-        <v>349.7017391304348</v>
+        <v>349.7</v>
       </c>
       <c r="D136" t="n">
         <v>363.87</v>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>361.0233333333333</v>
+        <v>361.02</v>
       </c>
       <c r="C137" t="n">
-        <v>352.4360869565218</v>
+        <v>352.44</v>
       </c>
       <c r="D137" t="n">
-        <v>362.3636363636364</v>
+        <v>362.36</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3207,10 +3207,10 @@
         <v>361.97</v>
       </c>
       <c r="C138" t="n">
-        <v>351.3504347826087</v>
+        <v>351.35</v>
       </c>
       <c r="D138" t="n">
-        <v>361.5327272727272</v>
+        <v>361.53</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3228,10 +3228,10 @@
         <v>379.19</v>
       </c>
       <c r="C139" t="n">
-        <v>370.5121739130435</v>
+        <v>370.51</v>
       </c>
       <c r="D139" t="n">
-        <v>378.4436363636364</v>
+        <v>378.44</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>375.3533333333333</v>
+        <v>375.35</v>
       </c>
       <c r="C140" t="n">
-        <v>369.844347826087</v>
+        <v>369.84</v>
       </c>
       <c r="D140" t="n">
-        <v>381.5181818181818</v>
+        <v>381.52</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         <v>369.26</v>
       </c>
       <c r="C141" t="n">
-        <v>358.7613043478261</v>
+        <v>358.76</v>
       </c>
       <c r="D141" t="n">
-        <v>368.7081818181818</v>
+        <v>368.71</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>375.53</v>
       </c>
       <c r="C142" t="n">
-        <v>367.2717391304348</v>
+        <v>367.27</v>
       </c>
       <c r="D142" t="n">
         <v>375.28</v>
@@ -3312,10 +3312,10 @@
         <v>374.27</v>
       </c>
       <c r="C143" t="n">
-        <v>362.6713043478261</v>
+        <v>362.67</v>
       </c>
       <c r="D143" t="n">
-        <v>369.3672727272727</v>
+        <v>369.37</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         <v>379.78</v>
       </c>
       <c r="C144" t="n">
-        <v>379.7060869565217</v>
+        <v>379.71</v>
       </c>
       <c r="D144" t="n">
-        <v>377.8918181818182</v>
+        <v>377.89</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         <v>381.89</v>
       </c>
       <c r="C145" t="n">
-        <v>371.4091304347826</v>
+        <v>371.41</v>
       </c>
       <c r="D145" t="n">
-        <v>377.8454545454546</v>
+        <v>377.85</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>379.9333333333333</v>
+        <v>379.93</v>
       </c>
       <c r="C146" t="n">
-        <v>367.8504347826087</v>
+        <v>367.85</v>
       </c>
       <c r="D146" t="n">
         <v>377.4</v>
@@ -3393,13 +3393,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>364.8566666666667</v>
+        <v>364.86</v>
       </c>
       <c r="C147" t="n">
-        <v>350.9591304347827</v>
+        <v>350.96</v>
       </c>
       <c r="D147" t="n">
-        <v>365.7627272727273</v>
+        <v>365.76</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3417,10 +3417,10 @@
         <v>364.9</v>
       </c>
       <c r="C148" t="n">
-        <v>359.1504347826087</v>
+        <v>359.15</v>
       </c>
       <c r="D148" t="n">
-        <v>367.4072727272728</v>
+        <v>367.41</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3438,10 +3438,10 @@
         <v>375.83</v>
       </c>
       <c r="C149" t="n">
-        <v>368.2039130434782</v>
+        <v>368.2</v>
       </c>
       <c r="D149" t="n">
-        <v>379.4481818181818</v>
+        <v>379.45</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3456,13 +3456,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>385.5166666666667</v>
+        <v>385.52</v>
       </c>
       <c r="C150" t="n">
-        <v>376.1330434782609</v>
+        <v>376.13</v>
       </c>
       <c r="D150" t="n">
-        <v>386.6572727272728</v>
+        <v>386.66</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>379.8333333333333</v>
+        <v>379.83</v>
       </c>
       <c r="C151" t="n">
-        <v>376.8478260869565</v>
+        <v>376.85</v>
       </c>
       <c r="D151" t="n">
-        <v>388.3090909090909</v>
+        <v>388.31</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>378.9972727272727</v>
+        <v>379</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>371.1133333333333</v>
+        <v>371.11</v>
       </c>
       <c r="C153" t="n">
-        <v>369.9404347826087</v>
+        <v>369.94</v>
       </c>
       <c r="D153" t="n">
-        <v>378.7990909090909</v>
+        <v>378.8</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3537,10 +3537,10 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>361.6713043478261</v>
+        <v>361.67</v>
       </c>
       <c r="D154" t="n">
-        <v>374.7163636363636</v>
+        <v>374.72</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3555,13 +3555,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>380.2333333333333</v>
+        <v>380.23</v>
       </c>
       <c r="C155" t="n">
-        <v>366.0830434782609</v>
+        <v>366.08</v>
       </c>
       <c r="D155" t="n">
-        <v>379.4354545454545</v>
+        <v>379.44</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3576,13 +3576,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>365.6166666666667</v>
+        <v>365.62</v>
       </c>
       <c r="C156" t="n">
-        <v>362.1760869565218</v>
+        <v>362.18</v>
       </c>
       <c r="D156" t="n">
-        <v>371.2245454545454</v>
+        <v>371.22</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>358.46</v>
       </c>
       <c r="D157" t="n">
-        <v>365.9045454545454</v>
+        <v>365.9</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>377.8333333333333</v>
+        <v>377.83</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         <v>396.38</v>
       </c>
       <c r="C159" t="n">
-        <v>363.2152173913044</v>
+        <v>363.22</v>
       </c>
       <c r="D159" t="n">
-        <v>375.0818181818182</v>
+        <v>375.08</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3656,13 +3656,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>371.5866666666667</v>
+        <v>371.59</v>
       </c>
       <c r="C160" t="n">
-        <v>369.1595652173913</v>
+        <v>369.16</v>
       </c>
       <c r="D160" t="n">
-        <v>374.4654545454546</v>
+        <v>374.47</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3680,10 +3680,10 @@
         <v>373.48</v>
       </c>
       <c r="C161" t="n">
-        <v>369.5421739130435</v>
+        <v>369.54</v>
       </c>
       <c r="D161" t="n">
-        <v>374.5127272727273</v>
+        <v>374.51</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3698,13 +3698,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>365.3766666666667</v>
+        <v>365.38</v>
       </c>
       <c r="C162" t="n">
-        <v>360.0382608695652</v>
+        <v>360.04</v>
       </c>
       <c r="D162" t="n">
-        <v>364.8727272727273</v>
+        <v>364.87</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>368.9566666666667</v>
+        <v>368.96</v>
       </c>
       <c r="C163" t="n">
-        <v>361.8669565217391</v>
+        <v>361.87</v>
       </c>
       <c r="D163" t="n">
         <v>368.11</v>
@@ -3740,13 +3740,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>376.5233333333333</v>
+        <v>376.52</v>
       </c>
       <c r="C164" t="n">
-        <v>370.5882608695652</v>
+        <v>370.59</v>
       </c>
       <c r="D164" t="n">
-        <v>374.2509090909091</v>
+        <v>374.25</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3761,10 +3761,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>372.0433333333333</v>
+        <v>372.04</v>
       </c>
       <c r="C165" t="n">
-        <v>366.2147826086956</v>
+        <v>366.21</v>
       </c>
       <c r="D165" t="n">
         <v>372.64</v>
@@ -3785,10 +3785,10 @@
         <v>376.82</v>
       </c>
       <c r="C166" t="n">
-        <v>375.5634782608696</v>
+        <v>375.56</v>
       </c>
       <c r="D166" t="n">
-        <v>375.4109090909091</v>
+        <v>375.41</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3803,13 +3803,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>380.1066666666667</v>
+        <v>380.11</v>
       </c>
       <c r="C167" t="n">
-        <v>376.8939130434783</v>
+        <v>376.89</v>
       </c>
       <c r="D167" t="n">
-        <v>387.6072727272728</v>
+        <v>387.61</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3824,13 +3824,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>380.1733333333333</v>
+        <v>380.17</v>
       </c>
       <c r="C168" t="n">
-        <v>375.6995652173913</v>
+        <v>375.7</v>
       </c>
       <c r="D168" t="n">
-        <v>389.9045454545454</v>
+        <v>389.9</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3865,10 +3865,10 @@
         <v>378.21</v>
       </c>
       <c r="C170" t="n">
-        <v>372.1769565217391</v>
+        <v>372.18</v>
       </c>
       <c r="D170" t="n">
-        <v>378.2463636363637</v>
+        <v>378.25</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>376.6366666666667</v>
+        <v>376.64</v>
       </c>
       <c r="C171" t="n">
-        <v>374.1134782608696</v>
+        <v>374.11</v>
       </c>
       <c r="D171" t="n">
-        <v>378.259090909091</v>
+        <v>378.26</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375.5633333333333</v>
+        <v>375.56</v>
       </c>
       <c r="C172" t="n">
-        <v>371.2252173913044</v>
+        <v>371.23</v>
       </c>
       <c r="D172" t="n">
-        <v>376.3527272727272</v>
+        <v>376.35</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>364.3766666666667</v>
+        <v>364.38</v>
       </c>
       <c r="C173" t="n">
-        <v>363.6639130434783</v>
+        <v>363.66</v>
       </c>
       <c r="D173" t="n">
-        <v>370.6063636363637</v>
+        <v>370.61</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3946,13 +3946,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>387.1766666666667</v>
+        <v>387.18</v>
       </c>
       <c r="C174" t="n">
-        <v>382.8578260869565</v>
+        <v>382.86</v>
       </c>
       <c r="D174" t="n">
-        <v>387.1554545454546</v>
+        <v>387.16</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3970,10 +3970,10 @@
         <v>390.11</v>
       </c>
       <c r="C175" t="n">
-        <v>390.5834782608696</v>
+        <v>390.58</v>
       </c>
       <c r="D175" t="n">
-        <v>393.7963636363637</v>
+        <v>393.8</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3991,10 +3991,10 @@
         <v>386.13</v>
       </c>
       <c r="C176" t="n">
-        <v>394.8678260869565</v>
+        <v>394.87</v>
       </c>
       <c r="D176" t="n">
-        <v>386.7127272727273</v>
+        <v>386.71</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>391.9766666666667</v>
+        <v>391.98</v>
       </c>
       <c r="C177" t="n">
-        <v>393.5308695652174</v>
+        <v>393.53</v>
       </c>
       <c r="D177" t="n">
-        <v>388.7290909090909</v>
+        <v>388.73</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>366.7866666666667</v>
+        <v>366.79</v>
       </c>
       <c r="C178" t="n">
         <v>365.73</v>
       </c>
       <c r="D178" t="n">
-        <v>376.2727272727273</v>
+        <v>376.27</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>369.5833333333333</v>
+        <v>369.58</v>
       </c>
       <c r="C179" t="n">
-        <v>359.1208695652174</v>
+        <v>359.12</v>
       </c>
       <c r="D179" t="n">
-        <v>368.6372727272728</v>
+        <v>368.64</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>371.5733333333333</v>
+        <v>371.57</v>
       </c>
       <c r="C180" t="n">
-        <v>365.3169565217392</v>
+        <v>365.32</v>
       </c>
       <c r="D180" t="n">
-        <v>372.7290909090909</v>
+        <v>372.73</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4096,10 +4096,10 @@
         <v>369.36</v>
       </c>
       <c r="C181" t="n">
-        <v>369.7343478260869</v>
+        <v>369.73</v>
       </c>
       <c r="D181" t="n">
-        <v>379.300909090909</v>
+        <v>379.3</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>377.99</v>
       </c>
       <c r="C182" t="n">
-        <v>382.7582608695652</v>
+        <v>382.76</v>
       </c>
       <c r="D182" t="n">
         <v>380.53</v>
@@ -4135,13 +4135,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>346.1233333333333</v>
+        <v>346.12</v>
       </c>
       <c r="C183" t="n">
-        <v>336.6060869565217</v>
+        <v>336.61</v>
       </c>
       <c r="D183" t="n">
-        <v>354.2127272727272</v>
+        <v>354.21</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>355.7966666666667</v>
+        <v>355.8</v>
       </c>
       <c r="C184" t="n">
-        <v>349.2734782608696</v>
+        <v>349.27</v>
       </c>
       <c r="D184" t="n">
-        <v>364.7690909090909</v>
+        <v>364.77</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>373.6833333333333</v>
+        <v>373.68</v>
       </c>
       <c r="C185" t="n">
-        <v>358.8095652173913</v>
+        <v>358.81</v>
       </c>
       <c r="D185" t="n">
-        <v>367.9645454545454</v>
+        <v>367.96</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>367.7466666666666</v>
+        <v>367.75</v>
       </c>
       <c r="C186" t="n">
-        <v>355.7665217391304</v>
+        <v>355.77</v>
       </c>
       <c r="D186" t="n">
-        <v>365.7827272727272</v>
+        <v>365.78</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>366.2966666666667</v>
+        <v>366.3</v>
       </c>
       <c r="C187" t="n">
-        <v>360.0152173913044</v>
+        <v>360.02</v>
       </c>
       <c r="D187" t="n">
         <v>373.46</v>
@@ -4243,10 +4243,10 @@
         <v>353.7</v>
       </c>
       <c r="C188" t="n">
-        <v>349.8943478260869</v>
+        <v>349.89</v>
       </c>
       <c r="D188" t="n">
-        <v>360.8818181818182</v>
+        <v>360.88</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>354.8966666666667</v>
+        <v>354.9</v>
       </c>
       <c r="C189" t="n">
-        <v>359.1860869565218</v>
+        <v>359.19</v>
       </c>
       <c r="D189" t="n">
-        <v>358.0754545454545</v>
+        <v>358.08</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4285,10 +4285,10 @@
         <v>342.82</v>
       </c>
       <c r="C190" t="n">
-        <v>341.3421739130435</v>
+        <v>341.34</v>
       </c>
       <c r="D190" t="n">
-        <v>350.3136363636364</v>
+        <v>350.31</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>349.54</v>
       </c>
       <c r="D191" t="n">
-        <v>353.3154545454545</v>
+        <v>353.32</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4324,13 +4324,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>365.3666666666667</v>
+        <v>365.37</v>
       </c>
       <c r="C192" t="n">
-        <v>355.8839130434782</v>
+        <v>355.88</v>
       </c>
       <c r="D192" t="n">
-        <v>369.3363636363636</v>
+        <v>369.34</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4346,10 +4346,10 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>351.5278260869565</v>
+        <v>351.53</v>
       </c>
       <c r="D193" t="n">
-        <v>367.2454545454545</v>
+        <v>367.25</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4367,10 +4367,10 @@
         <v>356.48</v>
       </c>
       <c r="C194" t="n">
-        <v>341.4573913043478</v>
+        <v>341.46</v>
       </c>
       <c r="D194" t="n">
-        <v>363.5290909090909</v>
+        <v>363.53</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>339.8966666666667</v>
+        <v>339.9</v>
       </c>
       <c r="C195" t="n">
-        <v>344.9408695652174</v>
+        <v>344.94</v>
       </c>
       <c r="D195" t="n">
-        <v>353.4590909090909</v>
+        <v>353.46</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>349.4066666666667</v>
+        <v>349.41</v>
       </c>
       <c r="C196" t="n">
         <v>343.5</v>
       </c>
       <c r="D196" t="n">
-        <v>356.8827272727273</v>
+        <v>356.88</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>360.7233333333333</v>
+        <v>360.72</v>
       </c>
       <c r="C197" t="n">
-        <v>348.3282608695652</v>
+        <v>348.33</v>
       </c>
       <c r="D197" t="n">
-        <v>364.5109090909091</v>
+        <v>364.51</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4451,10 +4451,10 @@
         <v>343.4</v>
       </c>
       <c r="C198" t="n">
-        <v>341.3460869565217</v>
+        <v>341.35</v>
       </c>
       <c r="D198" t="n">
-        <v>350.7463636363636</v>
+        <v>350.75</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>348.9366666666667</v>
+        <v>348.94</v>
       </c>
       <c r="C199" t="n">
-        <v>340.4204347826087</v>
+        <v>340.42</v>
       </c>
       <c r="D199" t="n">
-        <v>357.8663636363636</v>
+        <v>357.87</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4490,13 +4490,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>351.9033333333333</v>
+        <v>351.9</v>
       </c>
       <c r="C200" t="n">
-        <v>345.8782608695652</v>
+        <v>345.88</v>
       </c>
       <c r="D200" t="n">
-        <v>371.1018181818182</v>
+        <v>371.1</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4511,13 +4511,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>353.0066666666667</v>
+        <v>353.01</v>
       </c>
       <c r="C201" t="n">
-        <v>342.4908695652174</v>
+        <v>342.49</v>
       </c>
       <c r="D201" t="n">
-        <v>359.4181818181818</v>
+        <v>359.42</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>363.2966666666667</v>
+        <v>363.3</v>
       </c>
       <c r="C202" t="n">
         <v>354.61</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>367.8933333333333</v>
+        <v>367.89</v>
       </c>
       <c r="C203" t="n">
-        <v>358.5708695652174</v>
+        <v>358.57</v>
       </c>
       <c r="D203" t="n">
-        <v>368.7963636363637</v>
+        <v>368.8</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4572,10 +4572,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>348.7666666666667</v>
+        <v>348.77</v>
       </c>
       <c r="C204" t="n">
-        <v>338.6204347826087</v>
+        <v>338.62</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
@@ -4591,13 +4591,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>360.8733333333333</v>
+        <v>360.87</v>
       </c>
       <c r="C205" t="n">
-        <v>348.9069565217391</v>
+        <v>348.91</v>
       </c>
       <c r="D205" t="n">
-        <v>364.7081818181818</v>
+        <v>364.71</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4612,13 +4612,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>347.6266666666667</v>
+        <v>347.63</v>
       </c>
       <c r="C206" t="n">
-        <v>346.9826086956522</v>
+        <v>346.98</v>
       </c>
       <c r="D206" t="n">
-        <v>357.7390909090909</v>
+        <v>357.74</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>357.7266666666667</v>
+        <v>357.73</v>
       </c>
       <c r="C207" t="n">
-        <v>350.2982608695652</v>
+        <v>350.3</v>
       </c>
       <c r="D207" t="n">
-        <v>365.1627272727272</v>
+        <v>365.16</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4657,10 +4657,10 @@
         <v>358.31</v>
       </c>
       <c r="C208" t="n">
-        <v>350.2273913043478</v>
+        <v>350.23</v>
       </c>
       <c r="D208" t="n">
-        <v>370.4790909090909</v>
+        <v>370.48</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4675,13 +4675,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>367.8066666666667</v>
+        <v>367.81</v>
       </c>
       <c r="C209" t="n">
-        <v>355.5630434782609</v>
+        <v>355.56</v>
       </c>
       <c r="D209" t="n">
-        <v>376.5263636363636</v>
+        <v>376.53</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>368.3133333333333</v>
+        <v>368.31</v>
       </c>
       <c r="C210" t="n">
-        <v>349.7352173913044</v>
+        <v>349.74</v>
       </c>
       <c r="D210" t="n">
-        <v>362.3527272727272</v>
+        <v>362.35</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4720,10 +4720,10 @@
         <v>371.48</v>
       </c>
       <c r="C211" t="n">
-        <v>359.1130434782609</v>
+        <v>359.11</v>
       </c>
       <c r="D211" t="n">
-        <v>373.5236363636364</v>
+        <v>373.52</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4738,13 +4738,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>366.2666666666667</v>
+        <v>366.27</v>
       </c>
       <c r="C212" t="n">
-        <v>355.9378260869565</v>
+        <v>355.94</v>
       </c>
       <c r="D212" t="n">
-        <v>370.9154545454546</v>
+        <v>370.92</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4759,13 +4759,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>368.1833333333333</v>
+        <v>368.18</v>
       </c>
       <c r="C213" t="n">
-        <v>349.3721739130435</v>
+        <v>349.37</v>
       </c>
       <c r="D213" t="n">
-        <v>365.3645454545455</v>
+        <v>365.36</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4783,10 +4783,10 @@
         <v>352.02</v>
       </c>
       <c r="C214" t="n">
-        <v>340.2604347826087</v>
+        <v>340.26</v>
       </c>
       <c r="D214" t="n">
-        <v>365.4081818181818</v>
+        <v>365.41</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4801,13 +4801,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>358.9133333333333</v>
+        <v>358.91</v>
       </c>
       <c r="C215" t="n">
-        <v>348.3347826086956</v>
+        <v>348.33</v>
       </c>
       <c r="D215" t="n">
-        <v>355.1554545454546</v>
+        <v>355.16</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4822,13 +4822,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>358.0666666666667</v>
+        <v>358.07</v>
       </c>
       <c r="C216" t="n">
-        <v>352.3082608695652</v>
+        <v>352.31</v>
       </c>
       <c r="D216" t="n">
-        <v>360.2036363636363</v>
+        <v>360.2</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         <v>366.95</v>
       </c>
       <c r="C217" t="n">
-        <v>366.2556521739131</v>
+        <v>366.26</v>
       </c>
       <c r="D217" t="n">
-        <v>371.7736363636364</v>
+        <v>371.77</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>381.8933333333333</v>
+        <v>381.89</v>
       </c>
       <c r="C218" t="n">
-        <v>384.8208695652174</v>
+        <v>384.82</v>
       </c>
       <c r="D218" t="n">
-        <v>395.6572727272728</v>
+        <v>395.66</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4885,13 +4885,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>369.5033333333333</v>
+        <v>369.5</v>
       </c>
       <c r="C219" t="n">
         <v>362.23</v>
       </c>
       <c r="D219" t="n">
-        <v>373.6018181818182</v>
+        <v>373.6</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4906,13 +4906,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>356.8433333333333</v>
+        <v>356.84</v>
       </c>
       <c r="C220" t="n">
-        <v>364.5078260869565</v>
+        <v>364.51</v>
       </c>
       <c r="D220" t="n">
-        <v>372.4290909090909</v>
+        <v>372.43</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4930,10 +4930,10 @@
         <v>366.33</v>
       </c>
       <c r="C221" t="n">
-        <v>365.5469565217391</v>
+        <v>365.55</v>
       </c>
       <c r="D221" t="n">
-        <v>372.7163636363636</v>
+        <v>372.72</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4948,13 +4948,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>364.3966666666667</v>
+        <v>364.4</v>
       </c>
       <c r="C222" t="n">
-        <v>362.3017391304347</v>
+        <v>362.3</v>
       </c>
       <c r="D222" t="n">
-        <v>365.9081818181818</v>
+        <v>365.91</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>373.8333333333333</v>
+        <v>373.83</v>
       </c>
       <c r="C223" t="n">
-        <v>364.5026086956522</v>
+        <v>364.5</v>
       </c>
       <c r="D223" t="n">
-        <v>380.3027272727272</v>
+        <v>380.3</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>373.3233333333333</v>
+        <v>373.32</v>
       </c>
       <c r="C224" t="n">
-        <v>362.5830434782609</v>
+        <v>362.58</v>
       </c>
       <c r="D224" t="n">
         <v>382.77</v>
@@ -5011,13 +5011,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>379.5533333333333</v>
+        <v>379.55</v>
       </c>
       <c r="C225" t="n">
-        <v>363.1352173913044</v>
+        <v>363.14</v>
       </c>
       <c r="D225" t="n">
-        <v>375.0927272727273</v>
+        <v>375.09</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>379.9866666666667</v>
+        <v>379.99</v>
       </c>
       <c r="C226" t="n">
-        <v>368.2643478260869</v>
+        <v>368.26</v>
       </c>
       <c r="D226" t="n">
         <v>379.37</v>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>344.2166666666667</v>
+        <v>344.22</v>
       </c>
       <c r="C227" t="n">
-        <v>350.3278260869565</v>
+        <v>350.33</v>
       </c>
       <c r="D227" t="n">
-        <v>359.8509090909091</v>
+        <v>359.85</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5074,13 +5074,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>377.8733333333333</v>
+        <v>377.87</v>
       </c>
       <c r="C228" t="n">
-        <v>378.2378260869565</v>
+        <v>378.24</v>
       </c>
       <c r="D228" t="n">
-        <v>384.3636363636364</v>
+        <v>384.36</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5098,10 +5098,10 @@
         <v>364.59</v>
       </c>
       <c r="C229" t="n">
-        <v>354.9865217391304</v>
+        <v>354.99</v>
       </c>
       <c r="D229" t="n">
-        <v>365.6790909090909</v>
+        <v>365.68</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5116,13 +5116,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>357.8966666666667</v>
+        <v>357.9</v>
       </c>
       <c r="C230" t="n">
-        <v>359.7830434782609</v>
+        <v>359.78</v>
       </c>
       <c r="D230" t="n">
-        <v>371.9772727272728</v>
+        <v>371.98</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5137,13 +5137,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>374.6766666666667</v>
+        <v>374.68</v>
       </c>
       <c r="C231" t="n">
-        <v>367.9960869565218</v>
+        <v>368</v>
       </c>
       <c r="D231" t="n">
-        <v>374.8745454545455</v>
+        <v>374.87</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>369.6366666666667</v>
+        <v>369.64</v>
       </c>
       <c r="C232" t="n">
-        <v>366.7526086956522</v>
+        <v>366.75</v>
       </c>
       <c r="D232" t="n">
-        <v>373.0536363636364</v>
+        <v>373.05</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>355.86</v>
       </c>
       <c r="C233" t="n">
-        <v>345.4295652173913</v>
+        <v>345.43</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
@@ -5201,10 +5201,10 @@
         <v>334.85</v>
       </c>
       <c r="C234" t="n">
-        <v>338.5221739130435</v>
+        <v>338.52</v>
       </c>
       <c r="D234" t="n">
-        <v>357.7881818181818</v>
+        <v>357.79</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5222,10 +5222,10 @@
         <v>359.81</v>
       </c>
       <c r="C235" t="n">
-        <v>345.3478260869565</v>
+        <v>345.35</v>
       </c>
       <c r="D235" t="n">
-        <v>364.0618181818182</v>
+        <v>364.06</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5240,13 +5240,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>352.1533333333333</v>
+        <v>352.15</v>
       </c>
       <c r="C236" t="n">
-        <v>343.8378260869565</v>
+        <v>343.84</v>
       </c>
       <c r="D236" t="n">
-        <v>367.7481818181818</v>
+        <v>367.75</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5264,10 +5264,10 @@
         <v>349.5</v>
       </c>
       <c r="C237" t="n">
-        <v>356.5830434782609</v>
+        <v>356.58</v>
       </c>
       <c r="D237" t="n">
-        <v>367.1736363636364</v>
+        <v>367.17</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5282,13 +5282,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>374.0633333333333</v>
+        <v>374.06</v>
       </c>
       <c r="C238" t="n">
-        <v>370.7421739130435</v>
+        <v>370.74</v>
       </c>
       <c r="D238" t="n">
-        <v>373.2890909090909</v>
+        <v>373.29</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5303,13 +5303,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>347.3933333333333</v>
+        <v>347.39</v>
       </c>
       <c r="C239" t="n">
-        <v>342.3952173913044</v>
+        <v>342.4</v>
       </c>
       <c r="D239" t="n">
-        <v>363.9627272727273</v>
+        <v>363.96</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5324,13 +5324,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>349.4466666666667</v>
+        <v>349.45</v>
       </c>
       <c r="C240" t="n">
-        <v>341.4273913043478</v>
+        <v>341.43</v>
       </c>
       <c r="D240" t="n">
-        <v>356.9727272727272</v>
+        <v>356.97</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>340.3866666666667</v>
+        <v>340.39</v>
       </c>
       <c r="C241" t="n">
-        <v>335.7169565217391</v>
+        <v>335.72</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
@@ -8109,7 +8109,7 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2730272747926741</v>
+        <v>-0.273007097000337</v>
       </c>
       <c r="J2" t="n">
         <v>240</v>
@@ -8118,19 +8118,19 @@
         <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03117004098700438</v>
+        <v>0.03116775519262871</v>
       </c>
       <c r="M2" t="n">
-        <v>9.282312678426305</v>
+        <v>9.281936336876969</v>
       </c>
       <c r="N2" t="n">
-        <v>135.6302934137633</v>
+        <v>135.6205123441004</v>
       </c>
       <c r="O2" t="n">
-        <v>11.64604196342102</v>
+        <v>11.64562202478255</v>
       </c>
       <c r="P2" t="n">
-        <v>370.7388140650424</v>
+        <v>370.7384820050667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8181,7 +8181,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1286778909457173</v>
+        <v>-0.1286608508618116</v>
       </c>
       <c r="J3" t="n">
         <v>240</v>
@@ -8190,19 +8190,19 @@
         <v>217</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006915736296663089</v>
+        <v>0.006914230304915003</v>
       </c>
       <c r="M3" t="n">
-        <v>9.569739965806905</v>
+        <v>9.569564836528858</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5234660797926</v>
+        <v>144.5168813109044</v>
       </c>
       <c r="O3" t="n">
-        <v>12.02179130079177</v>
+        <v>12.02151742963027</v>
       </c>
       <c r="P3" t="n">
-        <v>361.3298691765613</v>
+        <v>361.3296936623568</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0.0616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05855691746851981</v>
+        <v>0.05856555131884679</v>
       </c>
       <c r="J4" t="n">
         <v>240</v>
@@ -8268,19 +8268,19 @@
         <v>219</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002274645307898004</v>
+        <v>0.00227526449709925</v>
       </c>
       <c r="M4" t="n">
-        <v>7.40416887633773</v>
+        <v>7.404338168165203</v>
       </c>
       <c r="N4" t="n">
-        <v>88.26015936436259</v>
+        <v>88.26210716813659</v>
       </c>
       <c r="O4" t="n">
-        <v>9.394687826871236</v>
+        <v>9.39479149146678</v>
       </c>
       <c r="P4" t="n">
-        <v>368.692494097697</v>
+        <v>368.6923128792238</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.80759605666304,173.16383406226575</t>
+          <t>-34.80759605306769,173.16383402608355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.80832351991404,173.1636769183265</t>
+          <t>-34.80832352173004,173.16367693721295</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -8384,17 +8384,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.80761042713894,173.1639786824949</t>
+          <t>-34.807610430734236,173.1639787186771</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.80833597583008,173.1638064603399</t>
+          <t>-34.80833597900807,173.16380649339118</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.80907066171112,173.1637280426275</t>
+          <t>-34.809070657121254,173.16372799324304</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.80906467099437,173.1636635860526</t>
+          <t>-34.80906466915842,173.16366356629882</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8430,17 +8430,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.80760279790094,173.1639019038732</t>
+          <t>-34.80760279430562,173.163901867691</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.8083340390795,173.16378631796138</t>
+          <t>-34.808334036809505,173.16378629435332</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.8090715806029,173.1637379293938</t>
+          <t>-34.80907157601302,173.16373788000934</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8457,17 +8457,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.8076064866903,173.16393902680542</t>
+          <t>-34.80760648309501,173.16393899062322</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.808332327508566,173.163768517501</t>
+          <t>-34.80833232433057,173.16376848444975</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-34.80906927832307,173.1637131581556</t>
+          <t>-34.80906927373321,173.16371310877113</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8484,17 +8484,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.80759445314167,173.16381792501033</t>
+          <t>-34.807594456737,173.16381796119254</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.80832255016643,173.1636668329753</t>
+          <t>-34.80832255062042,173.1636668376969</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-34.809056343969864,173.1635739928115</t>
+          <t>-34.809056348559785,173.16357404219593</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8539,12 +8539,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.80830577194743,173.1634923413267</t>
+          <t>-34.80830577013139,173.16349232244028</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-34.80905856549537,173.16359789487606</t>
+          <t>-34.8090585700853,173.1635979442605</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8561,12 +8561,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.8075995657068,173.16386937608246</t>
+          <t>-34.80759956930212,173.16386941226466</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.80832021977232,173.1636425969707</t>
+          <t>-34.80832022204234,173.1636426205787</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8588,17 +8588,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.80760152515813,173.1638890953769</t>
+          <t>-34.80760152156281,173.1638890591947</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.80832489826175,173.1636912531239</t>
+          <t>-34.808324900077736,173.16369127201034</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-34.809069588598724,173.16371649654408</t>
+          <t>-34.80906958676278,173.16371647679028</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8615,17 +8615,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.807602100409305,173.16389488452774</t>
+          <t>-34.8076021040046,173.1638949207099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.80831995872066,173.1636398820472</t>
+          <t>-34.80831996099068,173.16363990565523</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.80906761311436,173.16369524147936</t>
+          <t>-34.809067617704244,173.1636952908638</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8647,12 +8647,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.80831662905821,173.1636052537899</t>
+          <t>-34.808316629966214,173.1636052632331</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.80906524932128,173.16366980849202</t>
+          <t>-34.80906524473137,173.16366975910756</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8670,12 +8670,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.808315109958855,173.16358945529763</t>
+          <t>-34.80831510541881,173.16358940808158</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-34.80905914474361,173.16360412719146</t>
+          <t>-34.8090591456616,173.16360413706835</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -8692,17 +8692,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.80758230801567,173.16369570160253</t>
+          <t>-34.807582311611036,173.16369573778468</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80830326445477,173.16346626390614</t>
+          <t>-34.80830326400076,173.16346625918456</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.809061575563135,173.1636302811879</t>
+          <t>-34.80906157923506,173.16363032069546</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.80758296237432,173.1637022867586</t>
+          <t>-34.80758295877894,173.16370225057642</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.80830035742705,173.16343603147575</t>
+          <t>-34.808300361059146,173.16343606924858</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.80905172924048,173.1635243417087</t>
+          <t>-34.80905173383045,173.16352439109312</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.80760861151411,173.1639604104842</t>
+          <t>-34.80760860791882,173.16396037430204</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.80906635273137,173.16368168051156</t>
+          <t>-34.8090663554853,173.16368171014224</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8773,17 +8773,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.80760962538812,173.16397061386434</t>
+          <t>-34.80760962179283,173.16397057768214</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.80833804423607,173.16382797198577</t>
+          <t>-34.80833804650605,173.1638279955938</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.80907665422962,173.16379251896538</t>
+          <t>-34.80907665514759,173.16379252884227</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.808332115945504,173.16376631723196</t>
+          <t>-34.8083321154915,173.16376631251035</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-34.80906907453252,173.16371096548625</t>
+          <t>-34.809069071778595,173.16371093585556</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8832,12 +8832,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.80832662164798,173.16370917634288</t>
+          <t>-34.80832662300998,173.16370919050772</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-34.809070184364415,173.1637229066451</t>
+          <t>-34.80907018252848,173.16372288689135</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.80833733827265,173.16382062988527</t>
+          <t>-34.80833733645666,173.16382061099884</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.80906530072808,173.16367036159775</t>
+          <t>-34.80906530531797,173.16367041098218</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -8881,17 +8881,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.80760912204653,173.16396554835646</t>
+          <t>-34.807609125641825,173.16396558453866</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.808337387304206,173.16382113981896</t>
+          <t>-34.808337388666196,173.16382115398378</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-34.80907084989581,173.1637300673898</t>
+          <t>-34.80907084897784,173.16373005751294</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8908,17 +8908,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.80759560365049,173.16382950331013</t>
+          <t>-34.80759560005515,173.16382946712795</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.80831985974802,173.16363885273708</t>
+          <t>-34.808319856569994,173.16363881968584</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.809057504304434,173.16358647719548</t>
+          <t>-34.809057499714505,173.16358642781105</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.80833707631698,173.16381790551748</t>
+          <t>-34.80833707540898,173.16381789607425</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -8964,7 +8964,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-34.80907784024485,173.16380527990836</t>
+          <t>-34.80907783657299,173.16380524040076</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8981,17 +8981,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.80760248870366,173.16389879220458</t>
+          <t>-34.80760249229898,173.16389882838678</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.808323768706835,173.16367950576685</t>
+          <t>-34.80832377233885,173.1636795435397</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-34.80905974877708,173.1636106261829</t>
+          <t>-34.80905975153104,173.16361065581356</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9008,12 +9008,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.807590473091715,173.16377787133194</t>
+          <t>-34.80759047668707,173.16377790751412</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.80831352457265,173.16357296745159</t>
+          <t>-34.80831352865871,173.16357300994602</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9036,12 +9036,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.80833404089548,173.16378633684778</t>
+          <t>-34.808334036809505,173.16378629435332</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.80907144107093,173.16373642810657</t>
+          <t>-34.80907144474283,173.16373646761414</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9060,7 +9060,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.809053363262755,173.16354192256406</t>
+          <t>-34.8090533595908,173.1635418830565</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9078,12 +9078,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.808316615438066,173.16360511214174</t>
+          <t>-34.80831661952411,173.16360515463617</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.809063500569934,173.16365099302072</t>
+          <t>-34.80906349781599,173.16365096339007</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9100,17 +9100,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.80761060690363,173.16398049160492</t>
+          <t>-34.807610603308326,173.1639804554227</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.80833606844536,173.16380742354792</t>
+          <t>-34.80833607298533,173.163807470764</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.80906627562122,173.16368085085296</t>
+          <t>-34.809066274703234,173.16368084097604</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9127,17 +9127,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.807574595904725,173.1636180908424</t>
+          <t>-34.80757459950013,173.16361812702456</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.80830687337191,173.16350379593922</t>
+          <t>-34.808306877003986,173.16350383371207</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.80904730818773,173.1634767746338</t>
+          <t>-34.8090473109417,173.16347680426446</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9154,12 +9154,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.80760630692501,173.1639372176956</t>
+          <t>-34.80760631052032,173.16393725387778</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.80833817407882,173.16382932236567</t>
+          <t>-34.80833817180884,173.16382929875763</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -9177,17 +9177,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.80760784571511,173.163952703676</t>
+          <t>-34.807607842119815,173.1639526674938</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.80833585597501,173.16380521383545</t>
+          <t>-34.80833585370503,173.16380519022744</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-34.809079538484156,173.16382355215703</t>
+          <t>-34.809079543073985,173.16382360154148</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9204,17 +9204,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.80761851292778,173.16406005627078</t>
+          <t>-34.807618509332514,173.16406002008858</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.80833758751637,173.16382322204808</t>
+          <t>-34.80833758706238,173.16382321732647</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-34.8090744731331,173.1637690514737</t>
+          <t>-34.809074474051066,173.1637690613506</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9233,7 +9233,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.80904410162763,173.16344227468002</t>
+          <t>-34.809044099791635,173.16344225492625</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9255,12 +9255,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.808338649412086,173.16383426588936</t>
+          <t>-34.808338652136065,173.16383429421904</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-34.80907889131762,173.16381658894866</t>
+          <t>-34.80907888672778,173.1638165395642</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.809055461784254,173.16356450112423</t>
+          <t>-34.80905545994828,173.16356448137046</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.80761776870672,173.164052566554</t>
+          <t>-34.80761776511145,173.16405253037178</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.808336495655915,173.16381186658094</t>
+          <t>-34.808336490661965,173.16381181464325</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.8076021399578,173.16389528253185</t>
+          <t>-34.80760213636247,173.16389524634965</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.80906681631014,173.16368666834018</t>
+          <t>-34.80906681998206,173.16368670784772</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9354,17 +9354,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.807611473369015,173.16398921151526</t>
+          <t>-34.80761147696431,173.16398924769746</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.808340908490855,173.1638577606121</t>
+          <t>-34.80834090758287,173.16385775116888</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-34.80907766858484,173.16380343292974</t>
+          <t>-34.80907766491296,173.1638033934222</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9383,7 +9383,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.8090637594404,173.16365377830303</t>
+          <t>-34.80906376035838,173.16365378817994</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9401,12 +9401,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.80832423224217,173.16368432652706</t>
+          <t>-34.808324231788156,173.16368432180548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-34.80906035281021,173.1636171251744</t>
+          <t>-34.809060357400135,173.16361717455882</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9424,12 +9424,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.808320474013875,173.1636452410701</t>
+          <t>-34.808320472651864,173.1636452269053</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.80906335552902,173.16364943247248</t>
+          <t>-34.809063356446984,173.16364944234937</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9451,12 +9451,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.80830885557004,173.16352441046524</t>
+          <t>-34.808308850575976,173.16352435852758</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.809052732603895,173.16353513714395</t>
+          <t>-34.80905273352189,173.16353514702084</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9473,17 +9473,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.80759437763949,173.1638171651844</t>
+          <t>-34.80759438123483,173.1638172013666</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.80832036005918,173.16364405594695</t>
+          <t>-34.80832035778917,173.16364403233894</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.809059848837315,173.16361170276352</t>
+          <t>-34.80905985250924,173.1636117422711</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9500,17 +9500,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.80759476593636,173.16382107286057</t>
+          <t>-34.807594769531704,173.16382110904277</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.8083178553231,173.16361800684697</t>
+          <t>-34.80831785169107,173.16361796907415</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.809069763013994,173.163718373153</t>
+          <t>-34.80906975842412,173.16371832376853</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.80760905373587,173.16396486089468</t>
+          <t>-34.80760905014057,173.16396482471248</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.80907069384021,173.16372838831862</t>
+          <t>-34.809070697512105,173.1637284278262</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.807600234437345,173.16387610597</t>
+          <t>-34.80760023803266,173.1638761421522</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.80906425882152,173.16365915132997</t>
+          <t>-34.80906425514961,173.1636591118224</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9582,12 +9582,12 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.808338683915736,173.16383462473158</t>
+          <t>-34.80833868346174,173.16383462001</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-34.8090788775481,173.1638164407953</t>
+          <t>-34.80907887663014,173.16381643091842</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9604,17 +9604,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.807612699362565,173.164001549646</t>
+          <t>-34.807612695767276,173.16400151346377</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.8083346074839,173.16379222941416</t>
+          <t>-34.80833461111588,173.163792267187</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.809074792586905,173.16377248863148</t>
+          <t>-34.80907479717676,173.16377253801593</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.807608917114536,173.16396348597112</t>
+          <t>-34.807608920709825,173.1639635221533</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-34.809074563094235,173.16377001940893</t>
+          <t>-34.809074564930185,173.16377003916273</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9658,12 +9658,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.8076028734026,173.16390266369928</t>
+          <t>-34.807602869807276,173.16390262751707</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.808326833212085,173.16371137661164</t>
+          <t>-34.80832683185007,173.16371136244683</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.808318252576335,173.1636221382521</t>
+          <t>-34.8083182484903,173.16362209575763</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.80905893727915,173.1636018950151</t>
+          <t>-34.809058933607204,173.16360185550755</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.80831403714479,173.16357829814402</t>
+          <t>-34.80831404032282,173.16357833119525</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.80906316642499,173.16364739783367</t>
+          <t>-34.809063164589034,173.16364737807987</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -9744,12 +9744,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.80831307828512,173.16356832611356</t>
+          <t>-34.80831307964715,173.1635683402784</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.809063697017734,173.16365310667467</t>
+          <t>-34.80906369977168,173.16365313630536</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9768,7 +9768,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.809057100390646,173.16358213136556</t>
+          <t>-34.80905709580072,173.16358208198113</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9786,12 +9786,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.80830530704245,173.16348750640378</t>
+          <t>-34.80830531067453,173.1634875441766</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.80904986938958,173.16350433114044</t>
+          <t>-34.80904986571761,173.16350429163293</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9808,17 +9808,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.80759654562877,173.16383898304332</t>
+          <t>-34.8075965492241,173.16383901922552</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.808326750584044,173.1637105172792</t>
+          <t>-34.80832674831405,173.16371049367118</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.80907173941228,173.16373963809568</t>
+          <t>-34.809071737576346,173.1637396183419</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -9840,12 +9840,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.80835128721059,173.16396570131488</t>
+          <t>-34.8083512867566,173.16396569659327</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.80908370145373,173.16386834386165</t>
+          <t>-34.80908370328965,173.16386836361542</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9863,12 +9863,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.80829175706658,173.1633465901435</t>
+          <t>-34.80829175661257,173.16334658542192</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-34.8090245370844,173.16323177859755</t>
+          <t>-34.80902453983845,173.16323180822818</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.80763308446752,173.16420670278157</t>
+          <t>-34.80763308087229,173.16420666659937</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.8083136026616,173.16357377956768</t>
+          <t>-34.808313601753596,173.1635737701245</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -9928,12 +9928,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.80831652372921,173.16360415837738</t>
+          <t>-34.80831652554522,173.1636041772638</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.80905177697601,173.16352485530672</t>
+          <t>-34.80905177422203,173.16352482567603</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -9950,12 +9950,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.80761896593168,173.1640646152289</t>
+          <t>-34.80761896233641,173.1640645790467</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.80834856916749,173.16393743303937</t>
+          <t>-34.808348571891436,173.16393746136904</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -9974,12 +9974,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.80831969449092,173.1636371340725</t>
+          <t>-34.80831968949689,173.16363708213484</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-34.809063287598455,173.1636487015828</t>
+          <t>-34.8090632857625,173.16364868182905</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -9996,17 +9996,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.80758920752653,173.16376513520373</t>
+          <t>-34.80758920393118,173.1637650990216</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.80831491155871,173.16358739195604</t>
+          <t>-34.808314907018655,173.16358734474</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-34.8090605868959,173.16361964378055</t>
+          <t>-34.80906058964985,173.1636196734112</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10024,12 +10024,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.80832202942614,173.16366141729287</t>
+          <t>-34.80832202851814,173.16366140784965</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-34.80904564294417,173.16345885796693</t>
+          <t>-34.809045644780156,173.16345887772073</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10046,17 +10046,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.80757792524169,173.16365159553243</t>
+          <t>-34.80757792164629,173.16365155935026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.80830247220761,173.16345802470696</t>
+          <t>-34.80830247039157,173.16345800582053</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-34.809062424696286,173.1636394173086</t>
+          <t>-34.809062427450236,173.16363944693927</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10075,7 +10075,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.80905230023059,173.1635304851311</t>
+          <t>-34.80905229931259,173.16353047525422</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10097,12 +10097,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.80831592444335,173.16359792585797</t>
+          <t>-34.80831591990329,173.16359787864192</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.809067639735694,173.1636955279091</t>
+          <t>-34.809067637899744,173.16369550815537</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10124,7 +10124,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.808319789831565,173.16363812560974</t>
+          <t>-34.80831979391759,173.16363816810423</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -10147,12 +10147,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.80830517401785,173.1634861229737</t>
+          <t>-34.80830517492588,173.16348613241692</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-34.80905395995564,173.16354834253949</t>
+          <t>-34.809053955365705,173.16354829315506</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10169,17 +10169,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.807597494796966,173.1638485351411</t>
+          <t>-34.807597498392305,173.16384857132329</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.80831725785395,173.1636117932138</t>
+          <t>-34.80831725649194,173.16361177904898</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-34.809060025090155,173.1636135991258</t>
+          <t>-34.809060024172176,173.1636135892489</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10198,7 +10198,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.80905377268592,173.16354632765487</t>
+          <t>-34.80905377360391,173.16354633753176</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10215,13 +10215,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.8076107255483,173.1639816856175</t>
+          <t>-34.807610721953004,173.1639816494353</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.809069666626606,173.16371733607966</t>
+          <t>-34.80906966754458,173.1637173459565</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.808315882220924,173.16359748674864</t>
+          <t>-34.80831587813488,173.1635974442542</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-34.80905782100946,173.16358988472123</t>
+          <t>-34.80905782284543,173.163589904475</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.808306485648814,173.16349976368895</t>
+          <t>-34.80830649064291,173.16349981562658</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-34.80904984643977,173.16350408421835</t>
+          <t>-34.80904984552178,173.16350407434146</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10311,17 +10311,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.807605271476355,173.1639267972231</t>
+          <t>-34.80760527507166,173.1639268334053</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.80832145329734,173.16365542557455</t>
+          <t>-34.808321454205334,173.16365543501777</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-34.809066611601125,173.16368446579406</t>
+          <t>-34.8090666079292,173.16368442628652</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10338,17 +10338,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.80757142475662,173.16358617817033</t>
+          <t>-34.80757142835205,173.16358621435248</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.808293679815606,173.1633665861321</t>
+          <t>-34.808293677999536,173.16336656724567</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.809050405497,173.16351009924097</t>
+          <t>-34.80905040090703,173.16351004985654</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10365,17 +10365,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.807611290009184,173.163987366223</t>
+          <t>-34.80761129360446,173.1639874024052</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.80833165695341,173.1637615436869</t>
+          <t>-34.80833165604541,173.1637615342437</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.80907561417027,173.16378132844835</t>
+          <t>-34.80907561508825,173.16378133832526</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10392,12 +10392,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.80759436325811,173.1638170204557</t>
+          <t>-34.807594359662765,173.1638169842735</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.80831350505042,173.16357276442255</t>
+          <t>-34.80831350777445,173.16357279275218</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -10415,17 +10415,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.807603545726614,173.16390942976952</t>
+          <t>-34.80760354932192,173.16390946595172</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.80833041299762,173.16374860648293</t>
+          <t>-34.80833041345163,173.16374861120454</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-34.809070137547714,173.16372240292375</t>
+          <t>-34.80907014213759,173.1637224523082</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10443,12 +10443,12 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.80831181524052,173.16355519060795</t>
+          <t>-34.80831181614853,173.16355520005115</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-34.809058460845094,173.16359676891102</t>
+          <t>-34.80905845900913,173.16359674915725</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.80830611835598,173.1634959439109</t>
+          <t>-34.80830611472391,173.16349590613805</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-34.80905460713755,173.16355530574373</t>
+          <t>-34.80905461172749,173.16355535512815</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10492,17 +10492,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.80758877967892,173.16376082952414</t>
+          <t>-34.80758878327428,173.16376086570634</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.808306026646264,173.1634949901468</t>
+          <t>-34.80830603118635,173.16349503736285</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.80906179312489,173.16363262201014</t>
+          <t>-34.80906179128893,173.16363260225637</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10519,17 +10519,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.807606087611305,173.1639350105816</t>
+          <t>-34.80760608401599,173.1639349743994</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.80832689631811,173.16371203291502</t>
+          <t>-34.8083268945021,173.16371201402856</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.80906921498278,173.16371247665026</t>
+          <t>-34.80906921314682,173.1637124568965</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10546,17 +10546,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.807584720512,173.16371997984325</t>
+          <t>-34.80758471691663,173.16371994366108</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.80831613464744,173.16360011196136</t>
+          <t>-34.80831613918748,173.16360015917743</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.809058985014325,173.1636024086132</t>
+          <t>-34.80905898409634,173.16360239873632</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10573,17 +10573,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.80760674555229,173.1639416319236</t>
+          <t>-34.80760674195699,173.1639415957414</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.808332959473525,173.1637750899786</t>
+          <t>-34.80833296128951,173.16377510886502</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.80907302640999,173.16375348549502</t>
+          <t>-34.80907303008188,173.1637535250026</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10600,17 +10600,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.80760631411562,173.16393729005998</t>
+          <t>-34.80760631052032,173.16393725387778</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.80832669655801,173.16370995540802</t>
+          <t>-34.808326696104025,173.16370995068638</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.80907117669453,173.16373358356245</t>
+          <t>-34.80907117210466,173.163733534178</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10627,17 +10627,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.80760129146228,173.1638867435344</t>
+          <t>-34.80760129505759,173.1638867797166</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.8083269031281,173.1637121037391</t>
+          <t>-34.8083269049441,173.16371212262553</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-34.80906762045817,173.16369532049447</t>
+          <t>-34.809067617704244,173.1636952908638</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10654,17 +10654,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.807608967448715,173.1639639925219</t>
+          <t>-34.807608963853404,173.1639639563397</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.808328796761046,173.16373179756158</t>
+          <t>-34.80832879494505,173.16373177867516</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-34.80907214332043,173.1637439839271</t>
+          <t>-34.80907214148449,173.16374396417334</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10681,17 +10681,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.80759594161225,173.16383290443576</t>
+          <t>-34.807595945207574,173.16383294061794</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.80832862197128,173.16372997974287</t>
+          <t>-34.80832861743128,173.1637299325268</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.80906545586651,173.16367203079182</t>
+          <t>-34.80906545678449,173.1636720406687</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10708,17 +10708,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.80760103259911,173.16388413841656</t>
+          <t>-34.807601036194434,173.16388417459873</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.80832757368611,173.16371907755243</t>
+          <t>-34.80832757323209,173.16371907283082</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-34.80906706875394,173.16368938448448</t>
+          <t>-34.809067072425854,173.16368942399203</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.80761876100137,173.1640625528431</t>
+          <t>-34.807618757406104,173.1640625166609</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -10782,12 +10782,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.808326440955874,173.1637072971434</t>
+          <t>-34.80832644549587,173.16370734435947</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-34.809074539227005,173.1637697626098</t>
+          <t>-34.809074534637155,173.16376971322535</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10809,12 +10809,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.80832484695963,173.16369071958235</t>
+          <t>-34.80832484786763,173.16369072902557</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-34.8090626743872,173.16364210382199</t>
+          <t>-34.809062669797285,173.16364205443753</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10832,12 +10832,12 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.808320983858835,173.16365054343376</t>
+          <t>-34.80832098431283,173.16365054815537</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-34.80905979467626,173.1636111200272</t>
+          <t>-34.80905979192232,173.16361109039656</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10856,7 +10856,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-34.809073753443684,173.16376130799188</t>
+          <t>-34.80907375711558,173.16376134749942</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.80759958368343,173.1638695569934</t>
+          <t>-34.80759958008811,173.16386952081123</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-34.80907089579451,173.16373056123427</t>
+          <t>-34.80907089946641,173.16373060074181</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10905,12 +10905,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.80831298475994,173.1635673534629</t>
+          <t>-34.80831298566795,173.1635673629061</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.809058503990386,173.16359723312468</t>
+          <t>-34.809058499400464,173.16359718374025</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10927,12 +10927,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.807588305091464,173.1637560534762</t>
+          <t>-34.807588308686825,173.1637560896584</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.808320908494395,173.16364975964714</t>
+          <t>-34.808320911218416,173.16364978797677</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -10969,17 +10969,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.80759592723089,173.16383275970702</t>
+          <t>-34.80759592363555,173.16383272352482</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.80831693551105,173.16360844087373</t>
+          <t>-34.80831693278703,173.1636084125441</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-34.80906416702355,173.1636581636412</t>
+          <t>-34.809064164269614,173.16365813401052</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -10996,13 +10996,13 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.80759920976942,173.1638657940456</t>
+          <t>-34.80759921336476,173.1638658302278</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-34.80908824076999,173.16391718509698</t>
+          <t>-34.80908823709816,173.16391714558938</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11019,17 +11019,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.80759509670767,173.16382440162175</t>
+          <t>-34.807595093112326,173.16382436543955</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80833131872469,173.16375802608943</t>
+          <t>-34.80833132190268,173.16375805914066</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-34.80907151450881,173.16373721825775</t>
+          <t>-34.80907151542677,173.16373722813464</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11065,17 +11065,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.80758941605725,173.1637672337703</t>
+          <t>-34.80758941965262,173.16376726995247</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.80831872201598,173.16362702039257</t>
+          <t>-34.80831871838396,173.1636269826197</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.80906000856645,173.16361342134184</t>
+          <t>-34.80906000397653,173.1636133719574</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11097,12 +11097,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.808317424019414,173.16361352132148</t>
+          <t>-34.80831742356541,173.1636135165999</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.80906406053788,173.1636570179222</t>
+          <t>-34.809064063291814,173.16365704755287</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.808319827059805,173.16363851278143</t>
+          <t>-34.808319825243785,173.16363849389504</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.80759760265694,173.16384962060678</t>
+          <t>-34.80759760625227,173.16384965678895</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -11161,17 +11161,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.807600964287985,173.1638834509549</t>
+          <t>-34.80760096069266,173.1638834147727</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.80832036096718,173.16364406539017</t>
+          <t>-34.80832035778917,173.16364403233894</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-34.80906434052173,173.163660030373</t>
+          <t>-34.80906433593183,173.16365998098854</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.8076064866903,173.16393902680542</t>
+          <t>-34.80760648309501,173.16393899062322</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.808328953844814,173.1637334312376</t>
+          <t>-34.80832895157482,173.16373340762956</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11217,7 +11217,7 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-34.80904747067276,173.16347852284224</t>
+          <t>-34.809047472508745,173.163478542596</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11236,7 +11236,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-34.80906534111916,173.1636707961808</t>
+          <t>-34.80906534570906,173.16367084556524</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11253,17 +11253,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.80761345437262,173.16400914790847</t>
+          <t>-34.807613450777325,173.1640091117263</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.80832847442146,173.1637284452206</t>
+          <t>-34.808328471243456,173.16372841216935</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.80905192018255,173.16352639610074</t>
+          <t>-34.8090519155926,173.16352634671634</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11280,17 +11280,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.80759341408744,173.1638074683586</t>
+          <t>-34.8075934104921,173.1638074321764</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.808322478434135,173.16366608696148</t>
+          <t>-34.80832247752612,173.16366607751826</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-34.80906110188425,173.16362518471414</t>
+          <t>-34.80906110463819,173.16362521434482</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11307,17 +11307,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.807600676662155,173.16388055637955</t>
+          <t>-34.80760068025749,173.16388059256175</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.80832720867015,173.16371528138052</t>
+          <t>-34.80832720776215,173.1637152719373</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-34.809069110333574,173.1637113506849</t>
+          <t>-34.809069112169524,173.1637113704387</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.80830374252686,173.16347123575537</t>
+          <t>-34.8083037443429,173.16347125464176</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.80904869344068,173.16349167885173</t>
+          <t>-34.80904869435868,173.16349168872858</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11361,12 +11361,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.80759064207332,173.16377957189454</t>
+          <t>-34.807590638477976,173.16377953571237</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.808319006222106,173.16362997611785</t>
+          <t>-34.80831901076213,173.16363002333392</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.80759146540891,173.16378785761455</t>
+          <t>-34.80759146900429,173.16378789379672</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-34.809059936963735,173.16361265094466</t>
+          <t>-34.8090599332918,173.16361261143712</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11415,12 +11415,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.80758356639736,173.16370836536427</t>
+          <t>-34.80758356280199,173.1637083291821</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.80831444120945,173.1635825003728</t>
+          <t>-34.80831443712341,173.16358245787836</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.80831441533116,173.1635822312413</t>
+          <t>-34.80831441623918,173.16358224068452</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -11465,17 +11465,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.80759380238462,173.16381137603466</t>
+          <t>-34.807593798789284,173.16381133985246</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.808327181884145,173.1637150028057</t>
+          <t>-34.808327186878145,173.16371505474336</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.809072427892,173.16374704576288</t>
+          <t>-34.80907242422011,173.16374700625533</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.80831266377783,173.163564015288</t>
+          <t>-34.8083126619618,173.1635639964016</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -11519,17 +11519,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.80760906811706,173.16396500562348</t>
+          <t>-34.807609071712356,173.16396504180565</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.80832753191811,173.1637186431646</t>
+          <t>-34.80832753146411,173.163718638443</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.80906998699986,173.16372078311392</t>
+          <t>-34.80906999067175,173.16372082262149</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11546,17 +11546,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.807598530252335,173.16385895561166</t>
+          <t>-34.80759853384765,173.16385899179386</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.808318077784925,173.16362032043384</t>
+          <t>-34.80831808141695,173.16362035820666</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.809058839972785,173.16360084806513</t>
+          <t>-34.809058842726735,173.16360087769579</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11573,17 +11573,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.807595963184276,173.16383312152888</t>
+          <t>-34.8075959667796,173.16383315771108</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.8083261240636,173.1637040014619</t>
+          <t>-34.808326121793606,173.16370397785386</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.80906517496497,173.1636690084641</t>
+          <t>-34.80906517404698,173.16366899858718</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11600,17 +11600,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.80759224919513,173.16379574533067</t>
+          <t>-34.80759224559978,173.16379570914853</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.80831596711978,173.16359836968888</t>
+          <t>-34.80831597211382,173.16359842162657</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-34.80905885557852,173.1636010159722</t>
+          <t>-34.809058852824556,173.16360098634152</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11632,12 +11632,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.80832433484642,173.16368539361017</t>
+          <t>-34.808324336208436,173.16368540777498</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.809069876842884,173.16371959788725</t>
+          <t>-34.809069879596805,173.1637196275179</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11654,17 +11654,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.807580017757594,173.16367265355711</t>
+          <t>-34.80758001416221,173.16367261737494</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.80831941210099,173.16363419723356</t>
+          <t>-34.80831940756097,173.16363415001751</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-34.80906218326715,173.16363681968724</t>
+          <t>-34.80906218510311,173.163636839441</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -11681,17 +11681,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.807604818467276,173.16392223826648</t>
+          <t>-34.8076048220626,173.16392227444868</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.80832786606196,173.1637221182673</t>
+          <t>-34.80832786560796,173.16372211354567</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.80907381402981,173.1637619598666</t>
+          <t>-34.80907381770169,173.16376199937415</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11708,17 +11708,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.80756876774514,173.16355943955014</t>
+          <t>-34.80756876414972,173.16355940336797</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.808295448650995,173.1633849814981</t>
+          <t>-34.80829545319113,173.16338502871415</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.80905921726437,173.1636049074655</t>
+          <t>-34.809059216346384,173.1636048975886</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80831191194384,173.16355619630983</t>
+          <t>-34.80831191012781,173.1635561774234</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11762,17 +11762,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.80759145102752,173.1637877128858</t>
+          <t>-34.80759144743218,173.16378767670363</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80831476718512,173.1635858904855</t>
+          <t>-34.80831477127116,173.16358593297997</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.8090580183763,173.16359200825178</t>
+          <t>-34.80905801470436,173.16359196874424</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11794,12 +11794,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80831363353398,173.16357410063685</t>
+          <t>-34.80831363307996,173.16357409591527</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-34.80905717933745,173.1635829807778</t>
+          <t>-34.80905717658349,173.16358295114713</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.80833364228583,173.16378219127634</t>
+          <t>-34.80833364001584,173.1637821676683</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-34.809074255573975,173.16376671065072</t>
+          <t>-34.809074251902096,173.16376667114318</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -11843,17 +11843,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.807606907341004,173.16394326012247</t>
+          <t>-34.80760690374571,173.16394322394027</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.80833294494559,173.16377493888714</t>
+          <t>-34.80833294040561,173.16377489167107</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.80907736014752,173.16380011429442</t>
+          <t>-34.80907736198346,173.16380013404816</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -11875,12 +11875,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.8083213720309,173.16365458040704</t>
+          <t>-34.80832137066891,173.16365456624223</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.80906442497586,173.16366093904665</t>
+          <t>-34.809064426811815,173.16366095880042</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.80833025863805,173.16374700113647</t>
+          <t>-34.80833025682206,173.16374698225007</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -11929,12 +11929,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.808325454866754,173.1636970418136</t>
+          <t>-34.808325453504764,173.1636970276488</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.809065090510906,173.16366809979039</t>
+          <t>-34.809065093264834,173.16366812942104</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.80834324247402,173.16388203440152</t>
+          <t>-34.80834324655997,173.163882076896</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.809073698365395,173.16376071537846</t>
+          <t>-34.80907369652946,173.1637606956247</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -11983,12 +11983,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.80833457888209,173.16379193195286</t>
+          <t>-34.808334579790085,173.16379194139606</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-34.80907365154884,173.16376021165706</t>
+          <t>-34.8090736561387,173.16376026104152</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12005,12 +12005,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.807611847279205,173.16399297446418</t>
+          <t>-34.807611843683915,173.16399293828198</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.80833086291025,173.1637532855957</t>
+          <t>-34.80833086245625,173.1637532808741</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12032,17 +12032,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.80759558567381,173.16382932239918</t>
+          <t>-34.807595589269134,173.16382935858138</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80831322492896,173.16356985119208</t>
+          <t>-34.80831322583697,173.1635698606353</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.80906145071756,173.16362893793124</t>
+          <t>-34.80906144796363,173.16362890830058</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12064,12 +12064,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.80832177836295,173.1636588062446</t>
+          <t>-34.80832177790895,173.16365880152298</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-34.80906311134614,173.1636468052204</t>
+          <t>-34.809063114100105,173.16364683485105</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12091,12 +12091,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.80833123201099,173.16375712426242</t>
+          <t>-34.80833122792502,173.16375708176795</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-34.80907526993152,173.16377762461448</t>
+          <t>-34.809075271767455,173.16377764436822</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12113,17 +12113,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.80761786937433,173.16405357965579</t>
+          <t>-34.8076178729696,173.164053615838</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.80833951154899,173.16384323222331</t>
+          <t>-34.808339508371034,173.16384319917205</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-34.80908254940977,173.1638559483619</t>
+          <t>-34.809082552163666,173.16385597799257</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12140,17 +12140,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.807611739420516,173.16399188899814</t>
+          <t>-34.80761173582522,173.16399185281594</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.80834025791659,173.16385099454732</t>
+          <t>-34.80834026018656,173.16385101815538</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-34.8090842173487,173.1638738946752</t>
+          <t>-34.80908421826666,173.16387390455205</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12169,7 +12169,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-34.80907481461821,173.16377272567686</t>
+          <t>-34.80907481737212,173.16377275530755</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12186,17 +12186,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.80760233410499,173.16389723637025</t>
+          <t>-34.807602330509674,173.16389720018807</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.80833304527908,173.1637759823624</t>
+          <t>-34.80833304482508,173.1637759776408</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.80907461450061,173.16377057251478</t>
+          <t>-34.80907461541857,173.1637705823917</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12214,12 +12214,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.808324410664625,173.16368618211845</t>
+          <t>-34.80832440930263,173.16368616795364</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.809070491885876,173.163726215403</t>
+          <t>-34.809070495557776,173.16372625491056</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12236,17 +12236,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.80761217085523,173.1639962308623</t>
+          <t>-34.80761216725995,173.16399619468012</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.80832901740472,173.1637340922626</t>
+          <t>-34.80832901422672,173.16373405921138</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-34.80907525707993,173.163777486338</t>
+          <t>-34.80907526166977,173.16377753572243</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12263,17 +12263,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.80759640541066,173.163837571938</t>
+          <t>-34.80759640900601,173.16383760812016</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.80832493775982,173.16369166390368</t>
+          <t>-34.80832494184583,173.1636917063981</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-34.809066965940474,173.16368827827299</t>
+          <t>-34.80906696135058,173.16368822888853</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-34.80906159392277,173.16363047872562</t>
+          <t>-34.80906158933288,173.1636304293412</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.80760958224457,173.16397017967796</t>
+          <t>-34.80760957864927,173.16397014349576</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12341,12 +12341,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.808326022821504,173.1637029485436</t>
+          <t>-34.80832602781551,173.16370300048126</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-34.809070860911504,173.1637301859125</t>
+          <t>-34.80907085907556,173.1637301661587</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12363,17 +12363,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.807602844640066,173.16390237424173</t>
+          <t>-34.80760284823538,173.16390241042393</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.808332229899,173.1637675023554</t>
+          <t>-34.80833223035301,173.163767507077</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-34.809070238524924,173.16372348938157</t>
+          <t>-34.80907024311479,173.16372353876602</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12395,12 +12395,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.80833262941716,173.16377165736995</t>
+          <t>-34.80833262714717,173.1637716337619</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-34.8090702862596,173.16372400297982</t>
+          <t>-34.809070283505676,173.16372397334916</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12417,17 +12417,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.80759614654646,173.16383496682047</t>
+          <t>-34.8075961501418,173.16383500300265</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.80832270543506,173.16366844776465</t>
+          <t>-34.808322707251065,173.16366846665107</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.809060552012554,173.16361926845883</t>
+          <t>-34.80906054925861,173.16361923882818</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12444,12 +12444,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.807600007931875,173.16387382649197</t>
+          <t>-34.807600011527185,173.16387386267414</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.808324614965116,173.16368830684138</t>
+          <t>-34.808324618143125,173.16368833989264</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -12471,17 +12471,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.80760816929222,173.16395596007382</t>
+          <t>-34.80760816569692,173.16395592389162</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.80833372173537,173.16378301755765</t>
+          <t>-34.80833372355136,173.16378303644407</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-34.8090700218829,173.16372115843572</t>
+          <t>-34.80907002096494,173.16372114855884</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12498,12 +12498,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.80760333719834,173.16390733120227</t>
+          <t>-34.80760333360303,173.16390729502007</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.80832915496651,173.16373552290955</t>
+          <t>-34.80832914997251,173.16373547097186</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -12530,12 +12530,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80833891681534,173.16383704691657</t>
+          <t>-34.80833891318337,173.16383700914372</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.809071193218045,173.16373376134644</t>
+          <t>-34.809071192300074,173.16373375146955</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -12552,17 +12552,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.80761203423425,173.16399485593865</t>
+          <t>-34.807612037829536,173.16399489212083</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.80834030604002,173.16385149503782</t>
+          <t>-34.808340301954075,173.16385145254335</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-34.809083508681525,173.16386626971425</t>
+          <t>-34.80908351143541,173.1638662993449</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12579,17 +12579,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.807612106140034,173.16399557958266</t>
+          <t>-34.80761210254474,173.1639955434005</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.80833905891585,173.16383852477992</t>
+          <t>-34.80833905936984,173.16383852950153</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.8090858283714,173.1638912286218</t>
+          <t>-34.809085823781594,173.16389117923734</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12630,12 +12630,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.808335380640564,173.1638002703121</t>
+          <t>-34.80833538381854,173.16380030336336</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.809074056374236,173.16376456736558</t>
+          <t>-34.80907406004612,173.16376460687314</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12652,17 +12652,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.80760829153244,173.16395719026855</t>
+          <t>-34.807608295127736,173.16395722645075</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.80833740274008,173.16382130035362</t>
+          <t>-34.8083373991081,173.16382126258077</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.80907406922585,173.16376470564202</t>
+          <t>-34.80907407014381,173.1637647155189</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12679,17 +12679,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.807607133845174,173.16394553960086</t>
+          <t>-34.80760713024986,173.16394550341866</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.80833438684134,173.1637899347128</t>
+          <t>-34.808334391835295,173.1637899866505</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-34.809072144238414,173.163743993804</t>
+          <t>-34.80907214148449,173.16374396417334</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -12706,17 +12706,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.807595067944945,173.16382411216424</t>
+          <t>-34.8075950715403,173.16382414834644</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.8083264913499,173.16370782124176</t>
+          <t>-34.808326487263905,173.1637077787473</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.80906634171563,173.16368156198888</t>
+          <t>-34.80906634538755,173.16368160149645</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12733,17 +12733,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.807619659818286,173.164071598395</t>
+          <t>-34.80761966341354,173.16407163457723</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.8083465334683,173.16391626134399</t>
+          <t>-34.80834653573826,173.16391628495202</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.80908305245383,173.1638613608988</t>
+          <t>-34.80908305704364,173.16386141028326</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12765,12 +12765,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.80835460042677,173.16400015962282</t>
+          <t>-34.808354596794864,173.1640001218499</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-34.80908975815486,173.1639335116021</t>
+          <t>-34.80908976182669,173.16393355110966</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -12792,12 +12792,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.808359074024914,173.16404668636955</t>
+          <t>-34.80835907629485,173.1640467099776</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-34.80908260540557,173.16385655085233</t>
+          <t>-34.80908260265167,173.16385652122165</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -12814,17 +12814,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.80762483699056,173.16412370077785</t>
+          <t>-34.80762484058582,173.16412373696008</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.80835767801361,173.1640321674177</t>
+          <t>-34.80835767710563,173.16403215797448</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.80908464144723,173.16387845779954</t>
+          <t>-34.80908464236518,173.1638784676764</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.80759766737292,173.1638502718862</t>
+          <t>-34.80759767096824,173.16385030806836</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.80907206345679,173.1637431246377</t>
+          <t>-34.80907206070286,173.16374309500705</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -12868,17 +12868,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.80760068385282,173.16388062874395</t>
+          <t>-34.80760068025749,173.16388059256175</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.808321747490794,173.16365848517538</t>
+          <t>-34.8083217465828,173.16365847573215</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.80906435337344,173.16366016864941</t>
+          <t>-34.809064356127394,173.16366019828007</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -12895,17 +12895,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.8076028302588,173.16390222951296</t>
+          <t>-34.80760282666348,173.16390219333076</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.808328217457706,173.16372577279105</t>
+          <t>-34.80832822063571,173.1637258058423</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.80906848519203,173.1637046245236</t>
+          <t>-34.80906848611001,173.1637046344005</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12927,12 +12927,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.80833283008418,173.16377374432045</t>
+          <t>-34.80833282554419,173.16377369710438</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-34.80907512122033,173.16377602455822</t>
+          <t>-34.80907512030236,173.16377601468133</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.808346429504084,173.16391518009553</t>
+          <t>-34.80834643132004,173.16391519898195</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -12976,17 +12976,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.807575379701944,173.16362597855536</t>
+          <t>-34.80757537610656,173.1636259423732</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.80829823719438,173.16341398158642</t>
+          <t>-34.80829824128048,173.16341402408085</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.80904978768825,173.16350345209773</t>
+          <t>-34.809049784934274,173.1635034224671</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13003,17 +13003,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.80758581350426,173.1637309792255</t>
+          <t>-34.80758581709962,173.16373101540765</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.80831146474765,173.1635515455288</t>
+          <t>-34.8083114611156,173.16355150775595</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.80906044736248,173.16361814249373</t>
+          <t>-34.809060448280455,173.16361815237062</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13030,17 +13030,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.80760510609212,173.1639251328421</t>
+          <t>-34.807605102496794,173.1639250966599</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.808321422425166,173.16365510450532</t>
+          <t>-34.808321422879175,173.16365510922694</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.80906367406823,173.1636528597525</t>
+          <t>-34.80906366947833,173.16365281036803</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13057,17 +13057,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.807598702828145,173.16386069235676</t>
+          <t>-34.80759870642347,173.16386072853896</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.80831824485828,173.16362205798478</t>
+          <t>-34.8083182484903,173.16362209575763</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.80906147091318,173.16362915522276</t>
+          <t>-34.80906146815923,173.1636291255921</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13084,12 +13084,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.80759713885898,173.16384495310442</t>
+          <t>-34.80759714245431,173.1638449892866</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.808322681372964,173.1636681975195</t>
+          <t>-34.80832268636698,173.16366824945717</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.80831211306857,173.16355828798092</t>
+          <t>-34.8083121085285,173.16355824076484</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-34.80905652205927,173.16357590892738</t>
+          <t>-34.8090565202233,173.16357588917361</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13138,17 +13138,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.80758484275459,173.1637212100373</t>
+          <t>-34.80758484634997,173.1637212462195</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.80832181559113,173.1636591934163</t>
+          <t>-34.80832181967715,173.16365923591079</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.80905368823092,173.16354541898144</t>
+          <t>-34.80905369282088,173.16354546836584</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13170,12 +13170,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.80830318273302,173.1634654140174</t>
+          <t>-34.808303180462985,173.16346539040939</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.80904585041126,173.16346109014262</t>
+          <t>-34.809045846739274,173.16346105063508</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.809048881629316,173.16349370361294</t>
+          <t>-34.809048886219294,173.16349375299737</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13219,17 +13219,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.807596135760434,173.1638348582739</t>
+          <t>-34.80759613935579,173.16383489445607</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.808318367439256,173.16362333281836</t>
+          <t>-34.80831836335322,173.1636232903239</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.80906505929961,173.1636677639762</t>
+          <t>-34.80906506297153,173.16366780348375</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13247,12 +13247,12 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.80831381876819,173.16357602705182</t>
+          <t>-34.80831382103823,173.16357605065986</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.809062947945556,173.16364504713442</t>
+          <t>-34.809062952535456,173.16364509651888</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13274,12 +13274,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.8083033030456,173.1634666652425</t>
+          <t>-34.808303305769655,173.1634666935721</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-34.80905919523274,173.16360467042023</t>
+          <t>-34.80905919615073,173.1636046802971</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -13296,17 +13296,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.807568663477994,173.16355839026738</t>
+          <t>-34.8075686670734,173.16355842644953</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.80830694056512,173.16350449473669</t>
+          <t>-34.80830693965711,173.1635044852935</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-34.809049026672234,173.16349526416064</t>
+          <t>-34.80904902759022,173.16349527403756</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.807578921164655,173.16366161799422</t>
+          <t>-34.80757892476005,173.1636616541764</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-34.80905248382863,173.1635324605081</t>
+          <t>-34.809052481074644,173.16353243087744</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13350,17 +13350,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.80759112744591,173.16378445648928</t>
+          <t>-34.80759112385055,173.1637844203071</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.808310477737386,173.16354128075946</t>
+          <t>-34.80831047955341,173.16354129964589</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-34.809060186655245,173.16361533745788</t>
+          <t>-34.80906018573725,173.163615327581</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13382,12 +13382,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.80830318681911,173.16346545651183</t>
+          <t>-34.8083031909052,173.16346549900626</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.8090462873772,173.16346579153915</t>
+          <t>-34.80904629104919,173.1634658310467</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13404,17 +13404,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.807578414214795,173.16365651630787</t>
+          <t>-34.80757841781019,173.16365655249004</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80830222023203,173.1634554042167</t>
+          <t>-34.80830221977802,173.16345539949512</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.809053477093435,173.16354314729782</t>
+          <t>-34.809053480765385,173.16354318680536</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13431,17 +13431,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.807581614107484,173.16368871844264</t>
+          <t>-34.807581610512095,173.16368868226047</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.80830791940636,173.16351467451628</t>
+          <t>-34.808307921222394,173.1635146934027</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-34.809066842013515,173.16368694489304</t>
+          <t>-34.80906684017755,173.16368692513927</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13458,17 +13458,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.807582804177756,173.16370069474283</t>
+          <t>-34.80758280777313,173.16370073092503</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.808304382226034,173.16347788849575</t>
+          <t>-34.808304381318024,173.16347787905255</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.80905504409987,173.16356000714126</t>
+          <t>-34.80905504593584,173.16356002689503</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.80759390305425,173.16381238913584</t>
+          <t>-34.80759390664959,173.16381242531804</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13508,17 +13508,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.807598861022605,173.16386228437312</t>
+          <t>-34.80759885742728,173.16386224819095</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.80832117317786,173.16365251234353</t>
+          <t>-34.80832117226985,173.16365250290033</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-34.80906451401987,173.1636618971048</t>
+          <t>-34.809064517691795,173.16366193661233</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13535,12 +13535,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.8075782308499,173.16365467101707</t>
+          <t>-34.80757823444529,173.16365470719924</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.80830034062864,173.1634358567764</t>
+          <t>-34.808300340174625,173.16343585205482</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -13558,17 +13558,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.80759128923673,173.16378608468756</t>
+          <t>-34.80759128564138,173.16378604850536</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.80831108202023,173.16354756521574</t>
+          <t>-34.80831108519828,173.16354759826697</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-34.809060385857606,173.16361748074232</t>
+          <t>-34.80906038769357,173.1636175004961</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13585,17 +13585,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.807577001225766,173.1636422967143</t>
+          <t>-34.80757700482116,173.16364233289647</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.80830907258557,173.16352666739235</t>
+          <t>-34.808309069861544,173.16352663906272</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-34.809053348574935,173.1635417645339</t>
+          <t>-34.80905334949291,173.16354177441076</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13612,17 +13612,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.80758789522033,173.16375192870757</t>
+          <t>-34.80758789881569,173.16375196488977</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.80831253484015,173.16356267435214</t>
+          <t>-34.80831253665617,173.16356269323853</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-34.8090608448491,173.16362241918577</t>
+          <t>-34.80906084209516,173.16362238955512</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13644,12 +13644,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.80831246083719,173.16356190473047</t>
+          <t>-34.80831246356122,173.1635619330601</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-34.809066213198705,173.16368017922454</t>
+          <t>-34.80906621411668,173.16368018910143</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13666,17 +13666,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.80759876754405,173.1638613436362</t>
+          <t>-34.80759877113939,173.16386137981837</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.808318032384555,173.16361984827324</t>
+          <t>-34.80831802920653,173.163619815222</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.809072319571214,173.16374588028992</t>
+          <t>-34.80907232324311,173.16374591979746</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13693,17 +13693,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.80759931403392,173.16386684332912</t>
+          <t>-34.8075993104386,173.16386680714692</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.808311946902315,173.16355655987343</t>
+          <t>-34.808311951896385,173.16355661181106</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.809058007360484,173.16359188972916</t>
+          <t>-34.80905800460654,173.16359186009848</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13725,12 +13725,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.80832173931876,173.16365840018648</t>
+          <t>-34.80832173614074,173.1636583671352</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.80906928750284,173.1637132569245</t>
+          <t>-34.80906928383093,173.16371321741693</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13747,17 +13747,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.807597106500964,173.16384462746473</t>
+          <t>-34.8075971100963,173.1638446636469</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.80831842373569,173.16362391829747</t>
+          <t>-34.80831842600571,173.1636239419055</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.8090666538281,173.16368492013095</t>
+          <t>-34.80906665841798,173.16368496951537</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13774,17 +13774,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.80759917381616,173.1638654322237</t>
+          <t>-34.80759917022082,173.1638653960415</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.808311567807095,173.16355261733315</t>
+          <t>-34.80831156553707,173.16355259372511</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.80906104864126,173.1636246118547</t>
+          <t>-34.80906104405134,173.16362456247026</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13806,12 +13806,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.8083020531563,173.16345366666644</t>
+          <t>-34.808302052702274,173.16345366194483</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-34.809061092704425,173.16362508594528</t>
+          <t>-34.80906109454038,173.16362510569905</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13828,17 +13828,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.80758917516832,173.16376480956413</t>
+          <t>-34.80758917157296,173.16376477338193</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80831048454749,173.16354135158355</t>
+          <t>-34.80831047955341,173.16354129964589</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-34.80905073964598,173.16351369442697</t>
+          <t>-34.80905074423595,173.16351374381136</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13855,17 +13855,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.807588261947146,173.16375561929004</t>
+          <t>-34.8075882655425,173.16375565547222</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.808314633707624,173.16358450233352</t>
+          <t>-34.808314635523644,173.16358452121992</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-34.809055837241075,173.1635685407705</t>
+          <t>-34.809055833569126,173.16356850126294</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -13887,12 +13887,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.80832919764241,173.1637359667406</t>
+          <t>-34.80832920218241,173.16373601395668</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-34.809067520398685,173.16369424391362</t>
+          <t>-34.809067516726785,173.16369420440608</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -13909,17 +13909,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.80761396130768,173.1640142495991</t>
+          <t>-34.8076139577124,173.16401421341692</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.80834858324123,173.16393757940926</t>
+          <t>-34.80834858233323,173.16393756996604</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-34.809091637212205,173.16395372960412</t>
+          <t>-34.80909163996607,173.1639537592348</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -13936,7 +13936,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.807600597565056,173.16387976037134</t>
+          <t>-34.80760059396973,173.16387972418917</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-34.80906936644872,173.16371410633693</t>
+          <t>-34.80906936461277,173.16371408658316</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -13963,17 +13963,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.807586942449156,173.16374234042982</t>
+          <t>-34.80758693885382,173.16374230424765</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.80832737256413,173.1637169858806</t>
+          <t>-34.80832737483414,173.1637170094886</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-34.809068182259864,173.16370136515033</t>
+          <t>-34.80906818317785,173.16370137502722</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -13995,12 +13995,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.808328457623475,173.16372827052115</t>
+          <t>-34.80832846080148,173.16372830357238</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-34.80906847234036,173.16370448624718</t>
+          <t>-34.809068476012264,173.16370452575472</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14017,17 +14017,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.807595089517,173.16382432925738</t>
+          <t>-34.807595093112326,173.16382436543955</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.808325068966084,173.163693028448</t>
+          <t>-34.80832506715007,173.16369300956154</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-34.80906159759471,173.1636305182332</t>
+          <t>-34.80906159943068,173.16363053798696</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14044,17 +14044,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.80760526788105,173.1639267610409</t>
+          <t>-34.80760526428573,173.1639267248587</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.80832736711614,173.1637169292213</t>
+          <t>-34.80832736439213,173.16371690089167</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-34.809076132823115,173.16378690889152</t>
+          <t>-34.80907613006921,173.16378687926084</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14071,12 +14071,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.807604717798576,173.163921225165</t>
+          <t>-34.80760471420327,173.1639211889828</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.808325362704615,173.1636960833275</t>
+          <t>-34.80832535952659,173.16369605027623</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14098,17 +14098,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.807611437416114,173.16398884969323</t>
+          <t>-34.80761143382082,173.16398881351105</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.80832593928541,173.16370207976794</t>
+          <t>-34.80832594427942,173.16370213170563</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-34.80907087192719,173.16373030443518</t>
+          <t>-34.80907086917327,173.1637302748045</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14125,12 +14125,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.807611904803835,173.16399355337938</t>
+          <t>-34.80761190839913,173.16399358956158</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.80833129511679,173.16375778056585</t>
+          <t>-34.8083312905768,173.16375773334977</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14152,17 +14152,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.80757332313202,173.1636052823547</t>
+          <t>-34.807573326727415,173.16360531853684</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.80831256571255,173.16356299542127</t>
+          <t>-34.8083125679826,173.16356301902928</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-34.809055481062,173.16356470853881</t>
+          <t>-34.809055480143996,173.16356469866196</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14179,17 +14179,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.80760962538812,173.16397061386434</t>
+          <t>-34.80760962179283,173.16397057768214</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.808341709336815,173.16386608952936</t>
+          <t>-34.80834171160679,173.16386611313743</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-34.80908023338452,173.16383102896387</t>
+          <t>-34.809080229712656,173.16383098945627</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14211,12 +14211,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.808317430375475,173.16361358742398</t>
+          <t>-34.808317434007506,173.16361362519683</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-34.809061366263194,173.16362802925764</t>
+          <t>-34.80906136718117,173.16362803913452</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14233,17 +14233,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.80758807858375,173.16375377399882</t>
+          <t>-34.80758808217911,173.163753810181</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80832243893596,173.16366567618172</t>
+          <t>-34.80832243575794,173.1636656431305</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-34.80906772602551,173.16369645633668</t>
+          <t>-34.80906772877943,173.16369648596734</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14260,17 +14260,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.80760617749397,173.1639359151365</t>
+          <t>-34.80760618108929,173.1639359513187</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.808331014999766,173.16375486733412</t>
+          <t>-34.80833101908575,173.1637549098286</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-34.8090706516134,173.16372793398173</t>
+          <t>-34.80907064702353,173.16372788459728</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14287,17 +14287,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.80760074137798,173.16388120765902</t>
+          <t>-34.80760074497331,173.16388124384122</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.808329716563385,173.16374136353753</t>
+          <t>-34.8083297138394,173.1637413352079</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-34.809068812909445,173.16370815057292</t>
+          <t>-34.80906880923754,173.16370811106535</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.808307450870224,173.16350980182028</t>
+          <t>-34.808307451324225,173.16350980654187</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -14342,12 +14342,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.8083002380222,173.16343478969395</t>
+          <t>-34.80830023575214,173.16343476608594</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-34.809053398146354,173.1635422978857</t>
+          <t>-34.809053399982325,173.16354231763947</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14369,12 +14369,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.808307365516704,173.1635089141586</t>
+          <t>-34.808307367786746,173.1635089377666</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-34.80905973317136,173.1636104582758</t>
+          <t>-34.8090597313354,173.16361043852203</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14391,17 +14391,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.807581883760975,173.1636914321058</t>
+          <t>-34.807581880165586,173.16369139592362</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.808305788745734,173.16349251602605</t>
+          <t>-34.80830579101579,173.1634925396341</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-34.80906345558889,173.16365050905324</t>
+          <t>-34.80906345742486,173.163650528807</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14423,12 +14423,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.808319097476776,173.16363092516062</t>
+          <t>-34.808319094298746,173.1636308921094</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-34.80906287542506,173.16364426686033</t>
+          <t>-34.809062871753135,173.16364422735276</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14445,17 +14445,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.80760551595736,173.1639292576124</t>
+          <t>-34.80760551236205,173.16392922143024</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.808333882450434,173.16378468900675</t>
+          <t>-34.80833388018044,173.1637846653987</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-34.80906905066515,173.16371070868712</t>
+          <t>-34.80906905158314,173.16371071856403</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14472,17 +14472,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.80757674954816,173.16363976396232</t>
+          <t>-34.80757674595276,173.16363972778015</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.808304282344,173.1634768497428</t>
+          <t>-34.80830428733811,173.16347690168047</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-34.809059633111126,173.16360938169515</t>
+          <t>-34.80905963035717,173.1636093520645</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -14499,17 +14499,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.807578964309315,173.1636620521803</t>
+          <t>-34.8075789679047,173.16366208836246</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.808303271718934,173.16346633945182</t>
+          <t>-34.80830327444299,173.16346636778144</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-34.809052574709625,173.16353343831972</t>
+          <t>-34.80905257195567,173.16353340868906</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -14526,12 +14526,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.80756919200447,173.16356370904555</t>
+          <t>-34.807569195599896,173.1635637452277</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.808297308740045,173.16340432590718</t>
+          <t>-34.808297311918125,173.16340435895842</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -8100,13 +8100,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0546</v>
+        <v>0.0475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0655</v>
+        <v>0.0669</v>
       </c>
       <c r="I2" t="n">
         <v>-0.273007097000337</v>
@@ -8177,9 +8177,15 @@
       <c r="E3" t="n">
         <v>0.5000033894781234</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0964</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.1286608508618116</v>
       </c>
@@ -8250,13 +8256,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0534</v>
+        <v>0.0568</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0616</v>
+        <v>0.0751</v>
       </c>
       <c r="I4" t="n">
         <v>0.05856555131884679</v>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.29</v>
+        <v>365.6</v>
       </c>
       <c r="C2" t="n">
-        <v>360.82</v>
+        <v>360.01</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378.62</v>
+        <v>377.4</v>
       </c>
       <c r="C3" t="n">
-        <v>372.75</v>
+        <v>375.99</v>
       </c>
       <c r="D3" t="n">
-        <v>374.88</v>
+        <v>377.12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>368.95</v>
+        <v>366.46</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.54</v>
+        <v>371.16</v>
       </c>
       <c r="C5" t="n">
-        <v>370.89</v>
+        <v>371.91</v>
       </c>
       <c r="D5" t="n">
-        <v>375.79</v>
+        <v>376.49</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374.96</v>
+        <v>374.08</v>
       </c>
       <c r="C6" t="n">
-        <v>369.25</v>
+        <v>371.61</v>
       </c>
       <c r="D6" t="n">
-        <v>373.51</v>
+        <v>375.14</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.81</v>
+        <v>363.19</v>
       </c>
       <c r="C7" t="n">
-        <v>359.89</v>
+        <v>361.55</v>
       </c>
       <c r="D7" t="n">
-        <v>360.71</v>
+        <v>361.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.36</v>
+        <v>342.41</v>
       </c>
       <c r="C8" t="n">
-        <v>322.54</v>
+        <v>319.74</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.19</v>
+        <v>347.24</v>
       </c>
       <c r="C9" t="n">
-        <v>343.82</v>
+        <v>343.7</v>
       </c>
       <c r="D9" t="n">
-        <v>362.91</v>
+        <v>362.82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.55</v>
+        <v>367.88</v>
       </c>
       <c r="C10" t="n">
-        <v>357.66</v>
+        <v>359.44</v>
       </c>
       <c r="D10" t="n">
-        <v>373.14</v>
+        <v>374.37</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.36</v>
+        <v>371.71</v>
       </c>
       <c r="C11" t="n">
-        <v>362.14</v>
+        <v>358.53</v>
       </c>
       <c r="D11" t="n">
-        <v>373.82</v>
+        <v>371.33</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.9</v>
+        <v>371.28</v>
       </c>
       <c r="C12" t="n">
-        <v>357.41</v>
+        <v>356.39</v>
       </c>
       <c r="D12" t="n">
-        <v>371.87</v>
+        <v>371.17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367.51</v>
+        <v>366.96</v>
       </c>
       <c r="C13" t="n">
-        <v>354.22</v>
+        <v>355.68</v>
       </c>
       <c r="D13" t="n">
-        <v>369.52</v>
+        <v>370.53</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>352.76</v>
+        <v>354.79</v>
       </c>
       <c r="D14" t="n">
-        <v>363.48</v>
+        <v>364.88</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352.55</v>
+        <v>353.52</v>
       </c>
       <c r="C15" t="n">
-        <v>341.42</v>
+        <v>338.82</v>
       </c>
       <c r="D15" t="n">
-        <v>365.89</v>
+        <v>364.1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>353.15</v>
+        <v>352.37</v>
       </c>
       <c r="C16" t="n">
-        <v>338.64</v>
+        <v>340.75</v>
       </c>
       <c r="D16" t="n">
-        <v>356.14</v>
+        <v>357.59</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.93</v>
+        <v>378.33</v>
       </c>
       <c r="C17" t="n">
-        <v>362.65</v>
+        <v>358.92</v>
       </c>
       <c r="D17" t="n">
-        <v>370.62</v>
+        <v>368.04</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.87</v>
+        <v>378.95</v>
       </c>
       <c r="C18" t="n">
-        <v>374.73</v>
+        <v>371.85</v>
       </c>
       <c r="D18" t="n">
-        <v>380.82</v>
+        <v>378.83</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>374.32</v>
+        <v>374.59</v>
       </c>
       <c r="C19" t="n">
-        <v>369.05</v>
+        <v>368.32</v>
       </c>
       <c r="D19" t="n">
-        <v>373.31</v>
+        <v>372.81</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>375.96</v>
+        <v>375.14</v>
       </c>
       <c r="C20" t="n">
-        <v>363.79</v>
+        <v>365.98</v>
       </c>
       <c r="D20" t="n">
-        <v>374.41</v>
+        <v>375.92</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>374.43</v>
+        <v>374.48</v>
       </c>
       <c r="C21" t="n">
-        <v>374.05</v>
+        <v>373.93</v>
       </c>
       <c r="D21" t="n">
-        <v>369.58</v>
+        <v>369.49</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.41</v>
+        <v>378.33</v>
       </c>
       <c r="C22" t="n">
-        <v>374.1</v>
+        <v>371.62</v>
       </c>
       <c r="D22" t="n">
-        <v>375.07</v>
+        <v>373.36</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.87</v>
+        <v>363.99</v>
       </c>
       <c r="C23" t="n">
-        <v>357.31</v>
+        <v>359.67</v>
       </c>
       <c r="D23" t="n">
-        <v>361.85</v>
+        <v>363.48</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>383.7</v>
+        <v>383.2</v>
       </c>
       <c r="C24" t="n">
-        <v>373.8</v>
+        <v>375.14</v>
       </c>
       <c r="D24" t="n">
-        <v>382.03</v>
+        <v>382.95</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>381.99</v>
+        <v>379.17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>371.26</v>
+        <v>370.82</v>
       </c>
       <c r="C26" t="n">
-        <v>361.06</v>
+        <v>362.23</v>
       </c>
       <c r="D26" t="n">
-        <v>364.08</v>
+        <v>364.89</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -981,13 +981,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.12</v>
+        <v>360.45</v>
       </c>
       <c r="C27" t="n">
-        <v>351.25</v>
+        <v>350.35</v>
       </c>
       <c r="D27" t="n">
-        <v>365.25</v>
+        <v>364.63</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>370.89</v>
+        <v>373.65</v>
       </c>
       <c r="D28" t="n">
-        <v>375.66</v>
+        <v>377.56</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>357.75</v>
+        <v>359.54</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>354.21</v>
+        <v>357.05</v>
       </c>
       <c r="D30" t="n">
-        <v>367.79</v>
+        <v>369.75</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>378.78</v>
+        <v>379.54</v>
       </c>
       <c r="C31" t="n">
-        <v>372.84</v>
+        <v>370.81</v>
       </c>
       <c r="D31" t="n">
-        <v>370.54</v>
+        <v>369.14</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.4</v>
+        <v>344.96</v>
       </c>
       <c r="C32" t="n">
-        <v>344.88</v>
+        <v>346.05</v>
       </c>
       <c r="D32" t="n">
-        <v>351.76</v>
+        <v>352.57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>374.8</v>
+        <v>374.77</v>
       </c>
       <c r="C33" t="n">
-        <v>374.85</v>
+        <v>374.93</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.22</v>
+        <v>377.94</v>
       </c>
       <c r="C34" t="n">
-        <v>372.63</v>
+        <v>368.05</v>
       </c>
       <c r="D34" t="n">
-        <v>383.68</v>
+        <v>380.51</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.11</v>
+        <v>385.69</v>
       </c>
       <c r="C35" t="n">
-        <v>374.29</v>
+        <v>375.43</v>
       </c>
       <c r="D35" t="n">
-        <v>378.66</v>
+        <v>379.44</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>348.58</v>
+        <v>349.48</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.12</v>
+        <v>377.57</v>
       </c>
       <c r="C37" t="n">
-        <v>375.31</v>
+        <v>374.09</v>
       </c>
       <c r="D37" t="n">
-        <v>383.03</v>
+        <v>382.2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1199,10 +1199,10 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>352.79</v>
+        <v>351.86</v>
       </c>
       <c r="D38" t="n">
-        <v>359.83</v>
+        <v>359.19</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>385.42</v>
+        <v>384.59</v>
       </c>
       <c r="C39" t="n">
-        <v>373.24</v>
+        <v>375.48</v>
       </c>
       <c r="D39" t="n">
-        <v>372</v>
+        <v>373.54</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>370.93</v>
+        <v>370.24</v>
       </c>
       <c r="C40" t="n">
-        <v>363.54</v>
+        <v>365.41</v>
       </c>
       <c r="D40" t="n">
-        <v>371.08</v>
+        <v>372.36</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.59</v>
+        <v>379.78</v>
       </c>
       <c r="C41" t="n">
-        <v>377.47</v>
+        <v>376.94</v>
       </c>
       <c r="D41" t="n">
-        <v>381.82</v>
+        <v>381.46</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>368.05</v>
+        <v>368.52</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>361.5</v>
+        <v>364.5</v>
       </c>
       <c r="D43" t="n">
-        <v>364.68</v>
+        <v>366.75</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>357.9</v>
+        <v>360.38</v>
       </c>
       <c r="D44" t="n">
-        <v>367.65</v>
+        <v>369.36</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.77</v>
+        <v>351.68</v>
       </c>
       <c r="C45" t="n">
-        <v>346.77</v>
+        <v>344.34</v>
       </c>
       <c r="D45" t="n">
-        <v>357.13</v>
+        <v>355.45</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.74</v>
+        <v>363.71</v>
       </c>
       <c r="C46" t="n">
-        <v>357.79</v>
+        <v>357.87</v>
       </c>
       <c r="D46" t="n">
-        <v>364.18</v>
+        <v>364.23</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>364.1</v>
+        <v>364.88</v>
       </c>
       <c r="C47" t="n">
-        <v>355.39</v>
+        <v>353.28</v>
       </c>
       <c r="D47" t="n">
-        <v>373.99</v>
+        <v>372.54</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>377.34</v>
+        <v>376.65</v>
       </c>
       <c r="C48" t="n">
-        <v>373.91</v>
+        <v>375.78</v>
       </c>
       <c r="D48" t="n">
-        <v>374.92</v>
+        <v>376.2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.17</v>
+        <v>369.86</v>
       </c>
       <c r="C49" t="n">
-        <v>358.32</v>
+        <v>356.45</v>
       </c>
       <c r="D49" t="n">
-        <v>368.54</v>
+        <v>367.26</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1441,10 +1441,10 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>375.34</v>
+        <v>375.54</v>
       </c>
       <c r="D50" t="n">
-        <v>383.02</v>
+        <v>383.16</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>380.72</v>
+        <v>379.94</v>
       </c>
       <c r="C51" t="n">
-        <v>371.44</v>
+        <v>373.55</v>
       </c>
       <c r="D51" t="n">
-        <v>378.98</v>
+        <v>380.43</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>377.22</v>
+        <v>376.87</v>
       </c>
       <c r="C52" t="n">
-        <v>372.8</v>
+        <v>373.73</v>
       </c>
       <c r="D52" t="n">
-        <v>378.75</v>
+        <v>379.39</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>371.61</v>
+        <v>372.78</v>
       </c>
       <c r="C53" t="n">
-        <v>363.99</v>
+        <v>360.87</v>
       </c>
       <c r="D53" t="n">
-        <v>370.1</v>
+        <v>367.95</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>365.66</v>
+        <v>366.02</v>
       </c>
       <c r="C54" t="n">
-        <v>355.77</v>
+        <v>354.8</v>
       </c>
       <c r="D54" t="n">
-        <v>363.27</v>
+        <v>362.6</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>359.37</v>
+        <v>359.55</v>
       </c>
       <c r="C55" t="n">
-        <v>351.74</v>
+        <v>351.25</v>
       </c>
       <c r="D55" t="n">
-        <v>367.46</v>
+        <v>367.13</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>356.52</v>
+        <v>356.75</v>
       </c>
       <c r="C56" t="n">
-        <v>350.82</v>
+        <v>350.21</v>
       </c>
       <c r="D56" t="n">
-        <v>367.99</v>
+        <v>367.57</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>361.45</v>
+        <v>362.15</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1603,10 +1603,10 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>343.38</v>
+        <v>346.42</v>
       </c>
       <c r="D58" t="n">
-        <v>354.29</v>
+        <v>356.39</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>365.75</v>
+        <v>366.76</v>
       </c>
       <c r="C59" t="n">
-        <v>363.91</v>
+        <v>361.19</v>
       </c>
       <c r="D59" t="n">
-        <v>375.95</v>
+        <v>374.08</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1642,13 +1642,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>386.75</v>
+        <v>388.07</v>
       </c>
       <c r="C60" t="n">
-        <v>387.41</v>
+        <v>383.88</v>
       </c>
       <c r="D60" t="n">
-        <v>387.8</v>
+        <v>385.36</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>330.4</v>
+        <v>332.47</v>
       </c>
       <c r="D61" t="n">
-        <v>329.21</v>
+        <v>330.63</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>399.62</v>
+        <v>400.29</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>359.57</v>
+        <v>359.07</v>
       </c>
       <c r="C63" t="n">
-        <v>351.32</v>
+        <v>352.66</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -1719,10 +1719,10 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>354.12</v>
+        <v>355.17</v>
       </c>
       <c r="D64" t="n">
-        <v>356.18</v>
+        <v>356.91</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>386.53</v>
+        <v>387.34</v>
       </c>
       <c r="C65" t="n">
-        <v>384.81</v>
+        <v>382.66</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1757,10 +1757,10 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>357.15</v>
+        <v>358.45</v>
       </c>
       <c r="D66" t="n">
-        <v>367.58</v>
+        <v>368.48</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>358.94</v>
+        <v>357.84</v>
       </c>
       <c r="C67" t="n">
-        <v>352.57</v>
+        <v>355.54</v>
       </c>
       <c r="D67" t="n">
-        <v>364.91</v>
+        <v>366.95</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1797,10 +1797,10 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>359.39</v>
+        <v>361.66</v>
       </c>
       <c r="D68" t="n">
-        <v>350.11</v>
+        <v>351.67</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>348.48</v>
+        <v>348.88</v>
       </c>
       <c r="C69" t="n">
-        <v>340.66</v>
+        <v>339.61</v>
       </c>
       <c r="D69" t="n">
-        <v>366.73</v>
+        <v>366</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>356.7</v>
+        <v>356.23</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>363.56</v>
+        <v>365.24</v>
       </c>
       <c r="C71" t="n">
-        <v>353.54</v>
+        <v>349.04</v>
       </c>
       <c r="D71" t="n">
-        <v>371.89</v>
+        <v>368.79</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>371.36</v>
+        <v>372.04</v>
       </c>
       <c r="C72" t="n">
-        <v>357.25</v>
+        <v>355.42</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -1893,13 +1893,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>356.05</v>
+        <v>355.5</v>
       </c>
       <c r="C73" t="n">
-        <v>343.25</v>
+        <v>344.71</v>
       </c>
       <c r="D73" t="n">
-        <v>358.34</v>
+        <v>359.35</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1914,13 +1914,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>366.63</v>
+        <v>366.05</v>
       </c>
       <c r="C74" t="n">
-        <v>354.82</v>
+        <v>356.36</v>
       </c>
       <c r="D74" t="n">
-        <v>364.35</v>
+        <v>365.41</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>358.16</v>
+        <v>359.87</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>378.89</v>
+        <v>377.97</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>373.9</v>
+        <v>375.61</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>366.41</v>
+        <v>365.73</v>
       </c>
       <c r="C77" t="n">
-        <v>353.5</v>
+        <v>355.33</v>
       </c>
       <c r="D77" t="n">
-        <v>362.17</v>
+        <v>363.43</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>367.73</v>
+        <v>368.5</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>354.16</v>
+        <v>353.25</v>
       </c>
       <c r="C79" t="n">
-        <v>344.51</v>
+        <v>346.94</v>
       </c>
       <c r="D79" t="n">
-        <v>354.27</v>
+        <v>355.95</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>373.84</v>
+        <v>375.03</v>
       </c>
       <c r="C80" t="n">
-        <v>358.84</v>
+        <v>355.63</v>
       </c>
       <c r="D80" t="n">
-        <v>370.87</v>
+        <v>368.66</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>342.46</v>
+        <v>344.24</v>
       </c>
       <c r="C81" t="n">
-        <v>332.24</v>
+        <v>327.45</v>
       </c>
       <c r="D81" t="n">
-        <v>354.82</v>
+        <v>351.52</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>379.42</v>
+        <v>380.66</v>
       </c>
       <c r="C82" t="n">
-        <v>368.61</v>
+        <v>365.28</v>
       </c>
       <c r="D82" t="n">
-        <v>379.79</v>
+        <v>377.5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>363.72</v>
+        <v>363.48</v>
       </c>
       <c r="C83" t="n">
-        <v>351.23</v>
+        <v>351.88</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>372.24</v>
+        <v>371.62</v>
       </c>
       <c r="C84" t="n">
-        <v>367.42</v>
+        <v>369.08</v>
       </c>
       <c r="D84" t="n">
-        <v>374.37</v>
+        <v>375.51</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>349.61</v>
+        <v>347.34</v>
       </c>
       <c r="D85" t="n">
-        <v>362.8</v>
+        <v>361.24</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>353.65</v>
+        <v>352.7</v>
       </c>
       <c r="C86" t="n">
-        <v>344.15</v>
+        <v>346.71</v>
       </c>
       <c r="D86" t="n">
-        <v>358.99</v>
+        <v>360.75</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>358.55</v>
+        <v>357.56</v>
       </c>
       <c r="C87" t="n">
-        <v>344.07</v>
+        <v>346.7</v>
       </c>
       <c r="D87" t="n">
-        <v>366.1</v>
+        <v>367.92</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>374.59</v>
+        <v>373.94</v>
       </c>
       <c r="C88" t="n">
-        <v>364.05</v>
+        <v>365.8</v>
       </c>
       <c r="D88" t="n">
-        <v>373.45</v>
+        <v>374.65</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>354.78</v>
+        <v>355.54</v>
       </c>
       <c r="C89" t="n">
-        <v>353.75</v>
+        <v>351.72</v>
       </c>
       <c r="D89" t="n">
-        <v>363.32</v>
+        <v>361.92</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>375.2</v>
+        <v>375.51</v>
       </c>
       <c r="C90" t="n">
-        <v>369.86</v>
+        <v>369.05</v>
       </c>
       <c r="D90" t="n">
-        <v>377.23</v>
+        <v>376.67</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.8</v>
+        <v>375.42</v>
       </c>
       <c r="C91" t="n">
-        <v>363.86</v>
+        <v>362.2</v>
       </c>
       <c r="D91" t="n">
-        <v>375.39</v>
+        <v>374.25</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>370.15</v>
+        <v>369.75</v>
       </c>
       <c r="C92" t="n">
-        <v>364.06</v>
+        <v>365.11</v>
       </c>
       <c r="D92" t="n">
-        <v>371.87</v>
+        <v>372.6</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>377.26</v>
+        <v>376.61</v>
       </c>
       <c r="C93" t="n">
-        <v>365.87</v>
+        <v>367.62</v>
       </c>
       <c r="D93" t="n">
-        <v>376.35</v>
+        <v>377.55</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2320,13 +2320,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>365.19</v>
+        <v>364.43</v>
       </c>
       <c r="C94" t="n">
-        <v>365.7</v>
+        <v>367.73</v>
       </c>
       <c r="D94" t="n">
-        <v>369.73</v>
+        <v>371.13</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>369.91</v>
+        <v>370.88</v>
       </c>
       <c r="C95" t="n">
-        <v>364.7</v>
+        <v>362.1</v>
       </c>
       <c r="D95" t="n">
-        <v>371.33</v>
+        <v>369.54</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>346.84</v>
+        <v>348.34</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>373.74</v>
+        <v>370.97</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>386.34</v>
+        <v>385.46</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>365.7</v>
+        <v>367.15</v>
       </c>
       <c r="C98" t="n">
-        <v>363.62</v>
+        <v>359.72</v>
       </c>
       <c r="D98" t="n">
-        <v>378.72</v>
+        <v>376.04</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>364.03</v>
+        <v>363.48</v>
       </c>
       <c r="C99" t="n">
-        <v>362.09</v>
+        <v>363.55</v>
       </c>
       <c r="D99" t="n">
-        <v>366.97</v>
+        <v>367.98</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>358.39</v>
+        <v>356.32</v>
       </c>
       <c r="D100" t="n">
-        <v>364.12</v>
+        <v>362.7</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>377.95</v>
+        <v>377.08</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2476,13 +2476,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>368.56</v>
+        <v>367.87</v>
       </c>
       <c r="C102" t="n">
-        <v>368.92</v>
+        <v>370.79</v>
       </c>
       <c r="D102" t="n">
-        <v>375.12</v>
+        <v>376.4</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>358.75</v>
+        <v>358.2</v>
       </c>
       <c r="C103" t="n">
-        <v>350.73</v>
+        <v>352.19</v>
       </c>
       <c r="D103" t="n">
-        <v>362.84</v>
+        <v>363.85</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>358.11</v>
+        <v>359.26</v>
       </c>
       <c r="C104" t="n">
-        <v>358.32</v>
+        <v>355.23</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>356.34</v>
+        <v>353.57</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>365.17</v>
+        <v>366.11</v>
       </c>
       <c r="C106" t="n">
-        <v>354.51</v>
+        <v>352</v>
       </c>
       <c r="D106" t="n">
-        <v>368.45</v>
+        <v>366.72</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2575,11 +2575,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>368.22</v>
+        <v>367.41</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>392.29</v>
+        <v>393.78</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>364.4</v>
+        <v>365.98</v>
       </c>
       <c r="C108" t="n">
-        <v>368.29</v>
+        <v>364.07</v>
       </c>
       <c r="D108" t="n">
-        <v>375.73</v>
+        <v>372.82</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>361.66</v>
+        <v>363.39</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>359.14</v>
+        <v>359.92</v>
       </c>
       <c r="C110" t="n">
-        <v>356.22</v>
+        <v>354.11</v>
       </c>
       <c r="D110" t="n">
-        <v>364.33</v>
+        <v>362.88</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>364.34</v>
+        <v>363.57</v>
       </c>
       <c r="C111" t="n">
-        <v>354.98</v>
+        <v>357.05</v>
       </c>
       <c r="D111" t="n">
-        <v>368.35</v>
+        <v>369.77</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>366.3</v>
+        <v>365.3</v>
       </c>
       <c r="C112" t="n">
-        <v>357.28</v>
+        <v>359.96</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>366.73</v>
+        <v>365.38</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>369.84</v>
+        <v>368.96</v>
       </c>
       <c r="C114" t="n">
-        <v>357.79</v>
+        <v>360.15</v>
       </c>
       <c r="D114" t="n">
-        <v>368.62</v>
+        <v>370.25</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2731,13 +2731,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>374.96</v>
+        <v>375.63</v>
       </c>
       <c r="C115" t="n">
-        <v>366.02</v>
+        <v>364.24</v>
       </c>
       <c r="D115" t="n">
-        <v>375.72</v>
+        <v>374.49</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>351.92</v>
+        <v>350.1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>369.62</v>
+        <v>367.69</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>381.42</v>
+        <v>380.54</v>
       </c>
       <c r="C118" t="n">
-        <v>365.56</v>
+        <v>367.92</v>
       </c>
       <c r="D118" t="n">
-        <v>356.32</v>
+        <v>357.95</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>362.84</v>
+        <v>363.74</v>
       </c>
       <c r="C119" t="n">
-        <v>359.82</v>
+        <v>357.43</v>
       </c>
       <c r="D119" t="n">
-        <v>365.42</v>
+        <v>363.77</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2828,13 +2828,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>369.58</v>
+        <v>368.73</v>
       </c>
       <c r="C120" t="n">
-        <v>364.35</v>
+        <v>366.62</v>
       </c>
       <c r="D120" t="n">
-        <v>373.35</v>
+        <v>374.91</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>348.7</v>
+        <v>347.61</v>
       </c>
       <c r="C121" t="n">
-        <v>341.88</v>
+        <v>344.8</v>
       </c>
       <c r="D121" t="n">
-        <v>353.13</v>
+        <v>355.14</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>360.27</v>
+        <v>358.94</v>
       </c>
       <c r="C122" t="n">
-        <v>356.5</v>
+        <v>360.07</v>
       </c>
       <c r="D122" t="n">
-        <v>366.59</v>
+        <v>369.05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>361.04</v>
+        <v>361.73</v>
       </c>
       <c r="C123" t="n">
-        <v>354.65</v>
+        <v>352.78</v>
       </c>
       <c r="D123" t="n">
-        <v>364.26</v>
+        <v>362.98</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>353.71</v>
+        <v>353.38</v>
       </c>
       <c r="C124" t="n">
-        <v>352.12</v>
+        <v>353.02</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>364.18</v>
+        <v>364.68</v>
       </c>
       <c r="C125" t="n">
-        <v>352.1</v>
+        <v>350.76</v>
       </c>
       <c r="D125" t="n">
-        <v>364.26</v>
+        <v>363.34</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>363.2</v>
+        <v>364.73</v>
       </c>
       <c r="C126" t="n">
-        <v>364.33</v>
+        <v>360.23</v>
       </c>
       <c r="D126" t="n">
-        <v>376.63</v>
+        <v>373.81</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>361.62</v>
+        <v>360.62</v>
       </c>
       <c r="C127" t="n">
-        <v>350.42</v>
+        <v>353.1</v>
       </c>
       <c r="D127" t="n">
-        <v>367.89</v>
+        <v>369.74</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>377.36</v>
+        <v>378.33</v>
       </c>
       <c r="C128" t="n">
-        <v>364.66</v>
+        <v>362.06</v>
       </c>
       <c r="D128" t="n">
-        <v>374.22</v>
+        <v>372.43</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>367.59</v>
+        <v>367.15</v>
       </c>
       <c r="C129" t="n">
-        <v>355.61</v>
+        <v>356.78</v>
       </c>
       <c r="D129" t="n">
-        <v>363.18</v>
+        <v>363.99</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3036,13 +3036,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>365.21</v>
+        <v>364.13</v>
       </c>
       <c r="C130" t="n">
-        <v>363.31</v>
+        <v>366.19</v>
       </c>
       <c r="D130" t="n">
-        <v>369.45</v>
+        <v>371.44</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>361.76</v>
+        <v>361.2</v>
       </c>
       <c r="C131" t="n">
-        <v>353.59</v>
+        <v>355.09</v>
       </c>
       <c r="D131" t="n">
-        <v>363.19</v>
+        <v>364.23</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3078,13 +3078,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>367.24</v>
+        <v>367.47</v>
       </c>
       <c r="C132" t="n">
-        <v>361.6</v>
+        <v>360.99</v>
       </c>
       <c r="D132" t="n">
-        <v>374.11</v>
+        <v>373.69</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3099,13 +3099,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>350.42</v>
+        <v>351.41</v>
       </c>
       <c r="C133" t="n">
-        <v>356.88</v>
+        <v>354.25</v>
       </c>
       <c r="D133" t="n">
-        <v>366.49</v>
+        <v>364.67</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3120,13 +3120,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>373.42</v>
+        <v>374.39</v>
       </c>
       <c r="C134" t="n">
-        <v>364.98</v>
+        <v>362.38</v>
       </c>
       <c r="D134" t="n">
-        <v>378.01</v>
+        <v>376.22</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3141,13 +3141,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>339.99</v>
+        <v>340.75</v>
       </c>
       <c r="C135" t="n">
-        <v>333.94</v>
+        <v>331.91</v>
       </c>
       <c r="D135" t="n">
-        <v>363.55</v>
+        <v>362.15</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>352.93</v>
+        <v>351.93</v>
       </c>
       <c r="C136" t="n">
-        <v>349.7</v>
+        <v>352.38</v>
       </c>
       <c r="D136" t="n">
-        <v>363.87</v>
+        <v>365.72</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>361.02</v>
+        <v>362.05</v>
       </c>
       <c r="C137" t="n">
-        <v>352.44</v>
+        <v>349.68</v>
       </c>
       <c r="D137" t="n">
-        <v>362.36</v>
+        <v>360.46</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3204,13 +3204,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>361.97</v>
+        <v>362.24</v>
       </c>
       <c r="C138" t="n">
-        <v>351.35</v>
+        <v>350.62</v>
       </c>
       <c r="D138" t="n">
-        <v>361.53</v>
+        <v>361.03</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>379.19</v>
+        <v>380.55</v>
       </c>
       <c r="C139" t="n">
-        <v>370.51</v>
+        <v>366.86</v>
       </c>
       <c r="D139" t="n">
-        <v>378.44</v>
+        <v>375.93</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>375.35</v>
+        <v>376.34</v>
       </c>
       <c r="C140" t="n">
-        <v>369.84</v>
+        <v>367.21</v>
       </c>
       <c r="D140" t="n">
-        <v>381.52</v>
+        <v>379.7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>369.26</v>
+        <v>370.08</v>
       </c>
       <c r="C141" t="n">
-        <v>358.76</v>
+        <v>356.57</v>
       </c>
       <c r="D141" t="n">
-        <v>368.71</v>
+        <v>367.2</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3288,13 +3288,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>375.53</v>
+        <v>374.53</v>
       </c>
       <c r="C142" t="n">
-        <v>367.27</v>
+        <v>369.95</v>
       </c>
       <c r="D142" t="n">
-        <v>375.28</v>
+        <v>377.13</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3309,13 +3309,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>374.27</v>
+        <v>373</v>
       </c>
       <c r="C143" t="n">
-        <v>362.67</v>
+        <v>366.08</v>
       </c>
       <c r="D143" t="n">
-        <v>369.37</v>
+        <v>371.72</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3330,13 +3330,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>379.78</v>
+        <v>380.46</v>
       </c>
       <c r="C144" t="n">
-        <v>379.71</v>
+        <v>377.88</v>
       </c>
       <c r="D144" t="n">
-        <v>377.89</v>
+        <v>376.63</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3351,13 +3351,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>381.89</v>
+        <v>383.44</v>
       </c>
       <c r="C145" t="n">
-        <v>371.41</v>
+        <v>367.27</v>
       </c>
       <c r="D145" t="n">
-        <v>377.85</v>
+        <v>374.99</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>379.93</v>
+        <v>381.6</v>
       </c>
       <c r="C146" t="n">
-        <v>367.85</v>
+        <v>363.39</v>
       </c>
       <c r="D146" t="n">
-        <v>377.4</v>
+        <v>374.32</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>364.86</v>
+        <v>363.96</v>
       </c>
       <c r="C147" t="n">
-        <v>350.96</v>
+        <v>353.35</v>
       </c>
       <c r="D147" t="n">
-        <v>365.76</v>
+        <v>367.41</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>364.9</v>
+        <v>364.13</v>
       </c>
       <c r="C148" t="n">
-        <v>359.15</v>
+        <v>361.22</v>
       </c>
       <c r="D148" t="n">
-        <v>367.41</v>
+        <v>368.83</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>375.83</v>
+        <v>375.15</v>
       </c>
       <c r="C149" t="n">
-        <v>368.2</v>
+        <v>370.03</v>
       </c>
       <c r="D149" t="n">
-        <v>379.45</v>
+        <v>380.71</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3456,13 +3456,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>385.52</v>
+        <v>387.08</v>
       </c>
       <c r="C150" t="n">
-        <v>376.13</v>
+        <v>371.95</v>
       </c>
       <c r="D150" t="n">
-        <v>386.66</v>
+        <v>383.78</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>379.83</v>
+        <v>380.91</v>
       </c>
       <c r="C151" t="n">
-        <v>376.85</v>
+        <v>373.97</v>
       </c>
       <c r="D151" t="n">
-        <v>388.31</v>
+        <v>386.32</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>379</v>
+        <v>380.12</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>371.11</v>
+        <v>370.69</v>
       </c>
       <c r="C153" t="n">
-        <v>369.94</v>
+        <v>371.08</v>
       </c>
       <c r="D153" t="n">
-        <v>378.8</v>
+        <v>379.58</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3537,10 +3537,10 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>361.67</v>
+        <v>360.41</v>
       </c>
       <c r="D154" t="n">
-        <v>374.72</v>
+        <v>373.85</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3555,13 +3555,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>380.23</v>
+        <v>381.45</v>
       </c>
       <c r="C155" t="n">
-        <v>366.08</v>
+        <v>362.84</v>
       </c>
       <c r="D155" t="n">
-        <v>379.44</v>
+        <v>377.2</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3576,13 +3576,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>365.62</v>
+        <v>364.9</v>
       </c>
       <c r="C156" t="n">
-        <v>362.18</v>
+        <v>364.08</v>
       </c>
       <c r="D156" t="n">
-        <v>371.22</v>
+        <v>372.54</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>363.55</v>
+        <v>362.5</v>
       </c>
       <c r="C157" t="n">
-        <v>358.46</v>
+        <v>361.26</v>
       </c>
       <c r="D157" t="n">
-        <v>365.9</v>
+        <v>367.83</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>377.83</v>
+        <v>379.27</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>396.38</v>
+        <v>397.56</v>
       </c>
       <c r="C159" t="n">
-        <v>363.22</v>
+        <v>360.05</v>
       </c>
       <c r="D159" t="n">
-        <v>375.08</v>
+        <v>372.9</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3656,13 +3656,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>371.59</v>
+        <v>370.97</v>
       </c>
       <c r="C160" t="n">
-        <v>369.16</v>
+        <v>370.82</v>
       </c>
       <c r="D160" t="n">
-        <v>374.47</v>
+        <v>375.61</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>373.48</v>
+        <v>372.75</v>
       </c>
       <c r="C161" t="n">
-        <v>369.54</v>
+        <v>371.49</v>
       </c>
       <c r="D161" t="n">
-        <v>374.51</v>
+        <v>375.86</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3698,13 +3698,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>365.38</v>
+        <v>364.98</v>
       </c>
       <c r="C162" t="n">
-        <v>360.04</v>
+        <v>361.09</v>
       </c>
       <c r="D162" t="n">
-        <v>364.87</v>
+        <v>365.6</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>368.96</v>
+        <v>368.79</v>
       </c>
       <c r="C163" t="n">
-        <v>361.87</v>
+        <v>362.31</v>
       </c>
       <c r="D163" t="n">
-        <v>368.11</v>
+        <v>368.42</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3740,13 +3740,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>376.52</v>
+        <v>375.78</v>
       </c>
       <c r="C164" t="n">
-        <v>370.59</v>
+        <v>372.58</v>
       </c>
       <c r="D164" t="n">
-        <v>374.25</v>
+        <v>375.62</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>372.04</v>
+        <v>371.21</v>
       </c>
       <c r="C165" t="n">
-        <v>366.21</v>
+        <v>368.45</v>
       </c>
       <c r="D165" t="n">
-        <v>372.64</v>
+        <v>374.18</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3782,13 +3782,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>376.82</v>
+        <v>376.91</v>
       </c>
       <c r="C166" t="n">
-        <v>375.56</v>
+        <v>375.32</v>
       </c>
       <c r="D166" t="n">
-        <v>375.41</v>
+        <v>375.24</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3803,13 +3803,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>380.11</v>
+        <v>381.17</v>
       </c>
       <c r="C167" t="n">
-        <v>376.89</v>
+        <v>374.05</v>
       </c>
       <c r="D167" t="n">
-        <v>387.61</v>
+        <v>385.65</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3824,13 +3824,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>380.17</v>
+        <v>381.29</v>
       </c>
       <c r="C168" t="n">
-        <v>375.7</v>
+        <v>372.7</v>
       </c>
       <c r="D168" t="n">
-        <v>389.9</v>
+        <v>387.83</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>380.88</v>
+        <v>380.74</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>378.21</v>
+        <v>377.35</v>
       </c>
       <c r="C170" t="n">
-        <v>372.18</v>
+        <v>374.49</v>
       </c>
       <c r="D170" t="n">
-        <v>378.25</v>
+        <v>379.84</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>376.64</v>
+        <v>376.38</v>
       </c>
       <c r="C171" t="n">
-        <v>374.11</v>
+        <v>374.8</v>
       </c>
       <c r="D171" t="n">
-        <v>378.26</v>
+        <v>378.73</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375.56</v>
+        <v>375</v>
       </c>
       <c r="C172" t="n">
-        <v>371.23</v>
+        <v>372.73</v>
       </c>
       <c r="D172" t="n">
-        <v>376.35</v>
+        <v>377.39</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3925,13 +3925,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>364.38</v>
+        <v>363.35</v>
       </c>
       <c r="C173" t="n">
-        <v>363.66</v>
+        <v>366.42</v>
       </c>
       <c r="D173" t="n">
-        <v>370.61</v>
+        <v>372.51</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3946,13 +3946,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>387.18</v>
+        <v>387.56</v>
       </c>
       <c r="C174" t="n">
-        <v>382.86</v>
+        <v>381.84</v>
       </c>
       <c r="D174" t="n">
-        <v>387.16</v>
+        <v>386.46</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3967,13 +3967,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>390.11</v>
+        <v>391.25</v>
       </c>
       <c r="C175" t="n">
-        <v>390.58</v>
+        <v>387.54</v>
       </c>
       <c r="D175" t="n">
-        <v>393.8</v>
+        <v>391.7</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3988,13 +3988,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>386.13</v>
+        <v>387.9</v>
       </c>
       <c r="C176" t="n">
-        <v>394.87</v>
+        <v>390.12</v>
       </c>
       <c r="D176" t="n">
-        <v>386.71</v>
+        <v>383.44</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>391.98</v>
+        <v>393.22</v>
       </c>
       <c r="C177" t="n">
-        <v>393.53</v>
+        <v>390.2</v>
       </c>
       <c r="D177" t="n">
-        <v>388.73</v>
+        <v>386.44</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>366.79</v>
+        <v>365.39</v>
       </c>
       <c r="C178" t="n">
-        <v>365.73</v>
+        <v>369.46</v>
       </c>
       <c r="D178" t="n">
-        <v>376.27</v>
+        <v>378.85</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>369.58</v>
+        <v>370.48</v>
       </c>
       <c r="C179" t="n">
-        <v>359.12</v>
+        <v>356.73</v>
       </c>
       <c r="D179" t="n">
-        <v>368.64</v>
+        <v>366.99</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>371.57</v>
+        <v>373.15</v>
       </c>
       <c r="C180" t="n">
-        <v>365.32</v>
+        <v>361.1</v>
       </c>
       <c r="D180" t="n">
-        <v>372.73</v>
+        <v>369.82</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4093,13 +4093,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>369.36</v>
+        <v>368.95</v>
       </c>
       <c r="C181" t="n">
-        <v>369.73</v>
+        <v>370.83</v>
       </c>
       <c r="D181" t="n">
-        <v>379.3</v>
+        <v>380.06</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>377.99</v>
+        <v>378.99</v>
       </c>
       <c r="C182" t="n">
-        <v>382.76</v>
+        <v>380.08</v>
       </c>
       <c r="D182" t="n">
-        <v>380.53</v>
+        <v>378.68</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4135,13 +4135,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>346.12</v>
+        <v>345.06</v>
       </c>
       <c r="C183" t="n">
-        <v>336.61</v>
+        <v>339.45</v>
       </c>
       <c r="D183" t="n">
-        <v>354.21</v>
+        <v>356.17</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>355.8</v>
+        <v>355.54</v>
       </c>
       <c r="C184" t="n">
-        <v>349.27</v>
+        <v>349.96</v>
       </c>
       <c r="D184" t="n">
-        <v>364.77</v>
+        <v>365.24</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>373.68</v>
+        <v>374.8</v>
       </c>
       <c r="C185" t="n">
-        <v>358.81</v>
+        <v>355.81</v>
       </c>
       <c r="D185" t="n">
-        <v>367.96</v>
+        <v>365.89</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>367.75</v>
+        <v>368.35</v>
       </c>
       <c r="C186" t="n">
-        <v>355.77</v>
+        <v>354.14</v>
       </c>
       <c r="D186" t="n">
-        <v>365.78</v>
+        <v>364.66</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4219,13 +4219,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>366.3</v>
+        <v>367.13</v>
       </c>
       <c r="C187" t="n">
-        <v>360.02</v>
+        <v>357.78</v>
       </c>
       <c r="D187" t="n">
-        <v>373.46</v>
+        <v>371.92</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4240,13 +4240,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>353.7</v>
+        <v>355.38</v>
       </c>
       <c r="C188" t="n">
-        <v>349.89</v>
+        <v>345.39</v>
       </c>
       <c r="D188" t="n">
-        <v>360.88</v>
+        <v>357.78</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>354.9</v>
+        <v>356.28</v>
       </c>
       <c r="C189" t="n">
-        <v>359.19</v>
+        <v>355.49</v>
       </c>
       <c r="D189" t="n">
-        <v>358.08</v>
+        <v>355.53</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4282,13 +4282,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>342.82</v>
+        <v>344.18</v>
       </c>
       <c r="C190" t="n">
-        <v>341.34</v>
+        <v>337.69</v>
       </c>
       <c r="D190" t="n">
-        <v>350.31</v>
+        <v>347.8</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>341.04</v>
+        <v>342.09</v>
       </c>
       <c r="C191" t="n">
-        <v>349.54</v>
+        <v>346.74</v>
       </c>
       <c r="D191" t="n">
-        <v>353.32</v>
+        <v>351.39</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4324,13 +4324,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>365.37</v>
+        <v>364.34</v>
       </c>
       <c r="C192" t="n">
-        <v>355.88</v>
+        <v>358.64</v>
       </c>
       <c r="D192" t="n">
-        <v>369.34</v>
+        <v>371.24</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4346,10 +4346,10 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>351.53</v>
+        <v>350.51</v>
       </c>
       <c r="D193" t="n">
-        <v>367.25</v>
+        <v>366.55</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4364,13 +4364,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>356.48</v>
+        <v>355.89</v>
       </c>
       <c r="C194" t="n">
-        <v>341.46</v>
+        <v>343.04</v>
       </c>
       <c r="D194" t="n">
-        <v>363.53</v>
+        <v>364.62</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>339.9</v>
+        <v>341.14</v>
       </c>
       <c r="C195" t="n">
-        <v>344.94</v>
+        <v>341.61</v>
       </c>
       <c r="D195" t="n">
-        <v>353.46</v>
+        <v>351.17</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>349.41</v>
+        <v>348.01</v>
       </c>
       <c r="C196" t="n">
-        <v>343.5</v>
+        <v>347.23</v>
       </c>
       <c r="D196" t="n">
-        <v>356.88</v>
+        <v>359.46</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>360.72</v>
+        <v>359.98</v>
       </c>
       <c r="C197" t="n">
-        <v>348.33</v>
+        <v>350.32</v>
       </c>
       <c r="D197" t="n">
-        <v>364.51</v>
+        <v>365.88</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>343.4</v>
+        <v>343.04</v>
       </c>
       <c r="C198" t="n">
-        <v>341.35</v>
+        <v>342.32</v>
       </c>
       <c r="D198" t="n">
-        <v>350.75</v>
+        <v>351.42</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>348.94</v>
+        <v>349.91</v>
       </c>
       <c r="C199" t="n">
-        <v>340.42</v>
+        <v>337.82</v>
       </c>
       <c r="D199" t="n">
-        <v>357.87</v>
+        <v>356.08</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4490,13 +4490,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>351.9</v>
+        <v>353.25</v>
       </c>
       <c r="C200" t="n">
-        <v>345.88</v>
+        <v>342.27</v>
       </c>
       <c r="D200" t="n">
-        <v>371.1</v>
+        <v>368.61</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4511,13 +4511,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>353.01</v>
+        <v>352.16</v>
       </c>
       <c r="C201" t="n">
-        <v>342.49</v>
+        <v>344.76</v>
       </c>
       <c r="D201" t="n">
-        <v>359.42</v>
+        <v>360.98</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>363.3</v>
+        <v>362.95</v>
       </c>
       <c r="C202" t="n">
-        <v>354.61</v>
+        <v>355.54</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>367.89</v>
+        <v>366.7</v>
       </c>
       <c r="C203" t="n">
-        <v>358.57</v>
+        <v>361.78</v>
       </c>
       <c r="D203" t="n">
-        <v>368.8</v>
+        <v>371.01</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4572,10 +4572,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>348.77</v>
+        <v>349.74</v>
       </c>
       <c r="C204" t="n">
-        <v>338.62</v>
+        <v>336.02</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
@@ -4591,13 +4591,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>360.87</v>
+        <v>360.36</v>
       </c>
       <c r="C205" t="n">
-        <v>348.91</v>
+        <v>350.29</v>
       </c>
       <c r="D205" t="n">
-        <v>364.71</v>
+        <v>365.66</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4612,13 +4612,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>347.63</v>
+        <v>347.87</v>
       </c>
       <c r="C206" t="n">
-        <v>346.98</v>
+        <v>346.33</v>
       </c>
       <c r="D206" t="n">
-        <v>357.74</v>
+        <v>357.29</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>357.73</v>
+        <v>357.33</v>
       </c>
       <c r="C207" t="n">
-        <v>350.3</v>
+        <v>351.35</v>
       </c>
       <c r="D207" t="n">
-        <v>365.16</v>
+        <v>365.89</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>358.31</v>
+        <v>357.72</v>
       </c>
       <c r="C208" t="n">
-        <v>350.23</v>
+        <v>351.81</v>
       </c>
       <c r="D208" t="n">
-        <v>370.48</v>
+        <v>371.57</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4675,13 +4675,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>367.81</v>
+        <v>367.28</v>
       </c>
       <c r="C209" t="n">
-        <v>355.56</v>
+        <v>356.98</v>
       </c>
       <c r="D209" t="n">
-        <v>376.53</v>
+        <v>377.51</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>368.31</v>
+        <v>367.75</v>
       </c>
       <c r="C210" t="n">
-        <v>349.74</v>
+        <v>351.24</v>
       </c>
       <c r="D210" t="n">
-        <v>362.35</v>
+        <v>363.39</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>371.48</v>
+        <v>372.34</v>
       </c>
       <c r="C211" t="n">
-        <v>359.11</v>
+        <v>356.8</v>
       </c>
       <c r="D211" t="n">
-        <v>373.52</v>
+        <v>371.93</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4738,13 +4738,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>366.27</v>
+        <v>366.65</v>
       </c>
       <c r="C212" t="n">
-        <v>355.94</v>
+        <v>354.92</v>
       </c>
       <c r="D212" t="n">
-        <v>370.92</v>
+        <v>370.22</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4759,13 +4759,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>368.18</v>
+        <v>367.8</v>
       </c>
       <c r="C213" t="n">
-        <v>349.37</v>
+        <v>350.39</v>
       </c>
       <c r="D213" t="n">
-        <v>365.36</v>
+        <v>366.06</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>352.02</v>
+        <v>353.34</v>
       </c>
       <c r="C214" t="n">
-        <v>340.26</v>
+        <v>336.73</v>
       </c>
       <c r="D214" t="n">
-        <v>365.41</v>
+        <v>362.97</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4801,13 +4801,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>358.91</v>
+        <v>359.13</v>
       </c>
       <c r="C215" t="n">
-        <v>348.33</v>
+        <v>347.77</v>
       </c>
       <c r="D215" t="n">
-        <v>355.16</v>
+        <v>354.76</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4822,13 +4822,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>358.07</v>
+        <v>359.76</v>
       </c>
       <c r="C216" t="n">
-        <v>352.31</v>
+        <v>347.76</v>
       </c>
       <c r="D216" t="n">
-        <v>360.2</v>
+        <v>357.07</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4843,13 +4843,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>366.95</v>
+        <v>366.31</v>
       </c>
       <c r="C217" t="n">
-        <v>366.26</v>
+        <v>367.96</v>
       </c>
       <c r="D217" t="n">
-        <v>371.77</v>
+        <v>372.95</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>381.89</v>
+        <v>382.79</v>
       </c>
       <c r="C218" t="n">
-        <v>384.82</v>
+        <v>382.43</v>
       </c>
       <c r="D218" t="n">
-        <v>395.66</v>
+        <v>394.01</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4885,13 +4885,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>369.5</v>
+        <v>369.85</v>
       </c>
       <c r="C219" t="n">
-        <v>362.23</v>
+        <v>361.3</v>
       </c>
       <c r="D219" t="n">
-        <v>373.6</v>
+        <v>372.96</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4906,13 +4906,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>356.84</v>
+        <v>357.92</v>
       </c>
       <c r="C220" t="n">
-        <v>364.51</v>
+        <v>361.63</v>
       </c>
       <c r="D220" t="n">
-        <v>372.43</v>
+        <v>370.44</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4927,13 +4927,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>366.33</v>
+        <v>365.47</v>
       </c>
       <c r="C221" t="n">
-        <v>365.55</v>
+        <v>367.86</v>
       </c>
       <c r="D221" t="n">
-        <v>372.72</v>
+        <v>374.31</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4948,13 +4948,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>364.4</v>
+        <v>363.05</v>
       </c>
       <c r="C222" t="n">
-        <v>362.3</v>
+        <v>365.91</v>
       </c>
       <c r="D222" t="n">
-        <v>365.91</v>
+        <v>368.4</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>373.83</v>
+        <v>374.77</v>
       </c>
       <c r="C223" t="n">
-        <v>364.5</v>
+        <v>361.99</v>
       </c>
       <c r="D223" t="n">
-        <v>380.3</v>
+        <v>378.57</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>373.32</v>
+        <v>373.49</v>
       </c>
       <c r="C224" t="n">
-        <v>362.58</v>
+        <v>362.14</v>
       </c>
       <c r="D224" t="n">
-        <v>382.77</v>
+        <v>382.46</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5011,13 +5011,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>379.55</v>
+        <v>378.99</v>
       </c>
       <c r="C225" t="n">
-        <v>363.14</v>
+        <v>364.64</v>
       </c>
       <c r="D225" t="n">
-        <v>375.09</v>
+        <v>376.13</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>379.99</v>
+        <v>381.32</v>
       </c>
       <c r="C226" t="n">
-        <v>368.26</v>
+        <v>364.69</v>
       </c>
       <c r="D226" t="n">
-        <v>379.37</v>
+        <v>376.91</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>344.22</v>
+        <v>345.64</v>
       </c>
       <c r="C227" t="n">
-        <v>350.33</v>
+        <v>346.51</v>
       </c>
       <c r="D227" t="n">
-        <v>359.85</v>
+        <v>357.22</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5074,13 +5074,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>377.87</v>
+        <v>377.9</v>
       </c>
       <c r="C228" t="n">
-        <v>378.24</v>
+        <v>378.16</v>
       </c>
       <c r="D228" t="n">
-        <v>384.36</v>
+        <v>384.31</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5095,13 +5095,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>364.59</v>
+        <v>364.5</v>
       </c>
       <c r="C229" t="n">
-        <v>354.99</v>
+        <v>355.23</v>
       </c>
       <c r="D229" t="n">
-        <v>365.68</v>
+        <v>365.85</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5116,13 +5116,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>357.9</v>
+        <v>359.46</v>
       </c>
       <c r="C230" t="n">
-        <v>359.78</v>
+        <v>355.6</v>
       </c>
       <c r="D230" t="n">
-        <v>371.98</v>
+        <v>369.1</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5137,13 +5137,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>374.68</v>
+        <v>373.96</v>
       </c>
       <c r="C231" t="n">
-        <v>368</v>
+        <v>369.9</v>
       </c>
       <c r="D231" t="n">
-        <v>374.87</v>
+        <v>376.19</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>369.64</v>
+        <v>368.83</v>
       </c>
       <c r="C232" t="n">
-        <v>366.75</v>
+        <v>368.9</v>
       </c>
       <c r="D232" t="n">
-        <v>373.05</v>
+        <v>374.54</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>355.86</v>
+        <v>355.59</v>
       </c>
       <c r="C233" t="n">
-        <v>345.43</v>
+        <v>346.16</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
@@ -5198,13 +5198,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>334.85</v>
+        <v>335.17</v>
       </c>
       <c r="C234" t="n">
-        <v>338.52</v>
+        <v>337.67</v>
       </c>
       <c r="D234" t="n">
-        <v>357.79</v>
+        <v>357.2</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5219,13 +5219,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>359.81</v>
+        <v>359.49</v>
       </c>
       <c r="C235" t="n">
-        <v>345.35</v>
+        <v>346.2</v>
       </c>
       <c r="D235" t="n">
-        <v>364.06</v>
+        <v>364.65</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5240,13 +5240,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>352.15</v>
+        <v>351.14</v>
       </c>
       <c r="C236" t="n">
-        <v>343.84</v>
+        <v>346.56</v>
       </c>
       <c r="D236" t="n">
-        <v>367.75</v>
+        <v>369.62</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5261,13 +5261,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>349.5</v>
+        <v>350.36</v>
       </c>
       <c r="C237" t="n">
-        <v>356.58</v>
+        <v>354.27</v>
       </c>
       <c r="D237" t="n">
-        <v>367.17</v>
+        <v>365.58</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5282,13 +5282,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>374.06</v>
+        <v>372.64</v>
       </c>
       <c r="C238" t="n">
-        <v>370.74</v>
+        <v>374.56</v>
       </c>
       <c r="D238" t="n">
-        <v>373.29</v>
+        <v>375.92</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5303,13 +5303,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>347.39</v>
+        <v>346.83</v>
       </c>
       <c r="C239" t="n">
-        <v>342.4</v>
+        <v>343.9</v>
       </c>
       <c r="D239" t="n">
-        <v>363.96</v>
+        <v>365</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5324,13 +5324,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>349.45</v>
+        <v>349.55</v>
       </c>
       <c r="C240" t="n">
-        <v>341.43</v>
+        <v>341.14</v>
       </c>
       <c r="D240" t="n">
-        <v>356.97</v>
+        <v>356.78</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5345,15 +5345,57 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>340.39</v>
+        <v>341.27</v>
       </c>
       <c r="C241" t="n">
-        <v>335.72</v>
+        <v>333.36</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="C242" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="D242" t="n">
+        <v>366.65</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:17:53+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>352.92</v>
+      </c>
+      <c r="C243" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="D243" t="n">
+        <v>362.37</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7936,6 +7978,26 @@
       </c>
       <c r="B256" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -8106,31 +8168,31 @@
         <v>0.0475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0669</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.273007097000337</v>
+        <v>-0.2840877212833051</v>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03116775519262871</v>
+        <v>0.03384147517148783</v>
       </c>
       <c r="M2" t="n">
-        <v>9.281936336876969</v>
+        <v>9.293659051278114</v>
       </c>
       <c r="N2" t="n">
-        <v>135.6205123441004</v>
+        <v>136.3497346474391</v>
       </c>
       <c r="O2" t="n">
-        <v>11.64562202478255</v>
+        <v>11.67688891132561</v>
       </c>
       <c r="P2" t="n">
-        <v>370.7384820050667</v>
+        <v>370.9591007565091</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8181,34 +8243,34 @@
         <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0609</v>
+        <v>0.0607</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0964</v>
+        <v>0.0956</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1286608508618116</v>
+        <v>-0.1711473989843429</v>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006914230304915003</v>
+        <v>0.01244595826564021</v>
       </c>
       <c r="M3" t="n">
-        <v>9.569564836528858</v>
+        <v>9.570447528251902</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5168813109044</v>
+        <v>142.8425293442585</v>
       </c>
       <c r="O3" t="n">
-        <v>12.02151742963027</v>
+        <v>11.9516747506054</v>
       </c>
       <c r="P3" t="n">
-        <v>361.3296936623568</v>
+        <v>361.6111809841493</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8259,36 +8321,40 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0568</v>
+        <v>0.0567</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0751</v>
+        <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05856555131884679</v>
+        <v>0.0334862011954247</v>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00227526449709925</v>
+        <v>0.0007939459223097467</v>
       </c>
       <c r="M4" t="n">
-        <v>7.404338168165203</v>
+        <v>7.210628765628357</v>
       </c>
       <c r="N4" t="n">
-        <v>88.26210716813659</v>
+        <v>83.86864929908332</v>
       </c>
       <c r="O4" t="n">
-        <v>9.39479149146678</v>
+        <v>9.157982818234773</v>
       </c>
       <c r="P4" t="n">
-        <v>368.6923128792238</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>368.8430474597729</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Hidden</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.1596550985128 -34.808692045711666, 173.16974432214795 -34.80962967196614)</t>
@@ -8324,7 +8390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8367,12 +8433,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.80759605306769,173.16383402608355</t>
+          <t>-34.80759638743399,173.16383739102704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.80832352173004,173.16367693721295</t>
+          <t>-34.80832267592495,173.16366814086024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -8390,17 +8456,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.807610430734236,173.1639787186771</t>
+          <t>-34.807609114855936,173.16396547599203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.80833597900807,173.16380649339118</t>
+          <t>-34.80833936218462,173.16384167881424</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.809070657121254,173.16372799324304</t>
+          <t>-34.80907291900726,173.16375232989893</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8419,7 +8485,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.80906466915842,173.16366356629882</t>
+          <t>-34.80906215480972,173.16363651350372</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8436,17 +8502,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.80760279430562,173.163901867691</t>
+          <t>-34.80760238443945,173.16389774292097</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.808334036809505,173.16378629435332</t>
+          <t>-34.80833510188654,173.16379737124495</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.80907157601302,173.16373788000934</t>
+          <t>-34.809072282852306,173.16374548521432</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8463,17 +8529,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.80760648309501,173.16393899062322</t>
+          <t>-34.8076055339339,173.16392943852338</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.80833232433057,173.16376848444975</t>
+          <t>-34.8083347886287,173.16379411333563</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-34.80906927373321,173.16371310877113</t>
+          <t>-34.809070919661835,173.1637308180334</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8490,17 +8556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.807594456737,173.16381796119254</t>
+          <t>-34.80759378800325,173.1638112313059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.80832255062042,173.1636668376969</t>
+          <t>-34.8083242839983,173.16368486479024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-34.809056348559785,173.16357404219593</t>
+          <t>-34.809057499714505,173.16358642781105</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8517,12 +8583,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.807570241865896,173.16357427423773</t>
+          <t>-34.80757137442088,173.16358567161998</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.80828354891163,173.16326122829366</t>
+          <t>-34.80828062503422,173.1632308211782</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -8540,17 +8606,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.807576530229056,173.1636375568499</t>
+          <t>-34.80757658415998,173.16363809958244</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.80830577013139,173.16349232244028</t>
+          <t>-34.808305644825,173.16349101927744</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-34.8090585700853,173.1635979442605</t>
+          <t>-34.80905847920481,173.16359696644875</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8567,17 +8633,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.80759956930212,173.16386941226466</t>
+          <t>-34.80759884664129,173.16386213964438</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.80832022204234,173.1636426205787</t>
+          <t>-34.80832208072838,173.16366195083438</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-34.80906890011715,173.16370908887734</t>
+          <t>-34.80907014213759,173.1637224523082</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8594,17 +8660,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.80760152156281,173.1638890591947</t>
+          <t>-34.80760297766678,173.1639037129829</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.808324900077736,173.16369127201034</t>
+          <t>-34.80832113050162,173.16365206851256</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-34.80906958676278,173.16371647679028</t>
+          <t>-34.809067072425854,173.16368942399203</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8621,17 +8687,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.8076021040046,173.1638949207099</t>
+          <t>-34.807602513870876,173.16389904547992</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.80831996099068,173.16363990565523</t>
+          <t>-34.80831889589929,173.1636288287676</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.809067617704244,173.1636952908638</t>
+          <t>-34.809066910861816,173.16368768565968</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8648,17 +8714,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.80759844755974,173.1638581234213</t>
+          <t>-34.807597854330176,173.16385215336</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.808316629966214,173.1636052632331</t>
+          <t>-34.808318154511554,173.1636211183852</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.80906524473137,173.16366975910756</t>
+          <t>-34.80906626460548,173.16368073233028</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8676,12 +8742,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.80831510541881,173.16358940808158</t>
+          <t>-34.80831722516567,173.16361145325817</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-34.8090591456616,173.16360413706835</t>
+          <t>-34.80906055935641,173.16361934747394</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -8698,17 +8764,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.807582311611036,173.16369573778468</t>
+          <t>-34.80758335786564,173.16370626679802</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80830326400076,173.16346625918456</t>
+          <t>-34.80830054901961,173.16343802399257</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.80906157923506,173.16363032069546</t>
+          <t>-34.80905977172667,173.16361087310506</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8725,17 +8791,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.80758295877894,173.16370225057642</t>
+          <t>-34.80758211746062,173.1636937839472</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.808300361059146,173.16343606924858</t>
+          <t>-34.80830256437163,173.16345898319258</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.80905173383045,173.16352439109312</t>
+          <t>-34.80905319802467,173.16354014472472</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8752,17 +8818,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.80760860791882,173.16396037430204</t>
+          <t>-34.807610117943625,173.1639755708257</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.80832543262073,173.1636968104549</t>
+          <t>-34.80832153774175,173.1636563037933</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.8090663554853,173.16368171014224</t>
+          <t>-34.8090637502606,173.16365367953418</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8779,17 +8845,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.80760962179283,173.16397057768214</t>
+          <t>-34.80761078666828,173.1639823007149</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.80833804650605,173.1638279955938</t>
+          <t>-34.80833503923497,173.16379671966308</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.80907665514759,173.16379252884227</t>
+          <t>-34.80907464571161,173.16377090832904</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8806,17 +8872,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.80760579279611,173.1639320436415</t>
+          <t>-34.80760608401599,173.1639349743994</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.8083321154915,173.16376631251035</t>
+          <t>-34.808331353228574,173.16375838493158</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-34.809069071778595,173.16371093585556</t>
+          <t>-34.809068566891895,173.1637055035667</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8833,17 +8899,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.807607561686254,173.16394984528236</t>
+          <t>-34.8076066772415,173.16394094446184</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.80832662300998,173.16370919050772</t>
+          <t>-34.80832890980689,173.16373297324174</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-34.80907018252848,173.16372288689135</t>
+          <t>-34.809071707283216,173.16373929240453</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8860,17 +8926,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.80760591144126,173.16393323765396</t>
+          <t>-34.80760596537086,173.1639337803869</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.80833733645666,173.16382061099884</t>
+          <t>-34.808337211153784,173.16381930783504</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.80906530531797,173.16367041098218</t>
+          <t>-34.80906521443807,173.16366943317027</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -8887,17 +8953,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.807609125641825,173.16396558453866</t>
+          <t>-34.807610117943625,173.1639755708257</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.808337388666196,173.16382115398378</t>
+          <t>-34.80833479907062,173.1637942219326</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-34.80907084897784,173.16373005751294</t>
+          <t>-34.80906912226725,173.16371147908447</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8914,17 +8980,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.80759560005515,173.16382946712795</t>
+          <t>-34.807594650885456,173.1638199150306</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.808319856569994,173.16363881968584</t>
+          <t>-34.80832232089545,173.16366444856408</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.809057499714505,173.16358642781105</t>
+          <t>-34.8090591456616,173.16360413706835</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8941,17 +9007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.80761590994968,173.16403386035367</t>
+          <t>-34.807615370657935,173.164028433023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.80833707540898,173.16381789607425</t>
+          <t>-34.808338474623845,173.16383244807022</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-34.80907787696357,173.163805674984</t>
+          <t>-34.80907880594668,173.16381567039778</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -8970,7 +9036,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-34.80907783657299,173.16380524040076</t>
+          <t>-34.8090749890326,173.16377460228603</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8987,17 +9053,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.80760249229898,173.16389882838678</t>
+          <t>-34.80760201771695,173.1638940523373</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.80832377233885,173.1636795435397</t>
+          <t>-34.80832499405594,173.1636922493829</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-34.80905975153104,173.16361065581356</t>
+          <t>-34.80906056945424,173.1636194561197</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9014,17 +9080,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.80759047668707,173.16377790751412</t>
+          <t>-34.80759083262703,173.16378148955025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.80831352865871,173.16357300994602</t>
+          <t>-34.80831258886686,173.16356323622313</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-34.809060932975434,173.16362336736694</t>
+          <t>-34.80906030691105,173.16361663133006</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9042,12 +9108,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.808334036809505,173.16378629435332</t>
+          <t>-34.80833691878034,173.1638162671195</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.80907144474283,173.16373646761414</t>
+          <t>-34.80907336330572,173.16375711031364</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9066,7 +9132,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.8090533595908,173.1635418830565</t>
+          <t>-34.80905516711023,173.16356133064392</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9084,12 +9150,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.80831661952411,173.16360515463617</t>
+          <t>-34.808319585076184,173.16363599616545</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.80906349781599,173.16365096339007</t>
+          <t>-34.80906547698001,173.16367225796026</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9106,17 +9172,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.807610603308326,173.1639804554227</t>
+          <t>-34.80761142303495,173.16398870496442</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.80833607298533,173.163807470764</t>
+          <t>-34.808333953274015,173.16378542557752</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.809066274703234,173.16368084097604</t>
+          <t>-34.8090648610161,173.1636656305684</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9133,17 +9199,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.80757459950013,173.16361812702456</t>
+          <t>-34.80757412490708,173.16361335097827</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.808306877003986,173.16350383371207</t>
+          <t>-34.808308098739424,173.16351653955013</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.8090473109417,173.16347680426446</t>
+          <t>-34.80904812887459,173.163485604568</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9160,12 +9226,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.80760631052032,173.16393725387778</t>
+          <t>-34.80760627816256,173.16393692823803</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.80833817180884,173.16382929875763</t>
+          <t>-34.808338255344026,173.16383016753352</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -9183,17 +9249,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.807607842119815,173.1639526674938</t>
+          <t>-34.80760969729405,173.16397133750831</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.80833585370503,173.16380519022744</t>
+          <t>-34.80833107129556,173.16375545281343</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-34.809079543073985,173.16382360154148</t>
+          <t>-34.809076342120136,173.16378916082257</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9210,17 +9276,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.807618509332514,173.16406002008858</t>
+          <t>-34.807618056328444,173.16405546113052</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.80833758706238,173.16382321732647</t>
+          <t>-34.80833877743878,173.16383559738287</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-34.809074474051066,173.1637690613506</t>
+          <t>-34.80907526166977,173.16377753572243</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9239,7 +9305,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.809044099791635,173.16344225492625</t>
+          <t>-34.80904500860868,173.16345203304058</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9256,17 +9322,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.80760881285087,173.16396243668734</t>
+          <t>-34.80760929821611,173.1639673212842</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.808338652136065,173.16383429421904</t>
+          <t>-34.808337378224294,173.16382104538678</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-34.80907888672778,173.1638165395642</t>
+          <t>-34.80907804862356,173.1638075219626</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9284,12 +9350,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.80831513674515,173.16358973387236</t>
+          <t>-34.80831416562829,173.1635796343583</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.80905545994828,173.16356448137046</t>
+          <t>-34.80905481368489,173.163557528043</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9306,17 +9372,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.80761776511145,173.16405253037178</t>
+          <t>-34.8076168698884,173.1640435210025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.808336490661965,173.16381181464325</t>
+          <t>-34.80833882964824,173.1638361403678</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.809067748974925,173.1636967032589</t>
+          <t>-34.8090693040264,173.16371343470848</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9333,17 +9399,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.80760213636247,173.16389524634965</t>
+          <t>-34.807601392131254,173.16388775663575</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.80832636195982,173.16370647558384</t>
+          <t>-34.80832831461361,173.16372678321494</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.80906681998206,173.16368670784772</t>
+          <t>-34.809068112493655,173.16370061450678</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9360,17 +9426,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.80761147696431,173.16398924769746</t>
+          <t>-34.807611681895864,173.1639913100829</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.80834090758287,173.16385775116888</t>
+          <t>-34.80834035416346,173.1638519955283</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-34.80907766491296,173.1638033934222</t>
+          <t>-34.80907730139755,173.1637994821734</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9389,7 +9455,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.80906376035838,173.16365378817994</t>
+          <t>-34.80906423495405,173.16365889453087</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9407,12 +9473,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.808324231788156,173.16368432180548</t>
+          <t>-34.80832736439213,173.16371690089167</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-34.809060357400135,173.16361717455882</t>
+          <t>-34.809062447645815,173.16363966423077</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9430,12 +9496,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.808320472651864,173.1636452269053</t>
+          <t>-34.80832306228044,173.16367215894726</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.809063356446984,173.16364944234937</t>
+          <t>-34.80906508316707,173.16366802077528</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9452,17 +9518,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.80758039167757,173.16367641650322</t>
+          <t>-34.80758137321697,173.16368629423692</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.808308850575976,173.16352435852758</t>
+          <t>-34.808306313125634,173.16349796947924</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.80905273352189,173.16353514702084</t>
+          <t>-34.80905103707523,173.1635168945376</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9479,17 +9545,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.80759438123483,173.1638172013666</t>
+          <t>-34.80759434887675,173.16381687572695</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.80832035778917,173.16364403233894</t>
+          <t>-34.80832044132568,173.16364490111445</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.80905985250924,173.1636117422711</t>
+          <t>-34.80905990299835,173.16361228549985</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9506,17 +9572,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.807594769531704,173.16382110904277</t>
+          <t>-34.80759561084116,173.1638295756745</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.80831785169107,173.16361796907415</t>
+          <t>-34.808315648408524,173.1635950551218</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.80906975842412,173.16371832376853</t>
+          <t>-34.809068294252974,173.16370257013074</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9533,17 +9599,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.80760905014057,173.16396482471248</t>
+          <t>-34.80760830591364,173.16395733499735</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.80833719026996,173.16381909064108</t>
+          <t>-34.808339142904956,173.16383939827745</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.809070697512105,173.1637284278262</t>
+          <t>-34.80907199001896,173.16374233448653</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9560,17 +9626,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.80760023803266,173.1638761421522</t>
+          <t>-34.80760098226459,173.16388363186587</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.808320911218416,173.16364978797677</t>
+          <t>-34.80831895855176,173.16362948034924</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.80906425514961,173.1636591118224</t>
+          <t>-34.809062962633256,173.16364520516464</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9588,12 +9654,12 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.80833868346174,173.16383462001</t>
+          <t>-34.8083388922996,173.16383679194973</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-34.80907887663014,173.16381643091842</t>
+          <t>-34.80907901799705,173.16381795195966</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9610,17 +9676,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.807612695767276,173.16400151346377</t>
+          <t>-34.80761185446979,173.16399304682858</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.80833461111588,173.163792267187</t>
+          <t>-34.80833681436124,173.16381518114972</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.80907479717676,173.16377253801593</t>
+          <t>-34.80907626133884,173.16378829165618</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9637,17 +9703,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.807608920709825,173.1639635221533</t>
+          <t>-34.80760854320344,173.16395972302243</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.80833603121765,173.16380703637608</t>
+          <t>-34.80833700231562,173.16381713589539</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-34.809074564930185,173.16377003916273</t>
+          <t>-34.80907521118142,173.16377699249347</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9664,17 +9730,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.807602869807276,173.16390262751707</t>
+          <t>-34.807604131762744,173.1639153274672</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.80832683185007,173.16371136244683</t>
+          <t>-34.808323573940214,173.1636774801977</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.80906583040178,173.16367606056215</t>
+          <t>-34.80906365938055,173.16365270172227</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9691,17 +9757,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.80759645215004,173.16383804230642</t>
+          <t>-34.80759684044623,173.16384194998278</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.8083182484903,173.16362209575763</t>
+          <t>-34.80831723560777,173.1636115618551</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.809058933607204,173.16360185550755</t>
+          <t>-34.80905825705244,173.16359457624225</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9718,17 +9784,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.8075896677322,173.16376976652305</t>
+          <t>-34.80758986188142,173.1637717203609</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.80831404032282,173.16357833119525</t>
+          <t>-34.80831352865871,173.16357300994602</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.809063164589034,173.16364737807987</t>
+          <t>-34.80906283136197,173.1636437927697</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -9745,17 +9811,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.80758659369878,173.16373883075838</t>
+          <t>-34.80758684177897,173.16374132732878</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.80831307964715,173.1635683402784</t>
+          <t>-34.808312442676936,173.16356171586628</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.80906369977168,173.16365313630536</t>
+          <t>-34.8090632756647,173.16364857318328</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9774,7 +9840,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.80905709580072,173.16358208198113</t>
+          <t>-34.80905780264975,173.1635896871835</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9792,12 +9858,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.80830531067453,173.1634875441766</t>
+          <t>-34.80830848509993,173.16352055763576</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.80904986571761,173.16350429163293</t>
+          <t>-34.80905198627787,173.16352710723646</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9814,17 +9880,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.8075965492241,173.16383901922552</t>
+          <t>-34.807597638610275,173.16384998242864</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.80832674831405,173.16371049367118</t>
+          <t>-34.80832390808526,173.16368095530004</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.809071737576346,173.1637396183419</t>
+          <t>-34.80906984930364,173.16371930158056</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -9841,17 +9907,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.807619199624106,173.1640669670724</t>
+          <t>-34.80762062334925,173.1640812952269</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.8083512867566,173.16396569659327</t>
+          <t>-34.80834760080345,173.16392736184696</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.80908370328965,173.16386836361542</t>
+          <t>-34.809081239474594,173.16384185403712</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9869,12 +9935,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.80829175661257,173.16334658542192</t>
+          <t>-34.808293918172694,173.16336906497372</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-34.80902453983845,173.16323180822818</t>
+          <t>-34.80902597377615,173.1632472359126</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -9891,7 +9957,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.80763308087229,173.16420666659937</t>
+          <t>-34.807633803512516,173.16421393922556</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -9910,12 +9976,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.80758988345356,173.163771937454</t>
+          <t>-34.80758934415011,173.16376651012666</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.808313601753596,173.1635737701245</t>
+          <t>-34.80831500099769,173.16358832211233</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -9934,12 +10000,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.80831652554522,173.1636041772638</t>
+          <t>-34.808317621965124,173.16361557994162</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.80905177422203,173.16352482567603</t>
+          <t>-34.80905251136832,173.16353275681465</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -9956,12 +10022,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.80761896233641,173.1640645790467</t>
+          <t>-34.807619835986316,173.1640733713232</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.808348571891436,173.16393746136904</t>
+          <t>-34.80834632690183,173.1639141130119</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -9980,12 +10046,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.80831968949689,173.16363708213484</t>
+          <t>-34.808321046965176,173.16365119973702</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-34.8090632857625,173.16364868182905</t>
+          <t>-34.80906419456294,173.16365845994784</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10002,17 +10068,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.80758920393118,173.1637650990216</t>
+          <t>-34.80758801746261,173.16375315890173</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.808314907018655,173.16358734474</t>
+          <t>-34.80831800832236,173.16361959802813</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-34.80906058964985,173.1636196734112</t>
+          <t>-34.8090626496017,173.163641837146</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10030,12 +10096,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.80832202851814,173.16366140784965</t>
+          <t>-34.80832439886059,173.16368605935668</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-34.809045644780156,173.16345887772073</t>
+          <t>-34.80904722006023,173.16347582645295</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10052,17 +10118,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.80757792164629,173.16365155935026</t>
+          <t>-34.80757835309318,173.16365590121092</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.80830247039157,173.16345800582053</t>
+          <t>-34.80830137395688,173.16344660314687</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-34.809062427450236,173.16363944693927</t>
+          <t>-34.8090616903109,173.16363151579878</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10081,7 +10147,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.80905229931259,173.16353047525422</t>
+          <t>-34.809051824711524,173.16352536890471</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10098,17 +10164,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.80759418708634,173.16381524752856</t>
+          <t>-34.80759599913764,173.16383348335077</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.80831591990329,173.16359787864192</t>
+          <t>-34.808311220946216,173.16354901002686</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.809067637899744,173.16369550815537</t>
+          <t>-34.80906450759403,173.16366182796656</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10125,12 +10191,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.80760260015851,173.16389991385256</t>
+          <t>-34.80760333360303,173.16390729502007</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.80831979391759,173.16363816810423</t>
+          <t>-34.80831788301732,173.16361829486493</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -10148,17 +10214,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.807586086752174,173.16373372907108</t>
+          <t>-34.8075854935165,173.16372775901158</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.80830517492588,173.16348613241692</t>
+          <t>-34.80830669948675,173.16350198756467</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-34.809053955365705,173.16354829315506</t>
+          <t>-34.809054975250774,173.16355926637482</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10175,17 +10241,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.807597498392305,173.16384857132329</t>
+          <t>-34.80759687280425,173.16384227562247</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.80831725649194,173.16361177904898</t>
+          <t>-34.80831886457305,173.1636285029768</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-34.809060024172176,173.1636135892489</t>
+          <t>-34.80906109454038,173.16362510569905</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10204,7 +10270,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.80905377360391,173.16354633753176</t>
+          <t>-34.80905550033973,173.16356491595343</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10221,13 +10287,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.807610721953004,173.1639816494353</t>
+          <t>-34.80760972965172,173.16397166314812</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.80906966754458,173.1637173459565</t>
+          <t>-34.80907139425428,173.1637359243852</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10244,17 +10310,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.80759726110031,173.16384618329883</t>
+          <t>-34.80759652765208,173.16383880213237</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.80831587813488,173.1635974442542</t>
+          <t>-34.80831778903855,173.16361731749254</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-34.80905782284543,173.163589904475</t>
+          <t>-34.80905909517245,173.1636035938396</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10271,7 +10337,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.80759868485148,173.16386051144582</t>
+          <t>-34.807599515372225,173.1638688695318</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -10290,17 +10356,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.80758404817744,173.16371321377602</t>
+          <t>-34.80758306664022,173.16370333604172</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.80830649064291,173.16349981562658</t>
+          <t>-34.808309028092864,173.16352620467507</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-34.80904984552178,173.16350407434146</t>
+          <t>-34.80905154197036,173.1635223268242</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10317,17 +10383,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.80760527507166,173.1639268334053</t>
+          <t>-34.80760655859642,173.16393975044934</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.808321454205334,173.16365543501777</t>
+          <t>-34.80831810230113,173.16362057540053</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-34.8090666079292,173.16368442628652</t>
+          <t>-34.80906437632293,173.1636604155716</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10344,17 +10410,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.80757142835205,173.16358621435248</t>
+          <t>-34.807573348299854,173.16360553562987</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.808293677999536,173.16336656724567</t>
+          <t>-34.80828867612114,173.16331454934763</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.80905040090703,173.16351004985654</t>
+          <t>-34.809047068591106,173.16347419676714</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10371,17 +10437,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.80761129360446,173.1639874024052</t>
+          <t>-34.8076126310521,173.16400086218414</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.80833165604541,173.1637615342437</t>
+          <t>-34.80832817886775,173.1637253714545</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.80907561508825,173.16378133832526</t>
+          <t>-34.809073302719575,173.16375645843888</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10398,12 +10464,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.807594359662765,173.1638169842735</t>
+          <t>-34.80759410079811,173.1638143791561</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.80831350777445,173.16357279275218</t>
+          <t>-34.80831418651252,173.16357985155219</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -10421,17 +10487,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.80760354932192,173.16390946595172</t>
+          <t>-34.80760288059324,173.16390273606365</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.80833041345163,173.16374861120454</t>
+          <t>-34.80833214681737,173.16376663830124</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-34.80907014213759,173.1637224523082</t>
+          <t>-34.80907129327717,173.1637348379274</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10449,12 +10515,12 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.80831181614853,173.16355520005115</t>
+          <t>-34.80830944577954,173.1635305485515</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-34.80905845900913,173.16359674915725</t>
+          <t>-34.80905688374592,173.16357980042048</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10471,17 +10537,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.80758349808524,173.16370767790292</t>
+          <t>-34.80758247340305,173.1636973659826</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.80830611472391,173.16349590613805</t>
+          <t>-34.80830878792295,173.1635237069461</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-34.80905461172749,173.16355535512815</t>
+          <t>-34.80905638895121,173.1635744767789</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10498,17 +10564,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.80758878327428,173.16376086570634</t>
+          <t>-34.80758771545225,173.16375011959857</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.80830603118635,173.16349503736285</t>
+          <t>-34.80830877748077,173.1635235983492</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.80906179128893,173.16363260225637</t>
+          <t>-34.809063629087206,173.16365237578498</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10525,17 +10591,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.80760608401599,173.1639349743994</t>
+          <t>-34.80760538293094,173.16392791887117</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.8083268945021,173.16371201402856</t>
+          <t>-34.808328721851154,173.1637310184964</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.80906921314682,173.1637124568965</t>
+          <t>-34.80907042487374,173.16372549439006</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10552,17 +10618,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.80758471691663,173.16371994366108</t>
+          <t>-34.807585536660916,173.16372819319773</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.80831613918748,173.16360015917743</t>
+          <t>-34.808314019438576,173.1635781140014</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.80905898409634,173.16360239873632</t>
+          <t>-34.80905757039941,173.1635871883313</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10579,17 +10645,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.80760674195699,173.1639415957414</t>
+          <t>-34.8076070763203,173.1639449606857</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.80833296128951,173.16377510886502</t>
+          <t>-34.8083321154915,173.16376631251035</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.80907303008188,173.1637535250026</t>
+          <t>-34.8090724646109,173.16374744083848</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10606,17 +10672,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.80760631052032,173.16393725387778</t>
+          <t>-34.8076069792471,173.1639439837664</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.808326696104025,173.16370995068638</t>
+          <t>-34.80832496272988,173.16369192359204</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.80907117210466,173.163733534178</t>
+          <t>-34.80907002096494,173.16372114855884</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10633,17 +10699,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.80760129505759,173.1638867797166</t>
+          <t>-34.80760086361895,173.16388243785352</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.8083269049441,173.16371212262553</t>
+          <t>-34.80832800135388,173.16372352530615</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-34.809067617704244,173.1636952908638</t>
+          <t>-34.80906835483941,173.16370322200538</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10660,17 +10726,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.807608963853404,173.1639639563397</t>
+          <t>-34.80760826277003,173.16395690081097</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.80832879494505,173.16373177867516</t>
+          <t>-34.80833062229102,173.16375078314385</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-34.80907214148449,173.16374396417334</t>
+          <t>-34.80907335320803,173.16375700166782</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10687,17 +10753,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.807595945207574,173.16383294061794</t>
+          <t>-34.80759512547039,173.16382469107924</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.80832861743128,173.1637299325268</t>
+          <t>-34.808330737152666,173.1637519777105</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.80906545678449,173.1636720406687</t>
+          <t>-34.80906687047082,173.1636872510766</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10714,17 +10780,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.807601036194434,173.16388417459873</t>
+          <t>-34.807602082432695,173.16389470361676</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.80832757323209,173.16371907283082</t>
+          <t>-34.808324858309646,173.1636908376225</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-34.809067072425854,173.16368942399203</t>
+          <t>-34.809065264926915,173.16366997639912</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10741,13 +10807,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.80757615271248,173.16363375772198</t>
+          <t>-34.807577770639845,173.16365003969904</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-34.809069505980965,173.16371560762406</t>
+          <t>-34.80906670890676,173.16368551274422</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10764,7 +10830,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.807618757406104,173.1640625166609</t>
+          <t>-34.807617808254705,173.16405296455827</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -10783,17 +10849,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.807596495294064,173.16383847649269</t>
+          <t>-34.807598059264066,173.1638542157448</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.80832644549587,173.16370734435947</t>
+          <t>-34.808322373105675,173.1636649915488</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-34.809074534637155,173.16376971322535</t>
+          <t>-34.80907182845568,173.16374059615396</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10810,17 +10876,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.80759469402954,173.16382034921685</t>
+          <t>-34.80759410079811,173.1638143791561</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.80832484786763,173.16369072902557</t>
+          <t>-34.80832637240183,173.16370658418077</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-34.809062669797285,173.16364205443753</t>
+          <t>-34.8090636896739,173.16365302765956</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10838,12 +10904,12 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.80832098431283,173.16365054815537</t>
+          <t>-34.80831882280474,173.16362806858905</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-34.80905979192232,173.16361109039656</t>
+          <t>-34.80905835803079,173.16359566269975</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10862,7 +10928,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-34.80907375711558,173.16376134749942</t>
+          <t>-34.809072878616476,173.16375189531578</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10879,17 +10945,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.80759958008811,173.16386952081123</t>
+          <t>-34.80759883585531,173.1638620310978</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.808331979746086,173.16376490074973</t>
+          <t>-34.808333932390134,173.1637852083836</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-34.80907089946641,173.16373060074181</t>
+          <t>-34.80907219197301,173.16374450740224</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10906,17 +10972,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.80758899899578,173.1637630366372</t>
+          <t>-34.80758840576154,173.1637570665773</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.80831298566795,173.1635673629061</t>
+          <t>-34.80831451021825,173.16358321805683</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.809058499400464,173.16359718374025</t>
+          <t>-34.80905951928113,173.1636081569612</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10933,12 +10999,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.807588308686825,173.1637560896584</t>
+          <t>-34.80758954908544,173.16376857251103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.808320911218416,173.16364978797677</t>
+          <t>-34.80831768461766,173.1636162315232</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -10958,7 +11024,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-34.80905193578838,173.16352656400778</t>
+          <t>-34.80904913866739,173.16349646914054</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -10975,17 +11041,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.80759592363555,173.16383272352482</t>
+          <t>-34.80759693752027,173.16384292690185</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.80831693278703,173.1636084125441</t>
+          <t>-34.80831431181798,173.16358115471527</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-34.809064164269614,173.16365813401052</t>
+          <t>-34.809062417352436,173.1636393382935</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11002,13 +11068,13 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.80759921336476,173.1638658302278</t>
+          <t>-34.807598339699844,173.1638570379556</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-34.80908823709816,173.16391714558938</t>
+          <t>-34.80908974163164,173.16393333381802</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11025,17 +11091,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.807595093112326,173.16382436543955</t>
+          <t>-34.80759679730222,173.1638415157965</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80833132190268,173.16375805914066</t>
+          <t>-34.80832691538611,173.1637122312225</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-34.80907151542677,173.16373722813464</t>
+          <t>-34.80906857698963,173.16370561221248</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11052,7 +11118,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.807592137739334,173.16379462368297</t>
+          <t>-34.807594003723864,173.16381340223708</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -11071,17 +11137,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.80758941965262,173.16376726995247</t>
+          <t>-34.807590260965824,173.16377573658318</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.80831871838396,173.1636269826197</t>
+          <t>-34.80831651510312,173.16360406866687</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.80906000397653,173.1636133719574</t>
+          <t>-34.80905853979181,173.16359761832325</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11098,17 +11164,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.80759502839621,173.1638237141602</t>
+          <t>-34.80759419787237,173.16381535607513</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.80831742356541,173.1636135165999</t>
+          <t>-34.808319585076184,173.16363599616545</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.809064063291814,173.16365704755287</t>
+          <t>-34.80906549717555,173.16367247525176</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11125,12 +11191,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.80759714245431,173.1638449892866</t>
+          <t>-34.8075960638537,173.16383413463015</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.808319825243785,173.16363849389504</t>
+          <t>-34.80832262371473,173.16366759787553</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -11148,7 +11214,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.80759760625227,173.16384965678895</t>
+          <t>-34.8075961501418,173.16383500300265</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -11167,17 +11233,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.80760096069266,173.1638834147727</t>
+          <t>-34.807600011527185,173.16387386267414</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.80832035778917,173.16364403233894</t>
+          <t>-34.808322822113524,173.16366966121748</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-34.80906433593183,173.16365998098854</t>
+          <t>-34.8090659818682,173.1636776902487</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11194,17 +11260,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.80760648309501,173.16393899062322</t>
+          <t>-34.807607205751246,173.1639462632448</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.80832895157482,173.16373340762956</t>
+          <t>-34.80832709290014,173.16371407737074</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-34.80907150532908,173.16373711948884</t>
+          <t>-34.80907026331025,173.16372375605758</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11223,7 +11289,7 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-34.809047472508745,173.163478542596</t>
+          <t>-34.809045634682214,173.163458769075</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11242,7 +11308,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-34.80906534570906,173.16367084556524</t>
+          <t>-34.809063396838155,173.16364987693242</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11259,17 +11325,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.807613450777325,173.1640091117263</t>
+          <t>-34.807612501621755,173.1639995596249</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.808328471243456,173.16372841216935</t>
+          <t>-34.80833093555002,173.16375404105287</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.8090519155926,173.16352634671634</t>
+          <t>-34.80905356154843,173.16354405597127</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11286,17 +11352,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.8075934104921,173.1638074321764</t>
+          <t>-34.80759438123483,173.1638172013666</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.80832247752612,173.16366607751826</t>
+          <t>-34.80831998187481,173.1636401228491</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-34.80906110463819,173.16362521434482</t>
+          <t>-34.80905943849854,173.1636072877952</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11313,17 +11379,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.80760068025749,173.16388059256175</t>
+          <t>-34.80759976344975,173.16387136610297</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.80832720776215,173.1637152719373</t>
+          <t>-34.80832957809369,173.16373992344737</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-34.809069112169524,173.1637113704387</t>
+          <t>-34.80907068741439,173.16372831918042</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11340,17 +11406,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.807578158942086,173.1636539473736</t>
+          <t>-34.8075769832488,173.16364211580344</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.8083037443429,173.16347125464176</t>
+          <t>-34.80830679346644,173.16350296493684</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.80904869435868,173.16349168872858</t>
+          <t>-34.809050724040134,173.16351352651992</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11367,17 +11433,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.807590638477976,173.16377953571237</t>
+          <t>-34.80758920393118,173.1637650990216</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.80831901076213,173.16363002333392</t>
+          <t>-34.80832273857719,173.1636687924419</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-34.80906228608107,173.1636379258986</t>
+          <t>-34.80906477013615,173.1636646527565</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11394,17 +11460,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.80759146900429,173.16378789379672</t>
+          <t>-34.80759221324164,173.16379538350884</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.80831707897636,173.16360993290112</t>
+          <t>-34.80831512630304,173.16358962527542</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-34.8090599332918,173.16361261143712</t>
+          <t>-34.80905864077012,173.16359870478075</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11421,12 +11487,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.80758356280199,173.1637083291821</t>
+          <t>-34.80758320685988,173.1637047471466</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.80831443712341,173.16358245787836</t>
+          <t>-34.808315376913704,173.16359223160168</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -11444,17 +11510,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.80759485581988,173.16382197741524</t>
+          <t>-34.80759539512085,173.16382740474327</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.80831441623918,173.16358224068452</t>
+          <t>-34.80831301699435,173.16356768869687</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-34.8090599332918,173.16361261143712</t>
+          <t>-34.809059004292,173.16360261602784</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11471,17 +11537,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.807593798789284,173.16381133985246</t>
+          <t>-34.80759544905092,173.16382794747608</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.808327186878145,173.16371505474336</t>
+          <t>-34.80832290564984,173.16367052999306</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.80907242422011,173.16374700625533</t>
+          <t>-34.809069576665046,173.16371636814452</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11498,17 +11564,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.80759209459513,173.16379418949677</t>
+          <t>-34.80759101598999,173.1637833348416</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.8083126619618,173.1635639964016</t>
+          <t>-34.80831546045058,173.1635931003771</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-34.80906359879384,173.16365204984768</t>
+          <t>-34.80906546688225,173.1636721493145</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11525,17 +11591,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.807609071712356,173.16396504180565</t>
+          <t>-34.807610117943625,173.1639755708257</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.80832753146411,173.163718638443</t>
+          <t>-34.80832481654157,173.1636904032347</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.80906999067175,173.16372082262149</t>
+          <t>-34.80906818317785,173.16370137502722</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11552,17 +11618,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.80759853384765,173.16385899179386</t>
+          <t>-34.807598059264066,173.1638542157448</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.80831808141695,173.16362035820666</t>
+          <t>-34.80831930314022,173.16363306404813</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.809058842726735,173.16360087769579</t>
+          <t>-34.80905966065064,173.16360967800176</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11579,17 +11645,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.8075959667796,173.16383315771108</t>
+          <t>-34.80759480188977,173.16382143468243</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.808326121793606,173.16370397785386</t>
+          <t>-34.80832912908853,173.16373525377793</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.80906517404698,173.16366899858718</t>
+          <t>-34.80906718350111,173.16369061909552</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11606,17 +11672,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.80759224559978,173.16379570914853</t>
+          <t>-34.8075916415811,173.16378963054157</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.80831597211382,173.16359842162657</t>
+          <t>-34.80831753842841,173.16361471116616</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-34.809058852824556,173.16360098634152</t>
+          <t>-34.80905990299835,173.16361228549985</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11633,17 +11699,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.807598156338,173.16385519266393</t>
+          <t>-34.807598404415785,173.16385768923502</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.808324336208436,173.16368540777498</t>
+          <t>-34.80832369924462,173.16367878336106</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.809069879596805,173.1637196275179</t>
+          <t>-34.80906945549233,173.16371506439518</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11660,17 +11726,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.80758001416221,173.16367261737494</t>
+          <t>-34.80758108199109,173.16368336348074</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.80831940756097,173.16363415001751</t>
+          <t>-34.808316661292515,173.16360558902392</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-34.80906218510311,173.163636839441</t>
+          <t>-34.80906034730232,173.16361706591306</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -11687,17 +11753,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.8076048220626,173.16392227444868</t>
+          <t>-34.80760586829756,173.16393280346762</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.80832786560796,173.16372211354567</t>
+          <t>-34.80832515068623,173.16369387833717</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.80907381770169,173.16376199937415</t>
+          <t>-34.80907201021436,173.1637425517781</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11714,17 +11780,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.80756876414972,173.16355940336797</t>
+          <t>-34.807569583904915,173.1635676529015</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.80829545319113,173.16338502871415</t>
+          <t>-34.808293333403206,173.16336298354898</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.809059216346384,173.1636048975886</t>
+          <t>-34.80905780264975,173.1635896871835</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11741,17 +11807,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.80758272148408,173.1636998625528</t>
+          <t>-34.807581642870524,173.16368900790005</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80831191012781,173.1635561774234</t>
+          <t>-34.80831470861846,173.1635852813984</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-34.80905953947676,173.16360837425273</t>
+          <t>-34.80906140757239,173.16362847371755</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -11768,17 +11834,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.80759144743218,173.16378767670363</t>
+          <t>-34.80759255839505,173.16379885699857</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80831477127116,173.16358593297997</t>
+          <t>-34.80831188924353,173.16355596022956</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.80905801470436,173.16359196874424</t>
+          <t>-34.80905609611342,173.1635713260523</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11795,17 +11861,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.8075924721067,173.16379798862613</t>
+          <t>-34.80759276332984,173.1638009193831</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80831363307996,173.16357409591527</t>
+          <t>-34.80831287080449,173.16356616834</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-34.80905717658349,173.16358295114713</t>
+          <t>-34.80905667169107,173.1635775188598</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -11822,17 +11888,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.80761104552934,173.16398490583333</t>
+          <t>-34.80761251240762,173.1639996681715</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.80833364001584,173.1637821676683</t>
+          <t>-34.80832982870113,173.16374252977448</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-34.809074251902096,173.16376667114318</t>
+          <t>-34.809071717380924,173.16373940105032</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -11849,17 +11915,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.80760690374571,173.16394322394027</t>
+          <t>-34.80760797155067,173.16395397005292</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.80833294040561,173.16377489167107</t>
+          <t>-34.808330194170225,173.16374633066826</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.80907736198346,173.16380013404816</t>
+          <t>-34.80907552420922,173.1637803605131</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -11876,17 +11942,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.80760033510643,173.16387711907137</t>
+          <t>-34.80760121955584,173.16388601989055</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.80832137066891,173.16365456624223</t>
+          <t>-34.80831908385666,173.16363078351247</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.809064426811815,173.16366095880042</t>
+          <t>-34.8090629020465,173.16364455329006</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -11903,17 +11969,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.807607097892124,173.1639451777789</t>
+          <t>-34.807606019300465,173.1639343231199</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.80833025682206,173.16374698225007</t>
+          <t>-34.80833305526702,173.1637760862378</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-34.80907106102982,173.16373233907436</t>
+          <t>-34.80907292910496,173.16375243854472</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -11930,17 +11996,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.807605738866485,173.16393150090857</t>
+          <t>-34.807604369053365,173.1639177154921</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.808325453504764,173.1636970276488</t>
+          <t>-34.80832901422672,173.16373405921138</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.809065093264834,173.16366812942104</t>
+          <t>-34.809067466238055,173.1636936611772</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -11957,17 +12023,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.807611681895864,173.1639913100829</t>
+          <t>-34.80761241533484,173.16399869125203</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.80834324655997,173.163882076896</t>
+          <t>-34.80834133569957,173.1638622036456</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.80907369652946,173.1637606956247</t>
+          <t>-34.80907242422011,173.16374700625533</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -11984,17 +12050,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.8076139577124,173.16401421341692</t>
+          <t>-34.807615629518004,173.1640310381417</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.808334579790085,173.16379194139606</t>
+          <t>-34.80833025682206,173.16374698225007</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-34.8090736561387,173.16376026104152</t>
+          <t>-34.80907076819612,173.16372918834668</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12011,17 +12077,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.807611843683915,173.16399293828198</t>
+          <t>-34.807613644922704,173.16401106556523</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.80833086245625,173.1637532808741</t>
+          <t>-34.808326205329685,173.16370484662949</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-34.80907320174268,173.16375537198098</t>
+          <t>-34.80907009164897,173.1637219090793</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12038,17 +12104,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.807595589269134,173.16382935858138</t>
+          <t>-34.80759461852738,173.1638195893909</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80831322583697,173.1635698606353</t>
+          <t>-34.80831572150327,173.16359581530028</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.80906144796363,173.16362890830058</t>
+          <t>-34.809063114100105,173.16364683485105</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12065,17 +12131,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.80759563241319,173.16382979276761</t>
+          <t>-34.80759480188977,173.16382143468243</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.80832177790895,173.16365880152298</t>
+          <t>-34.808323939411345,173.1636812810909</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-34.809063114100105,173.16364683485105</t>
+          <t>-34.809064547985116,173.16366226254962</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12092,17 +12158,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.80760742146945,173.16394843417666</t>
+          <t>-34.80760668802742,173.16394105300844</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.80833122792502,173.16375708176795</t>
+          <t>-34.808333138802595,173.16377695501356</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-34.809075271767455,173.16377764436822</t>
+          <t>-34.80907654407334,173.1637913337385</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12119,17 +12185,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.8076178729696,173.164053615838</t>
+          <t>-34.80761955555555,173.164070549111</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.808339508371034,173.16384319917205</t>
+          <t>-34.80833514365425,173.16379780563284</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-34.809082552163666,173.16385597799257</t>
+          <t>-34.80907964405029,173.16382468799955</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12146,17 +12212,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.80761173582522,173.16399185281594</t>
+          <t>-34.80761290069863,173.16400357584928</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.80834026018656,173.16385101815538</t>
+          <t>-34.808337252921426,173.16381974222298</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-34.80908421826666,173.16387390455205</t>
+          <t>-34.80908220884515,173.16385228403496</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12175,7 +12241,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-34.80907481737212,173.16377275530755</t>
+          <t>-34.80907594831125,173.1637849236365</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12192,17 +12258,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.807602330509674,173.16389720018807</t>
+          <t>-34.8076018774995,173.16389264123177</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.80833304482508,173.1637759776408</t>
+          <t>-34.80833423520628,173.16378835769584</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.80907461541857,173.1637705823917</t>
+          <t>-34.80907540303718,173.16377905676356</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12220,12 +12286,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.80832440930263,173.16368616795364</t>
+          <t>-34.80832309360655,173.1636724847381</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.809070495557776,173.16372625491056</t>
+          <t>-34.80906961705596,173.16371680272763</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12242,17 +12308,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.80761216725995,173.16399619468012</t>
+          <t>-34.80761348313491,173.1640094373661</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.80832901422672,173.16373405921138</t>
+          <t>-34.80832563101901,173.163698873797</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-34.80907526166977,173.16377753572243</t>
+          <t>-34.8090729997888,173.1637531990652</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12269,17 +12335,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.80759640900601,173.16383760812016</t>
+          <t>-34.80759563241319,173.16382979276761</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.80832494184583,173.1636917063981</t>
+          <t>-34.808326925828105,173.16371233981945</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-34.80906696135058,173.16368822888853</t>
+          <t>-34.809068294252974,173.16370257013074</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12296,17 +12362,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.807594176300306,173.16381513898202</t>
+          <t>-34.80759304376686,173.16380374159354</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.808321057407234,173.16365130833395</t>
+          <t>-34.80832398117946,173.1636817154787</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-34.80906158933288,173.1636304293412</t>
+          <t>-34.80906353820714,173.16365139797313</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12323,7 +12389,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.80760957864927,173.16397014349576</t>
+          <t>-34.80761113181635,173.16398577420617</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12342,17 +12408,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.80762958630744,173.16417149748332</t>
+          <t>-34.80763085902051,173.16418430598821</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.80832602781551,173.16370300048126</t>
+          <t>-34.80832271769311,173.16366857524804</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-34.80907085907556,173.1637301661587</t>
+          <t>-34.80906865777152,173.1637064813787</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12369,17 +12435,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.80760284823538,173.16390241042393</t>
+          <t>-34.807602179506304,173.16389568053594</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.80833223035301,173.163767507077</t>
+          <t>-34.80833396371595,173.16378553417448</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-34.80907024311479,173.16372353876602</t>
+          <t>-34.80907139425428,173.1637359243852</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12396,17 +12462,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.80760488677819,173.16392292572817</t>
+          <t>-34.80760409940493,173.16391500182746</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.80833262714717,173.1637716337619</t>
+          <t>-34.80833466332554,173.16379281017188</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-34.809070283505676,173.16372397334916</t>
+          <t>-34.80907164669698,173.16373864052983</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12423,17 +12489,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.8075961501418,173.16383500300265</t>
+          <t>-34.80759571870131,173.16383066114014</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.808322707251065,173.16366846665107</t>
+          <t>-34.80832380366494,173.16367986933056</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.80906054925861,173.16361923882818</t>
+          <t>-34.80906128639872,173.16362716996844</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12450,17 +12516,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.807600011527185,173.16387386267414</t>
+          <t>-34.80759982816559,173.1638720173824</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.808324618143125,173.16368833989264</t>
+          <t>-34.80832507759208,173.1636931181585</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-34.80906382094508,173.1636544400545</t>
+          <t>-34.809064133976264,173.16365780807322</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12477,17 +12543,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.80760816569692,173.16395592389162</t>
+          <t>-34.807607367539894,173.1639478914437</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.80833372355136,173.16378303644407</t>
+          <t>-34.80833580149542,173.16380464724253</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-34.80907002096494,173.16372114855884</t>
+          <t>-34.809071404351975,173.163736033031</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12504,17 +12570,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.80760333360303,173.16390729502007</t>
+          <t>-34.80760243836921,173.16389828565386</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.80832914997251,173.16373547097186</t>
+          <t>-34.808331488974055,173.16375979669218</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-34.809068395230355,173.16370365658852</t>
+          <t>-34.80906995028087,173.16372038803837</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12531,17 +12597,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.807608489273946,173.16395918028948</t>
+          <t>-34.80760858634703,173.16396015720883</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80833891318337,173.16383700914372</t>
+          <t>-34.80833866257796,173.163834402816</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.809071192300074,173.16373375146955</t>
+          <t>-34.80907102063897,173.16373190449124</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -12558,17 +12624,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.807612037829536,173.16399489212083</t>
+          <t>-34.80761318113093,173.16400639806108</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.808340301954075,173.16385145254335</t>
+          <t>-34.80833733645666,173.16382061099884</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-34.80908351143541,173.1638662993449</t>
+          <t>-34.809081532305385,173.1638450047656</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12585,17 +12651,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.80761210254474,173.1639955434005</t>
+          <t>-34.807613310561216,173.16400770062037</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.80833905936984,173.16383852950153</t>
+          <t>-34.80833592679848,173.16380595040627</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.809085823781594,173.16389117923734</t>
+          <t>-34.809083733582426,173.16386868955288</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12612,7 +12678,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.80761286834104,173.16400325020948</t>
+          <t>-34.807612717339005,173.16400173055698</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -12631,17 +12697,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.807609988513,173.1639742682665</t>
+          <t>-34.80760906092647,173.16396493325905</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.80833538381854,173.16380030336336</t>
+          <t>-34.808337795900435,173.16382538926615</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.80907406004612,173.16376460687314</t>
+          <t>-34.80907566557659,173.16378188155423</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12658,17 +12724,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.807608295127736,173.16395722645075</t>
+          <t>-34.807608014694274,173.1639544042393</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.8083373991081,173.16382126258077</t>
+          <t>-34.80833811959935,173.1638287557727</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.80907407014381,173.1637647155189</t>
+          <t>-34.80907454473481,173.16376982187114</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12685,17 +12751,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.80760713024986,173.16394550341866</t>
+          <t>-34.807606526238665,173.1639394248096</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.808334391835295,173.1637899866505</t>
+          <t>-34.80833595812421,173.16380627619722</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-34.80907214148449,173.16374396417334</t>
+          <t>-34.80907319164498,173.1637552633352</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -12712,17 +12778,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.8075950715403,173.16382414834644</t>
+          <t>-34.80759396057974,173.16381296805085</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.808326487263905,173.1637077787473</t>
+          <t>-34.8083293692541,173.16373775150808</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.80906634538755,173.16368160149645</t>
+          <t>-34.80906826395976,173.16370224419342</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12739,17 +12805,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.80761966341354,173.16407163457723</t>
+          <t>-34.80762007327383,173.16407575934895</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.80834653573826,173.16391628495202</t>
+          <t>-34.80834547067206,173.1639052080574</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.80908305704364,173.16386141028326</t>
+          <t>-34.809082350211604,173.16385380507634</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12766,17 +12832,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.807622823648444,173.16410343873935</t>
+          <t>-34.80762405322564,173.16411581305562</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.808354596794864,173.1640001218499</t>
+          <t>-34.80835142249968,173.16396710835454</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-34.80908976182669,173.16393355110966</t>
+          <t>-34.8090876413427,173.16391073548562</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -12793,17 +12859,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.80761853090413,173.16406023718184</t>
+          <t>-34.80762043999081,173.16407944993423</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.80835907629485,173.1640467099776</t>
+          <t>-34.808354116474455,173.16399512638662</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-34.80908260265167,173.16385652122165</t>
+          <t>-34.80907930073081,173.16382099404217</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -12820,17 +12886,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.80762484058582,173.16412373696008</t>
+          <t>-34.80762617801835,173.16413719674335</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.80835767710563,173.16403215797448</t>
+          <t>-34.808354200008466,173.16399599516285</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.80908464236518,173.1638784676764</t>
+          <t>-34.8090823300164,173.1638535877847</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -12847,17 +12913,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.80759767096824,173.16385030806836</t>
+          <t>-34.8075961609278,173.16383511154922</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.80832864875725,173.16373025831768</t>
+          <t>-34.808332543611556,173.16377076498614</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.80907206070286,173.16374309500705</t>
+          <t>-34.809074665906955,173.16377112562063</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -12874,17 +12940,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.80760068025749,173.16388059256175</t>
+          <t>-34.80760165099434,173.16389036175363</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.8083217465828,173.16365847573215</t>
+          <t>-34.80831925092986,173.16363252106345</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.809064356127394,173.16366019828007</t>
+          <t>-34.809062689992885,173.16364227172906</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -12901,17 +12967,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.80760282666348,173.16390219333076</t>
+          <t>-34.8076045308424,173.16391934369085</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.80832822063571,173.1637258058423</t>
+          <t>-34.80832381410696,173.1636799779275</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.80906848611001,173.1637046344005</t>
+          <t>-34.809065547664375,173.1636730184806</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12928,17 +12994,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.807600442966134,173.1638782045371</t>
+          <t>-34.807600000741225,173.16387375412756</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.80833282554419,173.16377369710438</t>
+          <t>-34.808333974157875,173.16378564277147</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-34.80907512030236,173.16377601468133</t>
+          <t>-34.809075887725264,173.16378427176173</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12955,17 +13021,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.80760975122349,173.16397188024132</t>
+          <t>-34.807610829811786,173.1639827349013</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.80834643132004,173.16391519898195</t>
+          <t>-34.80834363290838,173.16388609498497</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-34.809076362315444,173.16378937811416</t>
+          <t>-34.80907449424643,173.16376927864218</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12982,17 +13048,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.80757537610656,173.1636259423732</t>
+          <t>-34.80757423276914,173.1636144364433</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.80829824128048,173.16341402408085</t>
+          <t>-34.808301206881026,173.16344486559663</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.809049784934274,173.1635034224671</t>
+          <t>-34.809051764124135,173.1635247170303</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13009,17 +13075,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.80758581709962,173.16373101540765</t>
+          <t>-34.807585536660916,173.16372819319773</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.8083114611156,173.16355150775595</t>
+          <t>-34.808312181623485,173.1635590009433</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.809060448280455,173.16361815237062</t>
+          <t>-34.809060922877634,173.16362325872117</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13036,17 +13102,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.807605102496794,173.1639250966599</t>
+          <t>-34.80760631052032,173.16393725387778</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.808321422879175,173.16365510922694</t>
+          <t>-34.80831829025863,173.16362253014535</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.80906366947833,173.16365281036803</t>
+          <t>-34.80906157923506,173.16363032069546</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13063,17 +13129,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.80759870642347,173.16386072853896</t>
+          <t>-34.80759935358252,173.16386724133324</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.8083182484903,173.16362209575763</t>
+          <t>-34.808316546429424,173.16360439445768</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.80906146815923,173.1636291255921</t>
+          <t>-34.80906033720449,173.1636169572673</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13090,17 +13156,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.80759714245431,173.1638449892866</t>
+          <t>-34.807598037692074,173.16385399865166</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.80832268636698,173.16366824945717</t>
+          <t>-34.80832034734711,173.16364392374197</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-34.80906922324456,173.16371256554226</t>
+          <t>-34.809067668192974,173.16369583409266</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13117,17 +13183,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.80758355201587,173.16370822063556</t>
+          <t>-34.80758536408322,173.16372645645316</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.8083121085285,173.16355824076484</t>
+          <t>-34.80830740955549,173.16350937215427</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-34.8090565202233,173.16357588917361</t>
+          <t>-34.809053389884454,173.1635422089937</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13144,17 +13210,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.80758484634997,173.1637212462195</t>
+          <t>-34.80758633483246,173.16373622564146</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.80832181967715,173.16365923591079</t>
+          <t>-34.808317956111935,173.16361905504348</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.80905369282088,173.16354546836584</t>
+          <t>-34.80905111785846,173.16351776370345</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13171,17 +13237,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.807571816656335,173.1635901220265</t>
+          <t>-34.807573283582556,173.16360488435083</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.808303180462985,173.16346539040939</t>
+          <t>-34.80829936904499,173.16342575254436</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.809045846739274,173.16346105063508</t>
+          <t>-34.809043312149555,173.16343378056067</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13198,17 +13264,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.80756989670608,173.16357080074985</t>
+          <t>-34.80757102926138,173.16358219813202</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.80831174305352,173.1635544398727</t>
+          <t>-34.808308819249454,173.16352403273686</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.809048886219294,173.16349375299737</t>
+          <t>-34.809046937317824,173.16347278437277</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13225,17 +13291,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.80759613935579,173.16383489445607</t>
+          <t>-34.80759502839621,173.1638237141602</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.80831836335322,173.1636232903239</t>
+          <t>-34.80832124536425,173.1636532630789</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.80906506297153,173.16366780348375</t>
+          <t>-34.80906698154608,173.1636884461801</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13253,12 +13319,12 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.80831382103823,173.16357605065986</t>
+          <t>-34.80831275594102,173.16356497377384</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.809062952535456,173.16364509651888</t>
+          <t>-34.8090622456899,173.16363749131557</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13275,17 +13341,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.807586550554404,173.16373839657223</t>
+          <t>-34.80758591417455,173.16373199232652</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.808303305769655,173.1634666935721</t>
+          <t>-34.80830495563955,173.163483851882</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-34.80905919615073,173.1636046802971</t>
+          <t>-34.809060296813236,173.1636165226843</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -13302,17 +13368,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.8075686670734,173.16355842644953</t>
+          <t>-34.80757000456854,173.1635718862148</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.80830693965711,173.1635044852935</t>
+          <t>-34.808303462402975,173.16346832252557</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-34.80904902759022,173.16349527403756</t>
+          <t>-34.809046715163014,173.16347039416692</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13329,17 +13395,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.80757892476005,173.1636616541764</t>
+          <t>-34.80757741469601,173.16364645766402</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.80830543598097,173.16348884733944</t>
+          <t>-34.80830933091571,173.1635293539855</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-34.809052481074644,173.16353243087744</t>
+          <t>-34.80905508632731,173.163560461478</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13356,17 +13422,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.80759112385055,173.1637844203071</t>
+          <t>-34.80759032568219,173.16377638786244</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.80831047955341,173.16354129964589</t>
+          <t>-34.808312557540454,173.16356291043238</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-34.80906018573725,173.163615327581</t>
+          <t>-34.80906156913726,173.1636302120497</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13383,17 +13449,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.807572442257445,173.16359641772357</t>
+          <t>-34.80757205395336,173.1635925100495</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.8083031909052,173.16346549900626</t>
+          <t>-34.808304203800404,173.16347603290527</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.80904629104919,173.1634658310467</t>
+          <t>-34.809046967611664,173.16347311030995</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13410,17 +13476,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.80757841781019,173.16365655249004</t>
+          <t>-34.80757946406816,173.16366708150235</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80830221977802,173.16345539949512</t>
+          <t>-34.80829950479434,173.16342716430384</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.809053480765385,173.16354318680536</t>
+          <t>-34.80905167324306,173.16352373921873</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13437,17 +13503,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.807581610512095,173.16368868226047</t>
+          <t>-34.80758306664022,173.16370333604172</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.808307921222394,173.1635146934027</t>
+          <t>-34.808304151589326,173.16347548992078</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-34.80906684017755,173.16368692513927</t>
+          <t>-34.80906432583405,173.16365987234278</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13464,17 +13530,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.80758280777313,173.16370073092503</t>
+          <t>-34.807581890951724,173.16369150447017</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.808304381318024,173.16347787905255</t>
+          <t>-34.8083067516977,173.16350253054918</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.80905504593584,173.16356002689503</t>
+          <t>-34.80905662120181,173.16357697563106</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13491,12 +13557,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.80759390664959,173.16381242531804</t>
+          <t>-34.807593529138465,173.16380862618857</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.80831703720797,173.1636094985134</t>
+          <t>-34.80831800832236,173.16361959802813</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -13514,17 +13580,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.80759885742728,173.16386224819095</t>
+          <t>-34.80759757389427,173.16384933114927</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.80832117226985,173.16365250290033</t>
+          <t>-34.80832452416491,173.1636873625201</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-34.809064517691795,173.16366193661233</t>
+          <t>-34.80906674929778,173.1636859473273</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13541,12 +13607,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.80757823444529,173.16365470719924</t>
+          <t>-34.807579280703436,173.16366523621153</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.808300340174625,173.16343585205482</t>
+          <t>-34.80829762518642,173.16340761686482</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -13564,17 +13630,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.80759128564138,173.16378604850536</t>
+          <t>-34.8075907355525,173.16378051263132</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.80831108519828,173.16354759826697</t>
+          <t>-34.80831252621403,173.16356258464162</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-34.80906038769357,173.1636175004961</t>
+          <t>-34.80906134698556,173.163627821843</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13591,17 +13657,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.80757700482116,173.16364233289647</t>
+          <t>-34.80757726368951,173.16364493801282</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.808309069861544,173.16352663906272</t>
+          <t>-34.808308391120356,173.16351958026357</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-34.80905334949291,173.16354177441076</t>
+          <t>-34.8090528950881,173.1635368853526</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13618,17 +13684,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.80758789881569,173.16375196488977</t>
+          <t>-34.80758746737225,173.16374762302812</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.80831253665617,173.16356269323853</t>
+          <t>-34.80831363307996,173.16357409591527</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-34.80906084209516,173.16362238955512</t>
+          <t>-34.80906157923506,173.16363032069546</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13645,17 +13711,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.807588524408416,173.16375826058928</t>
+          <t>-34.8075878880296,173.16375185634323</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.80831246356122,173.1635619330601</t>
+          <t>-34.80831411341768,173.16357909137372</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-34.80906621411668,173.16368018910143</t>
+          <t>-34.80906731477184,173.16369203149057</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13672,17 +13738,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.80759877113939,173.16386137981837</t>
+          <t>-34.80759819948197,173.1638556268502</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.80831802920653,173.163619815222</t>
+          <t>-34.80831951198168,173.1636352359869</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.80907232324311,173.16374591979746</t>
+          <t>-34.80907331281727,173.16375656708468</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13699,17 +13765,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.8075993104386,173.16386680714692</t>
+          <t>-34.80759870642347,173.16386072853896</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.808311951896385,173.16355661181106</t>
+          <t>-34.808313518216586,173.1635729013491</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.80905800460654,173.16359186009848</t>
+          <t>-34.809059054781144,173.16360315925658</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13726,17 +13792,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.807602729589924,173.16390121641152</t>
+          <t>-34.807603657181346,173.16391055141756</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.80832173614074,173.1636583671352</t>
+          <t>-34.808319324024374,173.163633281242</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.80906928383093,173.16371321741693</t>
+          <t>-34.80906767829072,173.16369594273846</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13753,17 +13819,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.8075971100963,173.1638446636469</t>
+          <t>-34.80759751996428,173.16384878841643</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.80831842600571,173.1636239419055</t>
+          <t>-34.808317360912866,173.1636128650183</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.80906665841798,173.16368496951537</t>
+          <t>-34.80906595157491,173.16367736431138</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13780,17 +13846,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.80759917022082,173.1638653960415</t>
+          <t>-34.8075987603534,173.16386127127183</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.80831156553707,173.16355259372511</t>
+          <t>-34.80831263063541,173.16356367061084</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.80906104405134,173.16362456247026</t>
+          <t>-34.80906175089771,173.16363216767334</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13807,17 +13873,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.80758173994578,173.16368998481877</t>
+          <t>-34.80758316371536,173.16370431296048</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.808302052702274,173.16345366194483</t>
+          <t>-34.8082983665877,173.16341532724343</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-34.80906109454038,173.16362510569905</t>
+          <t>-34.80905863067229,173.163598596135</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13834,17 +13900,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.80758917157296,173.16376477338193</t>
+          <t>-34.80758940886654,173.16376716140596</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80831047955341,173.16354129964589</t>
+          <t>-34.80830989479256,173.16353521821873</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-34.80905074423595,173.16351374381136</t>
+          <t>-34.80905034031956,173.16350939798218</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13861,17 +13927,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.8075882655425,173.16375565547222</t>
+          <t>-34.80759008838879,173.16377399983838</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.808314635523644,173.16358452121992</t>
+          <t>-34.80830988435039,173.16353510962182</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-34.809055833569126,173.16356850126294</t>
+          <t>-34.80905267293457,173.16353449514642</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -13888,17 +13954,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.80759784354419,173.16385204481344</t>
+          <t>-34.80759715324031,173.16384509783316</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.80832920218241,173.16373601395668</t>
+          <t>-34.808330977317894,173.16375447544073</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-34.809067516726785,173.16369420440608</t>
+          <t>-34.80906870826019,173.1637070246076</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -13915,17 +13981,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.8076139577124,173.16401421341692</t>
+          <t>-34.80761492843852,173.16402398261187</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.80834858233323,173.16393756996604</t>
+          <t>-34.80834608673988,173.16391161528074</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-34.80909163996607,173.1639537592348</t>
+          <t>-34.80908997387485,173.16393583267214</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -13942,17 +14008,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.80760059396973,173.16387972418917</t>
+          <t>-34.807600971478635,173.16388352331927</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.80832499405594,173.1636922493829</t>
+          <t>-34.80832402294758,173.16368214986647</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-34.80906936461277,173.16371408658316</t>
+          <t>-34.809068718357935,173.16370713325338</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -13969,17 +14035,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.80758693885382,173.16374230424765</t>
+          <t>-34.807588103751264,173.16375402727408</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.80832737483414,173.1637170094886</t>
+          <t>-34.808324367534524,173.16368573356584</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-34.80906818317785,173.16370137502722</t>
+          <t>-34.80906617372565,173.16367975451834</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -13996,17 +14062,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.80759717481231,173.16384531492628</t>
+          <t>-34.80759624721588,173.1638359799217</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.80832846080148,173.16372830357238</t>
+          <t>-34.80833087289822,173.16375338947105</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-34.809068476012264,173.16370452575472</t>
+          <t>-34.809070081551255,173.16372180043354</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14023,17 +14089,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.807595093112326,173.16382436543955</t>
+          <t>-34.807593636998796,173.16380971165412</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.80832506715007,173.16369300956154</t>
+          <t>-34.808328836712995,173.163732213063</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-34.80906159943068,173.16363053798696</t>
+          <t>-34.809064113780714,173.1636575907817</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14050,17 +14116,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.80760526428573,173.1639267248587</t>
+          <t>-34.80760627816256,173.16393692823803</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.80832736439213,173.16371690089167</t>
+          <t>-34.808324743447415,173.16368964305605</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-34.80907613006921,173.16378687926084</t>
+          <t>-34.80907438317195,173.16376808353846</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14077,17 +14143,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.80760471420327,173.1639211889828</t>
+          <t>-34.80760489756412,173.16392303427475</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.80832535952659,173.16369605027623</t>
+          <t>-34.808324900077736,173.16369127201034</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-34.809078624189155,173.1638137147733</t>
+          <t>-34.8090783111623,173.16381034675345</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14104,17 +14170,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.80761143382082,173.16398881351105</t>
+          <t>-34.807610829811786,173.1639827349013</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.80832594427942,173.16370213170563</t>
+          <t>-34.808327510580106,173.1637184212491</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-34.80907086917327,173.1637302748045</t>
+          <t>-34.809071919335025,173.16374157396604</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14131,17 +14197,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.80761190839913,173.16399358956158</t>
+          <t>-34.80761334291879,173.1640080262602</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.8083312905768,173.16375773334977</t>
+          <t>-34.8083275627901,173.16371896423385</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-34.809075190986064,173.1637767752019</t>
+          <t>-34.809072706955654,173.16375004833736</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14158,17 +14224,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.807573326727415,173.16360531853684</t>
+          <t>-34.807574858369,173.16362073214074</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.8083125679826,173.16356301902928</t>
+          <t>-34.8083085790795,173.16352153500793</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-34.809055480143996,173.16356469866196</t>
+          <t>-34.80905282440289,173.16353612483246</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14185,17 +14251,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.80760962179283,173.16397057768214</t>
+          <t>-34.80760965415048,173.1639709033219</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.80834171160679,173.16386611313743</t>
+          <t>-34.80834162807187,173.16386524436146</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-34.809080229712656,173.16383098945627</t>
+          <t>-34.80908017922454,173.16383044622725</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14212,17 +14278,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.80759529804669,173.16382642782423</t>
+          <t>-34.80759520097253,173.16382545090516</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.808317434007506,173.16361362519683</t>
+          <t>-34.80831768461766,173.1636162315232</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-34.80906136718117,173.16362803913452</t>
+          <t>-34.80906153884386,173.1636298861124</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14239,17 +14305,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.80758808217911,173.163753810181</t>
+          <t>-34.80758976480681,173.16377074344197</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80832243575794,173.1636656431305</t>
+          <t>-34.80831807097488,173.16362024960972</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-34.80906772877943,173.16369648596734</t>
+          <t>-34.80906482062501,173.16366519598532</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14266,17 +14332,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.80760618108929,173.1639359513187</t>
+          <t>-34.807605404502794,173.16392813596434</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.80833101908575,173.1637549098286</t>
+          <t>-34.80833300305731,173.16377554325288</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-34.80907064702353,173.16372788459728</t>
+          <t>-34.80907197992125,173.16374222584076</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14293,17 +14359,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.80760074497331,173.16388124384122</t>
+          <t>-34.80759987130951,173.1638724515687</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.8083297138394,173.1637413352079</t>
+          <t>-34.808331958862176,173.1637646835558</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-34.80906880923754,173.16370811106535</t>
+          <t>-34.809070313798834,173.16372429928649</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14320,12 +14386,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.80758588181624,173.16373166668689</t>
+          <t>-34.807585590591444,173.16372873593042</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.808307451324225,173.16350980654187</t>
+          <t>-34.80830821360338,173.1635177341161</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -14343,17 +14409,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.807563220001235,173.16350361047444</t>
+          <t>-34.80756356516298,173.16350708396178</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.80830023575214,173.16343476608594</t>
+          <t>-34.80829934816047,173.16342553535054</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-34.809053399982325,173.16354231763947</t>
+          <t>-34.80905280420711,173.16353590754096</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14370,17 +14436,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.807590142319135,173.16377454257113</t>
+          <t>-34.80758979716503,173.1637710690816</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.808307367786746,173.1635089377666</t>
+          <t>-34.80830825537207,173.16351816850377</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-34.8090597313354,173.16361043852203</t>
+          <t>-34.809060327106685,173.16361684862156</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14397,17 +14463,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.807581880165586,173.16369139592362</t>
+          <t>-34.80758079076512,173.1636804327246</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.80830579101579,173.1634925396341</t>
+          <t>-34.80830863129036,173.1635220779925</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-34.80906345742486,173.163650528807</t>
+          <t>-34.80906534570906,173.16367084556524</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14424,17 +14490,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.80757902183552,173.16366263109506</t>
+          <t>-34.80757994944526,173.1636719660958</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.808319094298746,173.1636308921094</t>
+          <t>-34.808316682176695,173.16360580621776</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-34.809062871753135,173.16364422735276</t>
+          <t>-34.809061266203116,173.16362695267694</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14451,17 +14517,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.80760551236205,173.16392922143024</t>
+          <t>-34.80760398075959,173.16391380781505</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.80833388018044,173.1637846653987</t>
+          <t>-34.80833786899375,173.16382614944507</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-34.80906905158314,173.16371071856403</t>
+          <t>-34.809071707283216,173.16373929240453</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14478,17 +14544,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.80757674595276,173.16363972778015</t>
+          <t>-34.80757614192628,173.16363364917544</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.80830428733811,173.16347690168047</t>
+          <t>-34.80830585366898,173.1634931912155</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-34.80905963035717,173.1636093520645</t>
+          <t>-34.80906068053017,173.163620651223</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -14505,17 +14571,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.8075789679047,173.16366208836246</t>
+          <t>-34.80757907576634,173.16366317382767</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.80830327444299,173.16346636778144</t>
+          <t>-34.80830297161848,173.1634632184715</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-34.80905257195567,173.16353340868906</t>
+          <t>-34.809052380095736,173.16353134442008</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -14532,18 +14598,72 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.807569195599896,173.1635637452277</t>
+          <t>-34.807570144789715,173.16357329731923</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.808297311918125,173.16340435895842</t>
+          <t>-34.80829484753785,173.1633787300954</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-34.8075895706576,173.16376878960412</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-34.80831260975114,173.163563453417</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-34.809062346667865,173.16363857777318</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:17:53+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-34.80758271069796,173.16369975400625</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-34.80830308648297,173.1634644130373</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-34.8090580248022,173.16359207738998</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.4</v>
+        <v>371.5</v>
       </c>
       <c r="C3" t="n">
-        <v>375.99</v>
+        <v>368</v>
       </c>
       <c r="D3" t="n">
         <v>377.12</v>
@@ -509,10 +509,14 @@
           <t>2000-02-09 22:10:19+00:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>368</v>
+      </c>
       <c r="D4" t="n">
-        <v>366.46</v>
+        <v>371.79</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -527,13 +531,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.16</v>
+        <v>374.28</v>
       </c>
       <c r="C5" t="n">
-        <v>371.91</v>
+        <v>373.95</v>
       </c>
       <c r="D5" t="n">
-        <v>376.49</v>
+        <v>373.36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -548,13 +552,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374.08</v>
+        <v>372.62</v>
       </c>
       <c r="C6" t="n">
-        <v>371.61</v>
+        <v>371.76</v>
       </c>
       <c r="D6" t="n">
-        <v>375.14</v>
+        <v>372.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -569,13 +573,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.19</v>
+        <v>369.48</v>
       </c>
       <c r="C7" t="n">
-        <v>361.55</v>
+        <v>368.36</v>
       </c>
       <c r="D7" t="n">
-        <v>361.85</v>
+        <v>369.99</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -590,12 +594,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.41</v>
+        <v>362.71</v>
       </c>
       <c r="C8" t="n">
-        <v>319.74</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>356.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>371.16</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>L7</t>
@@ -609,13 +615,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.24</v>
+        <v>359.62</v>
       </c>
       <c r="C9" t="n">
-        <v>343.7</v>
+        <v>353.7</v>
       </c>
       <c r="D9" t="n">
-        <v>362.82</v>
+        <v>369.07</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -630,13 +636,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.88</v>
+        <v>358.96</v>
       </c>
       <c r="C10" t="n">
-        <v>359.44</v>
+        <v>351.21</v>
       </c>
       <c r="D10" t="n">
-        <v>374.37</v>
+        <v>368.54</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -651,13 +657,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.71</v>
+        <v>357.31</v>
       </c>
       <c r="C11" t="n">
-        <v>358.53</v>
+        <v>345.35</v>
       </c>
       <c r="D11" t="n">
-        <v>371.33</v>
+        <v>369.51</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -672,13 +678,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>371.28</v>
+        <v>364.53</v>
       </c>
       <c r="C12" t="n">
-        <v>356.39</v>
+        <v>354.51</v>
       </c>
       <c r="D12" t="n">
-        <v>371.17</v>
+        <v>369.92</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -693,13 +699,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>366.96</v>
+        <v>369.98</v>
       </c>
       <c r="C13" t="n">
-        <v>355.68</v>
+        <v>356.87</v>
       </c>
       <c r="D13" t="n">
-        <v>370.53</v>
+        <v>371.01</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -713,12 +719,14 @@
           <t>2001-06-03 22:07:16+00:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>369.98</v>
+      </c>
       <c r="C14" t="n">
-        <v>354.79</v>
+        <v>356.35</v>
       </c>
       <c r="D14" t="n">
-        <v>364.88</v>
+        <v>369.48</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -733,13 +741,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>353.52</v>
+        <v>363.92</v>
       </c>
       <c r="C15" t="n">
-        <v>338.82</v>
+        <v>351.42</v>
       </c>
       <c r="D15" t="n">
-        <v>364.1</v>
+        <v>367.67</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -754,13 +762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352.37</v>
+        <v>352.94</v>
       </c>
       <c r="C16" t="n">
-        <v>340.75</v>
+        <v>344.79</v>
       </c>
       <c r="D16" t="n">
-        <v>357.59</v>
+        <v>362.19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -775,13 +783,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.33</v>
+        <v>361.41</v>
       </c>
       <c r="C17" t="n">
-        <v>358.92</v>
+        <v>346.16</v>
       </c>
       <c r="D17" t="n">
-        <v>368.04</v>
+        <v>363.24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -796,13 +804,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378.95</v>
+        <v>369.88</v>
       </c>
       <c r="C18" t="n">
-        <v>371.85</v>
+        <v>357.17</v>
       </c>
       <c r="D18" t="n">
-        <v>378.83</v>
+        <v>368.15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -817,13 +825,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>374.59</v>
+        <v>371.06</v>
       </c>
       <c r="C19" t="n">
-        <v>368.32</v>
+        <v>359.96</v>
       </c>
       <c r="D19" t="n">
-        <v>372.81</v>
+        <v>369.32</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -859,13 +867,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>374.48</v>
+        <v>374.81</v>
       </c>
       <c r="C21" t="n">
-        <v>373.93</v>
+        <v>369.96</v>
       </c>
       <c r="D21" t="n">
-        <v>369.49</v>
+        <v>372.71</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -880,13 +888,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>378.33</v>
+        <v>375.98</v>
       </c>
       <c r="C22" t="n">
-        <v>371.62</v>
+        <v>370.51</v>
       </c>
       <c r="D22" t="n">
-        <v>373.36</v>
+        <v>372.92</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -901,13 +909,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>363.99</v>
+        <v>372.27</v>
       </c>
       <c r="C23" t="n">
-        <v>359.67</v>
+        <v>368.41</v>
       </c>
       <c r="D23" t="n">
-        <v>363.48</v>
+        <v>368.78</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -942,10 +950,14 @@
           <t>2004-04-08 22:06:49+00:00</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>375.14</v>
+      </c>
       <c r="D25" t="n">
-        <v>379.17</v>
+        <v>381.06</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -960,13 +972,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>370.82</v>
+        <v>377.01</v>
       </c>
       <c r="C26" t="n">
-        <v>362.23</v>
+        <v>368.69</v>
       </c>
       <c r="D26" t="n">
-        <v>364.89</v>
+        <v>375.67</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -981,13 +993,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.45</v>
+        <v>371.49</v>
       </c>
       <c r="C27" t="n">
-        <v>350.35</v>
+        <v>362.57</v>
       </c>
       <c r="D27" t="n">
-        <v>364.63</v>
+        <v>372.91</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1001,12 +1013,14 @@
           <t>2004-06-11 22:06:38+00:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>371.49</v>
+      </c>
       <c r="C28" t="n">
-        <v>373.65</v>
+        <v>365.34</v>
       </c>
       <c r="D28" t="n">
-        <v>377.56</v>
+        <v>373.84</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1020,10 +1034,14 @@
           <t>2004-07-13 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>371.49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>365.34</v>
+      </c>
       <c r="D29" t="n">
-        <v>359.54</v>
+        <v>371.46</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1037,12 +1055,14 @@
           <t>2004-07-29 22:06:27+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>365.63</v>
+      </c>
       <c r="C30" t="n">
-        <v>357.05</v>
+        <v>360.82</v>
       </c>
       <c r="D30" t="n">
-        <v>369.75</v>
+        <v>369.26</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1057,13 +1077,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.54</v>
+        <v>370</v>
       </c>
       <c r="C31" t="n">
-        <v>370.81</v>
+        <v>362.97</v>
       </c>
       <c r="D31" t="n">
-        <v>369.14</v>
+        <v>368.12</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1078,13 +1098,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.96</v>
+        <v>361.65</v>
       </c>
       <c r="C32" t="n">
-        <v>346.05</v>
+        <v>359.58</v>
       </c>
       <c r="D32" t="n">
-        <v>352.57</v>
+        <v>365.53</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1099,12 +1119,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>374.77</v>
+        <v>366.42</v>
       </c>
       <c r="C33" t="n">
-        <v>374.93</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>364.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>365.71</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1118,13 +1140,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.94</v>
+        <v>369.3</v>
       </c>
       <c r="C34" t="n">
-        <v>368.05</v>
+        <v>363.38</v>
       </c>
       <c r="D34" t="n">
-        <v>380.51</v>
+        <v>367.99</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1139,13 +1161,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>385.69</v>
+        <v>372.58</v>
       </c>
       <c r="C35" t="n">
-        <v>375.43</v>
+        <v>365.39</v>
       </c>
       <c r="D35" t="n">
-        <v>379.44</v>
+        <v>370.28</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1159,10 +1181,14 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>372.58</v>
+      </c>
+      <c r="C36" t="n">
+        <v>367.05</v>
+      </c>
       <c r="D36" t="n">
-        <v>349.48</v>
+        <v>366.23</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1177,13 +1203,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.57</v>
+        <v>373.41</v>
       </c>
       <c r="C37" t="n">
-        <v>374.09</v>
+        <v>368.23</v>
       </c>
       <c r="D37" t="n">
-        <v>382.2</v>
+        <v>368.89</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1197,12 +1223,14 @@
           <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>373.41</v>
+      </c>
       <c r="C38" t="n">
-        <v>351.86</v>
+        <v>365.89</v>
       </c>
       <c r="D38" t="n">
-        <v>359.19</v>
+        <v>367.5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1217,13 +1245,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.59</v>
+        <v>375.01</v>
       </c>
       <c r="C39" t="n">
-        <v>375.48</v>
+        <v>367.09</v>
       </c>
       <c r="D39" t="n">
-        <v>373.54</v>
+        <v>368.26</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1238,13 +1266,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>370.24</v>
+        <v>374.41</v>
       </c>
       <c r="C40" t="n">
-        <v>365.41</v>
+        <v>366.9</v>
       </c>
       <c r="D40" t="n">
-        <v>372.36</v>
+        <v>368.71</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1259,13 +1287,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.78</v>
+        <v>379.3</v>
       </c>
       <c r="C41" t="n">
-        <v>376.94</v>
+        <v>369.61</v>
       </c>
       <c r="D41" t="n">
-        <v>381.46</v>
+        <v>372.27</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1279,10 +1307,14 @@
           <t>2005-06-14 22:07:02+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>379.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>369.61</v>
+      </c>
       <c r="D42" t="n">
-        <v>368.52</v>
+        <v>371.86</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1296,12 +1328,14 @@
           <t>2005-06-30 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>379.3</v>
+      </c>
       <c r="C43" t="n">
-        <v>364.5</v>
+        <v>368.97</v>
       </c>
       <c r="D43" t="n">
-        <v>366.75</v>
+        <v>371.34</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1315,12 +1349,14 @@
           <t>2005-08-01 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>378.05</v>
+      </c>
       <c r="C44" t="n">
-        <v>360.38</v>
+        <v>366.95</v>
       </c>
       <c r="D44" t="n">
-        <v>369.36</v>
+        <v>369.21</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1335,13 +1371,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>351.68</v>
+        <v>372.77</v>
       </c>
       <c r="C45" t="n">
-        <v>344.34</v>
+        <v>364.12</v>
       </c>
       <c r="D45" t="n">
-        <v>355.45</v>
+        <v>369.87</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1356,13 +1392,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.71</v>
+        <v>370</v>
       </c>
       <c r="C46" t="n">
-        <v>357.87</v>
+        <v>363.56</v>
       </c>
       <c r="D46" t="n">
-        <v>364.23</v>
+        <v>368.96</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1377,13 +1413,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>364.88</v>
+        <v>369.15</v>
       </c>
       <c r="C47" t="n">
-        <v>353.28</v>
+        <v>362.28</v>
       </c>
       <c r="D47" t="n">
-        <v>372.54</v>
+        <v>369.36</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1398,13 +1434,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>376.65</v>
+        <v>370.22</v>
       </c>
       <c r="C48" t="n">
-        <v>375.78</v>
+        <v>363.78</v>
       </c>
       <c r="D48" t="n">
-        <v>376.2</v>
+        <v>370.04</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1419,13 +1455,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.86</v>
+        <v>367.76</v>
       </c>
       <c r="C49" t="n">
-        <v>356.45</v>
+        <v>361.19</v>
       </c>
       <c r="D49" t="n">
-        <v>367.26</v>
+        <v>369.09</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1439,12 +1475,14 @@
           <t>2005-12-23 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>365.36</v>
+      </c>
       <c r="C50" t="n">
-        <v>375.54</v>
+        <v>361.02</v>
       </c>
       <c r="D50" t="n">
-        <v>383.16</v>
+        <v>369.37</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1459,13 +1497,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>379.94</v>
+        <v>367.79</v>
       </c>
       <c r="C51" t="n">
-        <v>373.55</v>
+        <v>362.15</v>
       </c>
       <c r="D51" t="n">
-        <v>380.43</v>
+        <v>371.08</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1480,13 +1518,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>376.87</v>
+        <v>371.98</v>
       </c>
       <c r="C52" t="n">
-        <v>373.73</v>
+        <v>366.6</v>
       </c>
       <c r="D52" t="n">
-        <v>379.39</v>
+        <v>374.74</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1501,13 +1539,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>372.78</v>
+        <v>372.1</v>
       </c>
       <c r="C53" t="n">
-        <v>360.87</v>
+        <v>365.88</v>
       </c>
       <c r="D53" t="n">
-        <v>367.95</v>
+        <v>373.9</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1522,13 +1560,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>366.02</v>
+        <v>372.43</v>
       </c>
       <c r="C54" t="n">
-        <v>354.8</v>
+        <v>365.5</v>
       </c>
       <c r="D54" t="n">
-        <v>362.6</v>
+        <v>373.69</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1543,13 +1581,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>359.55</v>
+        <v>371.03</v>
       </c>
       <c r="C55" t="n">
-        <v>351.25</v>
+        <v>364.96</v>
       </c>
       <c r="D55" t="n">
-        <v>367.13</v>
+        <v>373.44</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1564,13 +1602,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>356.75</v>
+        <v>368.65</v>
       </c>
       <c r="C56" t="n">
-        <v>350.21</v>
+        <v>360.74</v>
       </c>
       <c r="D56" t="n">
-        <v>367.57</v>
+        <v>370.85</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1584,10 +1622,14 @@
           <t>2006-07-03 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>368.65</v>
+      </c>
+      <c r="C57" t="n">
+        <v>360.74</v>
+      </c>
       <c r="D57" t="n">
-        <v>362.15</v>
+        <v>369.6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1601,12 +1643,14 @@
           <t>2006-07-19 22:07:20+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>366.39</v>
+      </c>
       <c r="C58" t="n">
-        <v>346.42</v>
+        <v>356.21</v>
       </c>
       <c r="D58" t="n">
-        <v>356.39</v>
+        <v>366.17</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1621,13 +1665,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>366.76</v>
+        <v>366.45</v>
       </c>
       <c r="C59" t="n">
-        <v>361.19</v>
+        <v>356.92</v>
       </c>
       <c r="D59" t="n">
-        <v>374.08</v>
+        <v>367.16</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1642,13 +1686,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>388.07</v>
+        <v>367.78</v>
       </c>
       <c r="C60" t="n">
-        <v>383.88</v>
+        <v>358.59</v>
       </c>
       <c r="D60" t="n">
-        <v>385.36</v>
+        <v>368.78</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1662,12 +1706,14 @@
           <t>2006-12-02 22:12:34+00:00</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>367.78</v>
+      </c>
       <c r="C61" t="n">
-        <v>332.47</v>
+        <v>354.24</v>
       </c>
       <c r="D61" t="n">
-        <v>330.63</v>
+        <v>363.33</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1682,10 +1728,14 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>400.29</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+        <v>374.28</v>
+      </c>
+      <c r="C62" t="n">
+        <v>354.24</v>
+      </c>
+      <c r="D62" t="n">
+        <v>363.33</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1699,12 +1749,14 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>359.07</v>
+        <v>382.48</v>
       </c>
       <c r="C63" t="n">
-        <v>352.66</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>356.34</v>
+      </c>
+      <c r="D63" t="n">
+        <v>358</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1717,12 +1769,14 @@
           <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>382.48</v>
+      </c>
       <c r="C64" t="n">
-        <v>355.17</v>
+        <v>356.05</v>
       </c>
       <c r="D64" t="n">
-        <v>356.91</v>
+        <v>357.63</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1737,12 +1791,14 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>387.34</v>
+        <v>383.69</v>
       </c>
       <c r="C65" t="n">
-        <v>382.66</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>361.37</v>
+      </c>
+      <c r="D65" t="n">
+        <v>357.63</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1755,12 +1811,14 @@
           <t>2007-07-22 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>373.2</v>
+      </c>
       <c r="C66" t="n">
-        <v>358.45</v>
+        <v>362.24</v>
       </c>
       <c r="D66" t="n">
-        <v>368.48</v>
+        <v>362.7</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1775,13 +1833,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>357.84</v>
+        <v>368.08</v>
       </c>
       <c r="C67" t="n">
-        <v>355.54</v>
+        <v>360.9</v>
       </c>
       <c r="D67" t="n">
-        <v>366.95</v>
+        <v>364.11</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1795,12 +1853,14 @@
           <t>2007-09-24 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>372.59</v>
+      </c>
       <c r="C68" t="n">
-        <v>361.66</v>
+        <v>364.58</v>
       </c>
       <c r="D68" t="n">
-        <v>351.67</v>
+        <v>362.37</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1815,13 +1875,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>348.88</v>
+        <v>364.69</v>
       </c>
       <c r="C69" t="n">
-        <v>339.61</v>
+        <v>359.58</v>
       </c>
       <c r="D69" t="n">
-        <v>366</v>
+        <v>363.27</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1835,10 +1895,14 @@
           <t>2007-10-10 22:07:19+00:00</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>364.69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>359.58</v>
+      </c>
       <c r="D70" t="n">
-        <v>356.23</v>
+        <v>361.87</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1853,13 +1917,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>365.24</v>
+        <v>357.32</v>
       </c>
       <c r="C71" t="n">
-        <v>349.04</v>
+        <v>352.86</v>
       </c>
       <c r="D71" t="n">
-        <v>368.79</v>
+        <v>363.02</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1874,12 +1938,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>372.04</v>
+        <v>361</v>
       </c>
       <c r="C72" t="n">
-        <v>355.42</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>353.29</v>
+      </c>
+      <c r="D72" t="n">
+        <v>363.02</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1893,13 +1959,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>355.5</v>
+        <v>360.41</v>
       </c>
       <c r="C73" t="n">
-        <v>344.71</v>
+        <v>350.09</v>
       </c>
       <c r="D73" t="n">
-        <v>359.35</v>
+        <v>360.41</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1914,13 +1980,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>366.05</v>
+        <v>360.77</v>
       </c>
       <c r="C74" t="n">
-        <v>356.36</v>
+        <v>350.53</v>
       </c>
       <c r="D74" t="n">
-        <v>365.41</v>
+        <v>362.38</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1934,10 +2000,14 @@
           <t>2008-09-10 22:06:32+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>360.77</v>
+      </c>
+      <c r="C75" t="n">
+        <v>350.53</v>
+      </c>
       <c r="D75" t="n">
-        <v>359.87</v>
+        <v>361.54</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1952,11 +2022,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>377.97</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>372.01</v>
+      </c>
+      <c r="C76" t="n">
+        <v>356.36</v>
+      </c>
       <c r="D76" t="n">
-        <v>375.61</v>
+        <v>366.96</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1971,13 +2043,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>365.73</v>
+        <v>369.92</v>
       </c>
       <c r="C77" t="n">
-        <v>355.33</v>
+        <v>355.85</v>
       </c>
       <c r="D77" t="n">
-        <v>363.43</v>
+        <v>366.08</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1992,10 +2064,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>368.5</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+        <v>369.56</v>
+      </c>
+      <c r="C78" t="n">
+        <v>355.85</v>
+      </c>
+      <c r="D78" t="n">
+        <v>366.08</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2009,13 +2085,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>353.25</v>
+        <v>366.3</v>
       </c>
       <c r="C79" t="n">
-        <v>346.94</v>
+        <v>352.88</v>
       </c>
       <c r="D79" t="n">
-        <v>355.95</v>
+        <v>364.05</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2030,13 +2106,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>375.03</v>
+        <v>367.76</v>
       </c>
       <c r="C80" t="n">
-        <v>355.63</v>
+        <v>353.56</v>
       </c>
       <c r="D80" t="n">
-        <v>368.66</v>
+        <v>364.82</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2051,13 +2127,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>344.24</v>
+        <v>364.4</v>
       </c>
       <c r="C81" t="n">
-        <v>327.45</v>
+        <v>348.34</v>
       </c>
       <c r="D81" t="n">
-        <v>351.52</v>
+        <v>362.92</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2072,13 +2148,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>380.66</v>
+        <v>366.43</v>
       </c>
       <c r="C82" t="n">
-        <v>365.28</v>
+        <v>351.16</v>
       </c>
       <c r="D82" t="n">
-        <v>377.5</v>
+        <v>364.74</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2093,12 +2169,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>363.48</v>
+        <v>366.11</v>
       </c>
       <c r="C83" t="n">
-        <v>351.88</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>350.42</v>
+      </c>
+      <c r="D83" t="n">
+        <v>364.65</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2112,13 +2190,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>371.62</v>
+        <v>366.72</v>
       </c>
       <c r="C84" t="n">
-        <v>369.08</v>
+        <v>353.08</v>
       </c>
       <c r="D84" t="n">
-        <v>375.51</v>
+        <v>366.88</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2132,12 +2210,14 @@
           <t>2009-06-09 22:08:01+00:00</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>365</v>
+      </c>
       <c r="C85" t="n">
-        <v>347.34</v>
+        <v>352.21</v>
       </c>
       <c r="D85" t="n">
-        <v>361.24</v>
+        <v>366.44</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2152,13 +2232,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>352.7</v>
+        <v>362.16</v>
       </c>
       <c r="C86" t="n">
-        <v>346.71</v>
+        <v>354.38</v>
       </c>
       <c r="D86" t="n">
-        <v>360.75</v>
+        <v>365.83</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2173,13 +2253,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>357.56</v>
+        <v>355.13</v>
       </c>
       <c r="C87" t="n">
-        <v>346.7</v>
+        <v>346.92</v>
       </c>
       <c r="D87" t="n">
-        <v>367.92</v>
+        <v>363.3</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2194,13 +2274,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>373.94</v>
+        <v>361.4</v>
       </c>
       <c r="C88" t="n">
-        <v>365.8</v>
+        <v>353.07</v>
       </c>
       <c r="D88" t="n">
-        <v>374.65</v>
+        <v>367.77</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2215,13 +2295,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>355.54</v>
+        <v>359.94</v>
       </c>
       <c r="C89" t="n">
-        <v>351.72</v>
+        <v>352.73</v>
       </c>
       <c r="D89" t="n">
-        <v>361.92</v>
+        <v>366.31</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2236,13 +2316,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>375.51</v>
+        <v>363.05</v>
       </c>
       <c r="C90" t="n">
-        <v>369.05</v>
+        <v>356</v>
       </c>
       <c r="D90" t="n">
-        <v>376.67</v>
+        <v>368.38</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2257,13 +2337,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>375.42</v>
+        <v>365.11</v>
       </c>
       <c r="C91" t="n">
-        <v>362.2</v>
+        <v>357.03</v>
       </c>
       <c r="D91" t="n">
-        <v>374.25</v>
+        <v>369.36</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2278,13 +2358,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>369.75</v>
+        <v>365.77</v>
       </c>
       <c r="C92" t="n">
-        <v>365.11</v>
+        <v>358.18</v>
       </c>
       <c r="D92" t="n">
-        <v>372.6</v>
+        <v>369.82</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2299,13 +2379,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>376.61</v>
+        <v>369.19</v>
       </c>
       <c r="C93" t="n">
-        <v>367.62</v>
+        <v>361.17</v>
       </c>
       <c r="D93" t="n">
-        <v>377.55</v>
+        <v>372.22</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2320,13 +2400,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>364.43</v>
+        <v>368.6</v>
       </c>
       <c r="C94" t="n">
-        <v>367.73</v>
+        <v>361.99</v>
       </c>
       <c r="D94" t="n">
-        <v>371.13</v>
+        <v>372.09</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2341,13 +2421,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>370.88</v>
+        <v>370.26</v>
       </c>
       <c r="C95" t="n">
-        <v>362.1</v>
+        <v>363.92</v>
       </c>
       <c r="D95" t="n">
-        <v>369.54</v>
+        <v>372.29</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2362,11 +2442,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>348.34</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>367.82</v>
+      </c>
+      <c r="C96" t="n">
+        <v>363.92</v>
+      </c>
       <c r="D96" t="n">
-        <v>370.97</v>
+        <v>372.14</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2381,10 +2463,14 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>385.46</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+        <v>367.28</v>
+      </c>
+      <c r="C97" t="n">
+        <v>364.92</v>
+      </c>
+      <c r="D97" t="n">
+        <v>370.55</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2398,13 +2484,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>367.15</v>
+        <v>366.98</v>
       </c>
       <c r="C98" t="n">
         <v>359.72</v>
       </c>
       <c r="D98" t="n">
-        <v>376.04</v>
+        <v>373.5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2419,13 +2505,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>363.48</v>
+        <v>372.03</v>
       </c>
       <c r="C99" t="n">
-        <v>363.55</v>
+        <v>361.63</v>
       </c>
       <c r="D99" t="n">
-        <v>367.98</v>
+        <v>372.01</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2439,12 +2525,14 @@
           <t>2011-02-23 22:11:05+00:00</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>372.03</v>
+      </c>
       <c r="C100" t="n">
-        <v>356.32</v>
+        <v>359.86</v>
       </c>
       <c r="D100" t="n">
-        <v>362.7</v>
+        <v>368.91</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2458,10 +2546,14 @@
           <t>2011-03-11 22:11:09+00:00</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>372.03</v>
+      </c>
+      <c r="C101" t="n">
+        <v>359.86</v>
+      </c>
       <c r="D101" t="n">
-        <v>377.08</v>
+        <v>370.95</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2476,13 +2568,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>367.87</v>
+        <v>366.17</v>
       </c>
       <c r="C102" t="n">
-        <v>370.79</v>
+        <v>362.6</v>
       </c>
       <c r="D102" t="n">
-        <v>376.4</v>
+        <v>372.04</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2497,13 +2589,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>358.2</v>
+        <v>364.18</v>
       </c>
       <c r="C103" t="n">
-        <v>352.19</v>
+        <v>360.51</v>
       </c>
       <c r="D103" t="n">
-        <v>363.85</v>
+        <v>370.68</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2518,12 +2610,14 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>359.26</v>
+        <v>361.78</v>
       </c>
       <c r="C104" t="n">
-        <v>355.23</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
+        <v>358.63</v>
+      </c>
+      <c r="D104" t="n">
+        <v>370.01</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2536,10 +2630,14 @@
           <t>2011-08-02 22:11:02+00:00</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>361.78</v>
+      </c>
+      <c r="C105" t="n">
+        <v>358.63</v>
+      </c>
       <c r="D105" t="n">
-        <v>353.57</v>
+        <v>366.72</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2554,10 +2652,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>366.11</v>
+        <v>362.86</v>
       </c>
       <c r="C106" t="n">
-        <v>352</v>
+        <v>357.31</v>
       </c>
       <c r="D106" t="n">
         <v>366.72</v>
@@ -2575,11 +2673,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>367.41</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>362.75</v>
+      </c>
+      <c r="C107" t="n">
+        <v>353.14</v>
+      </c>
       <c r="D107" t="n">
-        <v>393.78</v>
+        <v>369.48</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2594,13 +2694,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>365.98</v>
+        <v>366.5</v>
       </c>
       <c r="C108" t="n">
-        <v>364.07</v>
+        <v>358.03</v>
       </c>
       <c r="D108" t="n">
-        <v>372.82</v>
+        <v>371.72</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2615,10 +2715,14 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>363.39</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+        <v>365.72</v>
+      </c>
+      <c r="C109" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="D109" t="n">
+        <v>377.77</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2632,13 +2736,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>359.92</v>
+        <v>364.18</v>
       </c>
       <c r="C110" t="n">
-        <v>354.11</v>
+        <v>359.09</v>
       </c>
       <c r="D110" t="n">
-        <v>362.88</v>
+        <v>376.49</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2653,13 +2757,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>363.57</v>
+        <v>363.21</v>
       </c>
       <c r="C111" t="n">
-        <v>357.05</v>
+        <v>358.41</v>
       </c>
       <c r="D111" t="n">
-        <v>369.77</v>
+        <v>368.49</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2674,12 +2778,14 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>365.3</v>
+        <v>363.63</v>
       </c>
       <c r="C112" t="n">
-        <v>359.96</v>
-      </c>
-      <c r="D112" t="inlineStr"/>
+        <v>358.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>368.49</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2693,10 +2799,14 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>365.38</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+        <v>363.92</v>
+      </c>
+      <c r="C113" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>368.49</v>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2710,13 +2820,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>368.96</v>
+        <v>365.8</v>
       </c>
       <c r="C114" t="n">
-        <v>360.15</v>
+        <v>359.05</v>
       </c>
       <c r="D114" t="n">
-        <v>370.25</v>
+        <v>370.01</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2731,13 +2841,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>375.63</v>
+        <v>372.29</v>
       </c>
       <c r="C115" t="n">
-        <v>364.24</v>
+        <v>362.19</v>
       </c>
       <c r="D115" t="n">
-        <v>374.49</v>
+        <v>372.37</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2751,10 +2861,14 @@
           <t>2013-01-27 22:13:47+00:00</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>372.29</v>
+      </c>
+      <c r="C116" t="n">
+        <v>362.19</v>
+      </c>
       <c r="D116" t="n">
-        <v>350.1</v>
+        <v>364.95</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2768,10 +2882,14 @@
           <t>2013-03-16 22:13:42+00:00</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>372.29</v>
+      </c>
+      <c r="C117" t="n">
+        <v>362.19</v>
+      </c>
       <c r="D117" t="n">
-        <v>367.69</v>
+        <v>365.63</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2786,13 +2904,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>380.54</v>
+        <v>378.09</v>
       </c>
       <c r="C118" t="n">
-        <v>367.92</v>
+        <v>366.08</v>
       </c>
       <c r="D118" t="n">
-        <v>357.95</v>
+        <v>362.56</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2807,13 +2925,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>363.74</v>
+        <v>373.3</v>
       </c>
       <c r="C119" t="n">
-        <v>357.43</v>
+        <v>363.2</v>
       </c>
       <c r="D119" t="n">
-        <v>363.77</v>
+        <v>362.8</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2828,13 +2946,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>368.73</v>
+        <v>372.16</v>
       </c>
       <c r="C120" t="n">
-        <v>366.62</v>
+        <v>364.05</v>
       </c>
       <c r="D120" t="n">
-        <v>374.91</v>
+        <v>364.82</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2849,13 +2967,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>347.61</v>
+        <v>367.25</v>
       </c>
       <c r="C121" t="n">
-        <v>344.8</v>
+        <v>360.2</v>
       </c>
       <c r="D121" t="n">
-        <v>355.14</v>
+        <v>363.44</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2870,13 +2988,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>358.94</v>
+        <v>365.87</v>
       </c>
       <c r="C122" t="n">
-        <v>360.07</v>
+        <v>360.18</v>
       </c>
       <c r="D122" t="n">
-        <v>369.05</v>
+        <v>364.14</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2891,13 +3009,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>361.73</v>
+        <v>365.27</v>
       </c>
       <c r="C123" t="n">
-        <v>352.78</v>
+        <v>359.12</v>
       </c>
       <c r="D123" t="n">
-        <v>362.98</v>
+        <v>364.01</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2912,12 +3030,14 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>353.38</v>
+        <v>363.79</v>
       </c>
       <c r="C124" t="n">
-        <v>353.02</v>
-      </c>
-      <c r="D124" t="inlineStr"/>
+        <v>358.36</v>
+      </c>
+      <c r="D124" t="n">
+        <v>364.01</v>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2931,13 +3051,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>364.68</v>
+        <v>362.42</v>
       </c>
       <c r="C125" t="n">
-        <v>350.76</v>
+        <v>356.68</v>
       </c>
       <c r="D125" t="n">
-        <v>363.34</v>
+        <v>362.77</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2952,13 +3072,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>364.73</v>
+        <v>362.68</v>
       </c>
       <c r="C126" t="n">
-        <v>360.23</v>
+        <v>357.07</v>
       </c>
       <c r="D126" t="n">
-        <v>373.81</v>
+        <v>365.4</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2973,13 +3093,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>360.62</v>
+        <v>362.47</v>
       </c>
       <c r="C127" t="n">
-        <v>353.1</v>
+        <v>356.67</v>
       </c>
       <c r="D127" t="n">
-        <v>369.74</v>
+        <v>365.84</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2994,13 +3114,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>378.33</v>
+        <v>367.09</v>
       </c>
       <c r="C128" t="n">
-        <v>362.06</v>
+        <v>356.54</v>
       </c>
       <c r="D128" t="n">
-        <v>372.43</v>
+        <v>369.83</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3015,13 +3135,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>367.15</v>
+        <v>368.7</v>
       </c>
       <c r="C129" t="n">
-        <v>356.78</v>
+        <v>357.31</v>
       </c>
       <c r="D129" t="n">
-        <v>363.99</v>
+        <v>368.72</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3036,13 +3156,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>364.13</v>
+        <v>369.87</v>
       </c>
       <c r="C130" t="n">
-        <v>366.19</v>
+        <v>361.68</v>
       </c>
       <c r="D130" t="n">
-        <v>371.44</v>
+        <v>369.29</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3057,13 +3177,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>361.2</v>
+        <v>367.7</v>
       </c>
       <c r="C131" t="n">
-        <v>355.09</v>
+        <v>360.03</v>
       </c>
       <c r="D131" t="n">
-        <v>364.23</v>
+        <v>368.02</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3078,13 +3198,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>367.47</v>
+        <v>367.66</v>
       </c>
       <c r="C132" t="n">
-        <v>360.99</v>
+        <v>360.22</v>
       </c>
       <c r="D132" t="n">
-        <v>373.69</v>
+        <v>369.16</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3099,13 +3219,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>351.41</v>
+        <v>364.95</v>
       </c>
       <c r="C133" t="n">
-        <v>354.25</v>
+        <v>359.23</v>
       </c>
       <c r="D133" t="n">
-        <v>364.67</v>
+        <v>368.41</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3120,13 +3240,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>374.39</v>
+        <v>366.3</v>
       </c>
       <c r="C134" t="n">
-        <v>362.38</v>
+        <v>359.68</v>
       </c>
       <c r="D134" t="n">
-        <v>376.22</v>
+        <v>369.52</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3141,13 +3261,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>340.75</v>
+        <v>360.93</v>
       </c>
       <c r="C135" t="n">
-        <v>331.91</v>
+        <v>355.37</v>
       </c>
       <c r="D135" t="n">
-        <v>362.15</v>
+        <v>368.06</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3162,13 +3282,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>351.93</v>
+        <v>358.75</v>
       </c>
       <c r="C136" t="n">
-        <v>352.38</v>
+        <v>354.74</v>
       </c>
       <c r="D136" t="n">
-        <v>365.72</v>
+        <v>368.3</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3183,13 +3303,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>362.05</v>
+        <v>356.99</v>
       </c>
       <c r="C137" t="n">
-        <v>349.68</v>
+        <v>351.03</v>
       </c>
       <c r="D137" t="n">
-        <v>360.46</v>
+        <v>363.09</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3204,13 +3324,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>362.24</v>
+        <v>362.14</v>
       </c>
       <c r="C138" t="n">
-        <v>350.62</v>
+        <v>350.15</v>
       </c>
       <c r="D138" t="n">
-        <v>361.03</v>
+        <v>360.75</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3225,13 +3345,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>380.55</v>
+        <v>368.28</v>
       </c>
       <c r="C139" t="n">
-        <v>366.86</v>
+        <v>355.72</v>
       </c>
       <c r="D139" t="n">
-        <v>375.93</v>
+        <v>365.81</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3246,13 +3366,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>376.34</v>
+        <v>370.3</v>
       </c>
       <c r="C140" t="n">
-        <v>367.21</v>
+        <v>358.59</v>
       </c>
       <c r="D140" t="n">
-        <v>379.7</v>
+        <v>369.28</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3267,13 +3387,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>370.08</v>
+        <v>372.3</v>
       </c>
       <c r="C141" t="n">
-        <v>356.57</v>
+        <v>360.31</v>
       </c>
       <c r="D141" t="n">
-        <v>367.2</v>
+        <v>370.96</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3288,13 +3408,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>374.53</v>
+        <v>372.75</v>
       </c>
       <c r="C142" t="n">
-        <v>369.95</v>
+        <v>362.24</v>
       </c>
       <c r="D142" t="n">
-        <v>377.13</v>
+        <v>372.2</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3309,13 +3429,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>373</v>
+        <v>372.79</v>
       </c>
       <c r="C143" t="n">
-        <v>366.08</v>
+        <v>362.88</v>
       </c>
       <c r="D143" t="n">
-        <v>371.72</v>
+        <v>372.12</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3330,13 +3450,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>380.46</v>
+        <v>375.83</v>
       </c>
       <c r="C144" t="n">
-        <v>377.88</v>
+        <v>367.43</v>
       </c>
       <c r="D144" t="n">
-        <v>376.63</v>
+        <v>374.72</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3351,13 +3471,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>383.44</v>
+        <v>376.91</v>
       </c>
       <c r="C145" t="n">
-        <v>367.27</v>
+        <v>367.4</v>
       </c>
       <c r="D145" t="n">
-        <v>374.99</v>
+        <v>374.76</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3372,13 +3492,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>381.6</v>
+        <v>377.06</v>
       </c>
       <c r="C146" t="n">
-        <v>363.39</v>
+        <v>366.91</v>
       </c>
       <c r="D146" t="n">
-        <v>374.32</v>
+        <v>374.53</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3393,13 +3513,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>363.96</v>
+        <v>376.49</v>
       </c>
       <c r="C147" t="n">
-        <v>353.35</v>
+        <v>365.59</v>
       </c>
       <c r="D147" t="n">
-        <v>367.41</v>
+        <v>373.01</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3414,13 +3534,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>364.13</v>
+        <v>364.04</v>
       </c>
       <c r="C148" t="n">
-        <v>361.22</v>
+        <v>357.29</v>
       </c>
       <c r="D148" t="n">
-        <v>368.83</v>
+        <v>368.12</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3435,13 +3555,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>375.15</v>
+        <v>367.75</v>
       </c>
       <c r="C149" t="n">
-        <v>370.03</v>
+        <v>361.53</v>
       </c>
       <c r="D149" t="n">
-        <v>380.71</v>
+        <v>372.32</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3456,13 +3576,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>387.08</v>
+        <v>375.45</v>
       </c>
       <c r="C150" t="n">
-        <v>371.95</v>
+        <v>367.73</v>
       </c>
       <c r="D150" t="n">
-        <v>383.78</v>
+        <v>377.77</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3477,13 +3597,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>380.91</v>
+        <v>376.82</v>
       </c>
       <c r="C151" t="n">
-        <v>373.97</v>
+        <v>369.29</v>
       </c>
       <c r="D151" t="n">
-        <v>386.32</v>
+        <v>379.91</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3497,10 +3617,14 @@
           <t>2017-04-20 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>384</v>
+      </c>
+      <c r="C152" t="n">
+        <v>372.96</v>
+      </c>
       <c r="D152" t="n">
-        <v>380.12</v>
+        <v>383.41</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3515,13 +3639,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>370.69</v>
+        <v>379.56</v>
       </c>
       <c r="C153" t="n">
-        <v>371.08</v>
+        <v>372.33</v>
       </c>
       <c r="D153" t="n">
-        <v>379.58</v>
+        <v>382.45</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3535,12 +3659,14 @@
           <t>2017-07-09 22:17:23+00:00</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>379.56</v>
+      </c>
       <c r="C154" t="n">
-        <v>360.41</v>
+        <v>369.35</v>
       </c>
       <c r="D154" t="n">
-        <v>373.85</v>
+        <v>380.73</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3555,13 +3681,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>381.45</v>
+        <v>377.68</v>
       </c>
       <c r="C155" t="n">
-        <v>362.84</v>
+        <v>367.07</v>
       </c>
       <c r="D155" t="n">
-        <v>377.2</v>
+        <v>379.41</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3576,13 +3702,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>364.9</v>
+        <v>372.35</v>
       </c>
       <c r="C156" t="n">
-        <v>364.08</v>
+        <v>364.6</v>
       </c>
       <c r="D156" t="n">
-        <v>372.54</v>
+        <v>375.79</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3597,13 +3723,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>362.5</v>
+        <v>369.88</v>
       </c>
       <c r="C157" t="n">
-        <v>361.26</v>
+        <v>363.93</v>
       </c>
       <c r="D157" t="n">
-        <v>367.83</v>
+        <v>374.2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3618,10 +3744,14 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>379.27</v>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+        <v>368.89</v>
+      </c>
+      <c r="C158" t="n">
+        <v>362.67</v>
+      </c>
+      <c r="D158" t="n">
+        <v>370.18</v>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3635,13 +3765,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>397.56</v>
+        <v>376.06</v>
       </c>
       <c r="C159" t="n">
-        <v>360.05</v>
+        <v>361.8</v>
       </c>
       <c r="D159" t="n">
-        <v>372.9</v>
+        <v>371.09</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3656,13 +3786,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>370.97</v>
+        <v>375.04</v>
       </c>
       <c r="C160" t="n">
-        <v>370.82</v>
+        <v>364.05</v>
       </c>
       <c r="D160" t="n">
-        <v>375.61</v>
+        <v>372.22</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3677,13 +3807,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>372.75</v>
+        <v>376.61</v>
       </c>
       <c r="C161" t="n">
-        <v>371.49</v>
+        <v>365.91</v>
       </c>
       <c r="D161" t="n">
-        <v>375.86</v>
+        <v>373.05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3698,13 +3828,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>364.98</v>
+        <v>377.11</v>
       </c>
       <c r="C162" t="n">
-        <v>361.09</v>
+        <v>365.86</v>
       </c>
       <c r="D162" t="n">
-        <v>365.6</v>
+        <v>372.49</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3719,13 +3849,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>368.79</v>
+        <v>375.72</v>
       </c>
       <c r="C163" t="n">
-        <v>362.31</v>
+        <v>365.15</v>
       </c>
       <c r="D163" t="n">
-        <v>368.42</v>
+        <v>371.68</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3740,13 +3870,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>375.78</v>
+        <v>369.85</v>
       </c>
       <c r="C164" t="n">
-        <v>372.58</v>
+        <v>365.33</v>
       </c>
       <c r="D164" t="n">
-        <v>375.62</v>
+        <v>369.88</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3761,13 +3891,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>371.21</v>
+        <v>370.19</v>
       </c>
       <c r="C165" t="n">
-        <v>368.45</v>
+        <v>366.11</v>
       </c>
       <c r="D165" t="n">
-        <v>374.18</v>
+        <v>370.96</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3782,13 +3912,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>376.91</v>
+        <v>373.17</v>
       </c>
       <c r="C166" t="n">
-        <v>375.32</v>
+        <v>369.66</v>
       </c>
       <c r="D166" t="n">
-        <v>375.24</v>
+        <v>373.37</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3803,13 +3933,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>381.17</v>
+        <v>376.27</v>
       </c>
       <c r="C167" t="n">
-        <v>374.05</v>
+        <v>372.6</v>
       </c>
       <c r="D167" t="n">
-        <v>385.65</v>
+        <v>377.67</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3824,13 +3954,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>381.29</v>
+        <v>377.27</v>
       </c>
       <c r="C168" t="n">
-        <v>372.7</v>
+        <v>372.62</v>
       </c>
       <c r="D168" t="n">
-        <v>387.83</v>
+        <v>379.7</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3845,10 +3975,14 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>380.74</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+        <v>377.85</v>
+      </c>
+      <c r="C169" t="n">
+        <v>372.62</v>
+      </c>
+      <c r="D169" t="n">
+        <v>379.7</v>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3862,13 +3996,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>377.35</v>
+        <v>378.11</v>
       </c>
       <c r="C170" t="n">
-        <v>374.49</v>
+        <v>373</v>
       </c>
       <c r="D170" t="n">
-        <v>379.84</v>
+        <v>380.55</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3883,13 +4017,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>376.38</v>
+        <v>376.87</v>
       </c>
       <c r="C171" t="n">
-        <v>374.8</v>
+        <v>374.64</v>
       </c>
       <c r="D171" t="n">
-        <v>378.73</v>
+        <v>379.28</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3904,13 +4038,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375</v>
+        <v>376.24</v>
       </c>
       <c r="C172" t="n">
-        <v>372.73</v>
+        <v>374.01</v>
       </c>
       <c r="D172" t="n">
-        <v>377.39</v>
+        <v>378.65</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3925,13 +4059,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>363.35</v>
+        <v>371.58</v>
       </c>
       <c r="C173" t="n">
-        <v>366.42</v>
+        <v>371.32</v>
       </c>
       <c r="D173" t="n">
-        <v>372.51</v>
+        <v>376.21</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3946,13 +4080,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>387.56</v>
+        <v>375.57</v>
       </c>
       <c r="C174" t="n">
-        <v>381.84</v>
+        <v>373.95</v>
       </c>
       <c r="D174" t="n">
-        <v>386.46</v>
+        <v>378.77</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3967,13 +4101,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>391.25</v>
+        <v>378.71</v>
       </c>
       <c r="C175" t="n">
-        <v>387.54</v>
+        <v>376.67</v>
       </c>
       <c r="D175" t="n">
-        <v>391.7</v>
+        <v>381.36</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3988,13 +4122,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>387.9</v>
+        <v>380.24</v>
       </c>
       <c r="C176" t="n">
-        <v>390.12</v>
+        <v>378.91</v>
       </c>
       <c r="D176" t="n">
-        <v>383.44</v>
+        <v>381.7</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4009,13 +4143,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>393.22</v>
+        <v>382.09</v>
       </c>
       <c r="C177" t="n">
-        <v>390.2</v>
+        <v>380.52</v>
       </c>
       <c r="D177" t="n">
-        <v>386.44</v>
+        <v>382.38</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4030,13 +4164,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>365.39</v>
+        <v>385.06</v>
       </c>
       <c r="C178" t="n">
-        <v>369.46</v>
+        <v>383.83</v>
       </c>
       <c r="D178" t="n">
-        <v>378.85</v>
+        <v>385.38</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4051,13 +4185,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>370.48</v>
+        <v>379.25</v>
       </c>
       <c r="C179" t="n">
-        <v>356.73</v>
+        <v>376.63</v>
       </c>
       <c r="D179" t="n">
-        <v>366.99</v>
+        <v>378.93</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4072,13 +4206,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>373.15</v>
+        <v>375.56</v>
       </c>
       <c r="C180" t="n">
-        <v>361.1</v>
+        <v>369.37</v>
       </c>
       <c r="D180" t="n">
-        <v>369.82</v>
+        <v>375.52</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4093,13 +4227,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>368.95</v>
+        <v>370.86</v>
       </c>
       <c r="C181" t="n">
-        <v>370.83</v>
+        <v>362.89</v>
       </c>
       <c r="D181" t="n">
-        <v>380.06</v>
+        <v>372.29</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4114,13 +4248,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>378.99</v>
+        <v>373.97</v>
       </c>
       <c r="C182" t="n">
-        <v>380.08</v>
+        <v>375.45</v>
       </c>
       <c r="D182" t="n">
-        <v>378.68</v>
+        <v>379.37</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4135,13 +4269,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>345.06</v>
+        <v>364.33</v>
       </c>
       <c r="C183" t="n">
-        <v>339.45</v>
+        <v>363.45</v>
       </c>
       <c r="D183" t="n">
-        <v>356.17</v>
+        <v>371.64</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4156,13 +4290,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>355.54</v>
+        <v>359.86</v>
       </c>
       <c r="C184" t="n">
-        <v>349.96</v>
+        <v>356.5</v>
       </c>
       <c r="D184" t="n">
-        <v>365.24</v>
+        <v>366.7</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4177,13 +4311,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>374.8</v>
+        <v>358.47</v>
       </c>
       <c r="C185" t="n">
-        <v>355.81</v>
+        <v>348.41</v>
       </c>
       <c r="D185" t="n">
-        <v>365.89</v>
+        <v>362.43</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4198,13 +4332,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>368.35</v>
+        <v>360.94</v>
       </c>
       <c r="C186" t="n">
-        <v>354.14</v>
+        <v>349.84</v>
       </c>
       <c r="D186" t="n">
-        <v>364.66</v>
+        <v>362.99</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4219,13 +4353,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>367.13</v>
+        <v>362.18</v>
       </c>
       <c r="C187" t="n">
-        <v>357.78</v>
+        <v>351.43</v>
       </c>
       <c r="D187" t="n">
-        <v>371.92</v>
+        <v>364.78</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4240,13 +4374,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>355.38</v>
+        <v>364.24</v>
       </c>
       <c r="C188" t="n">
-        <v>345.39</v>
+        <v>352.62</v>
       </c>
       <c r="D188" t="n">
-        <v>357.78</v>
+        <v>365.1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4261,13 +4395,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>356.28</v>
+        <v>362.91</v>
       </c>
       <c r="C189" t="n">
-        <v>355.49</v>
+        <v>353.09</v>
       </c>
       <c r="D189" t="n">
-        <v>355.53</v>
+        <v>363.5</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4282,13 +4416,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>344.18</v>
+        <v>361.02</v>
       </c>
       <c r="C190" t="n">
-        <v>337.69</v>
+        <v>351.05</v>
       </c>
       <c r="D190" t="n">
-        <v>347.8</v>
+        <v>360.6</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4303,13 +4437,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>342.09</v>
+        <v>358.32</v>
       </c>
       <c r="C191" t="n">
-        <v>346.74</v>
+        <v>350.43</v>
       </c>
       <c r="D191" t="n">
-        <v>351.39</v>
+        <v>359.28</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4324,13 +4458,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>364.34</v>
+        <v>356.82</v>
       </c>
       <c r="C192" t="n">
-        <v>358.64</v>
+        <v>350.84</v>
       </c>
       <c r="D192" t="n">
-        <v>371.24</v>
+        <v>360.05</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4344,12 +4478,14 @@
           <t>2022-06-05 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>354.9</v>
+      </c>
       <c r="C193" t="n">
-        <v>350.51</v>
+        <v>350.32</v>
       </c>
       <c r="D193" t="n">
-        <v>366.55</v>
+        <v>360.32</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4364,13 +4500,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>355.89</v>
+        <v>353.03</v>
       </c>
       <c r="C194" t="n">
-        <v>343.04</v>
+        <v>348.21</v>
       </c>
       <c r="D194" t="n">
-        <v>364.62</v>
+        <v>359.27</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4385,13 +4521,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>341.14</v>
+        <v>350.65</v>
       </c>
       <c r="C195" t="n">
-        <v>341.61</v>
+        <v>347.67</v>
       </c>
       <c r="D195" t="n">
-        <v>351.17</v>
+        <v>358.33</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4406,13 +4542,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>348.01</v>
+        <v>349.28</v>
       </c>
       <c r="C196" t="n">
-        <v>347.23</v>
+        <v>346.49</v>
       </c>
       <c r="D196" t="n">
-        <v>359.46</v>
+        <v>358.89</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4427,13 +4563,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>359.98</v>
+        <v>351.91</v>
       </c>
       <c r="C197" t="n">
-        <v>350.32</v>
+        <v>348.3</v>
       </c>
       <c r="D197" t="n">
-        <v>365.88</v>
+        <v>361.47</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4448,13 +4584,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>343.04</v>
+        <v>348.04</v>
       </c>
       <c r="C198" t="n">
-        <v>342.32</v>
+        <v>345.37</v>
       </c>
       <c r="D198" t="n">
-        <v>351.42</v>
+        <v>356.98</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4469,13 +4605,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>349.91</v>
+        <v>348.42</v>
       </c>
       <c r="C199" t="n">
-        <v>337.82</v>
+        <v>343.86</v>
       </c>
       <c r="D199" t="n">
-        <v>356.08</v>
+        <v>356.8</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4490,13 +4626,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>353.25</v>
+        <v>351.55</v>
       </c>
       <c r="C200" t="n">
-        <v>342.27</v>
+        <v>343.18</v>
       </c>
       <c r="D200" t="n">
-        <v>368.61</v>
+        <v>360.5</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4511,13 +4647,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>352.16</v>
+        <v>351.67</v>
       </c>
       <c r="C201" t="n">
-        <v>344.76</v>
+        <v>343.5</v>
       </c>
       <c r="D201" t="n">
-        <v>360.98</v>
+        <v>360.59</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4532,12 +4668,14 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>362.95</v>
+        <v>353.55</v>
       </c>
       <c r="C202" t="n">
-        <v>355.54</v>
-      </c>
-      <c r="D202" t="inlineStr"/>
+        <v>345.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>360.59</v>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4551,13 +4689,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>366.7</v>
+        <v>354.67</v>
       </c>
       <c r="C203" t="n">
-        <v>361.78</v>
+        <v>347.41</v>
       </c>
       <c r="D203" t="n">
-        <v>371.01</v>
+        <v>361.62</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4572,12 +4710,14 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>349.74</v>
+        <v>353.96</v>
       </c>
       <c r="C204" t="n">
-        <v>336.02</v>
-      </c>
-      <c r="D204" t="inlineStr"/>
+        <v>345.79</v>
+      </c>
+      <c r="D204" t="n">
+        <v>361.62</v>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4591,13 +4731,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>360.36</v>
+        <v>354.76</v>
       </c>
       <c r="C205" t="n">
-        <v>350.29</v>
+        <v>346.35</v>
       </c>
       <c r="D205" t="n">
-        <v>365.66</v>
+        <v>362.29</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4612,13 +4752,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>347.87</v>
+        <v>354</v>
       </c>
       <c r="C206" t="n">
-        <v>346.33</v>
+        <v>346.35</v>
       </c>
       <c r="D206" t="n">
-        <v>357.29</v>
+        <v>361.58</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4633,13 +4773,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>357.33</v>
+        <v>355.59</v>
       </c>
       <c r="C207" t="n">
-        <v>351.35</v>
+        <v>347.35</v>
       </c>
       <c r="D207" t="n">
-        <v>365.89</v>
+        <v>363.65</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4654,13 +4794,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>357.72</v>
+        <v>356.45</v>
       </c>
       <c r="C208" t="n">
-        <v>351.81</v>
+        <v>348.91</v>
       </c>
       <c r="D208" t="n">
-        <v>371.57</v>
+        <v>365.86</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4675,13 +4815,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>367.28</v>
+        <v>357.54</v>
       </c>
       <c r="C209" t="n">
-        <v>356.98</v>
+        <v>349.71</v>
       </c>
       <c r="D209" t="n">
-        <v>377.51</v>
+        <v>367.31</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4696,13 +4836,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>367.75</v>
+        <v>359.34</v>
       </c>
       <c r="C210" t="n">
-        <v>351.24</v>
+        <v>350.73</v>
       </c>
       <c r="D210" t="n">
-        <v>363.39</v>
+        <v>367.47</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4717,13 +4857,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>372.34</v>
+        <v>360.79</v>
       </c>
       <c r="C211" t="n">
-        <v>356.8</v>
+        <v>351.4</v>
       </c>
       <c r="D211" t="n">
-        <v>371.93</v>
+        <v>368.03</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4738,13 +4878,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>366.65</v>
+        <v>361.37</v>
       </c>
       <c r="C212" t="n">
-        <v>354.92</v>
+        <v>351.75</v>
       </c>
       <c r="D212" t="n">
-        <v>370.22</v>
+        <v>368.27</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4759,13 +4899,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>367.8</v>
+        <v>361.96</v>
       </c>
       <c r="C213" t="n">
-        <v>350.39</v>
+        <v>351.63</v>
       </c>
       <c r="D213" t="n">
-        <v>366.06</v>
+        <v>368.05</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4780,13 +4920,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>353.34</v>
+        <v>360.74</v>
       </c>
       <c r="C214" t="n">
-        <v>336.73</v>
+        <v>349.35</v>
       </c>
       <c r="D214" t="n">
-        <v>362.97</v>
+        <v>367.25</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4801,13 +4941,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>359.13</v>
+        <v>364.9</v>
       </c>
       <c r="C215" t="n">
-        <v>347.77</v>
+        <v>350.69</v>
       </c>
       <c r="D215" t="n">
-        <v>354.76</v>
+        <v>366.69</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4822,13 +4962,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>359.76</v>
+        <v>363.82</v>
       </c>
       <c r="C216" t="n">
-        <v>347.76</v>
+        <v>349.37</v>
       </c>
       <c r="D216" t="n">
-        <v>357.07</v>
+        <v>363.77</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4843,13 +4983,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>366.31</v>
+        <v>364.13</v>
       </c>
       <c r="C217" t="n">
-        <v>367.96</v>
+        <v>351.7</v>
       </c>
       <c r="D217" t="n">
-        <v>372.95</v>
+        <v>364.92</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4864,13 +5004,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>382.79</v>
+        <v>365.11</v>
       </c>
       <c r="C218" t="n">
-        <v>382.43</v>
+        <v>355.42</v>
       </c>
       <c r="D218" t="n">
-        <v>394.01</v>
+        <v>368.29</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4885,13 +5025,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>369.85</v>
+        <v>365.2</v>
       </c>
       <c r="C219" t="n">
-        <v>361.3</v>
+        <v>357.33</v>
       </c>
       <c r="D219" t="n">
-        <v>372.96</v>
+        <v>369.12</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4906,13 +5046,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>357.92</v>
+        <v>364.16</v>
       </c>
       <c r="C220" t="n">
-        <v>361.63</v>
+        <v>357.94</v>
       </c>
       <c r="D220" t="n">
-        <v>370.44</v>
+        <v>369.31</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4927,13 +5067,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>365.47</v>
+        <v>365.89</v>
       </c>
       <c r="C221" t="n">
-        <v>367.86</v>
+        <v>362.39</v>
       </c>
       <c r="D221" t="n">
-        <v>374.31</v>
+        <v>370.93</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4948,13 +5088,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>363.05</v>
+        <v>365.54</v>
       </c>
       <c r="C222" t="n">
-        <v>365.91</v>
+        <v>362.83</v>
       </c>
       <c r="D222" t="n">
-        <v>368.4</v>
+        <v>370.61</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4969,13 +5109,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>374.77</v>
+        <v>366.56</v>
       </c>
       <c r="C223" t="n">
-        <v>361.99</v>
+        <v>362.73</v>
       </c>
       <c r="D223" t="n">
-        <v>378.57</v>
+        <v>371.5</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4990,13 +5130,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>373.49</v>
+        <v>368.16</v>
       </c>
       <c r="C224" t="n">
-        <v>362.14</v>
+        <v>364.33</v>
       </c>
       <c r="D224" t="n">
-        <v>382.46</v>
+        <v>374.57</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5011,13 +5151,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>378.99</v>
+        <v>370.29</v>
       </c>
       <c r="C225" t="n">
-        <v>364.64</v>
+        <v>366.21</v>
       </c>
       <c r="D225" t="n">
-        <v>376.13</v>
+        <v>376.69</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5032,13 +5172,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>381.32</v>
+        <v>371.96</v>
       </c>
       <c r="C226" t="n">
-        <v>364.69</v>
+        <v>365.84</v>
       </c>
       <c r="D226" t="n">
-        <v>376.91</v>
+        <v>377.13</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5053,13 +5193,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>345.64</v>
+        <v>369.54</v>
       </c>
       <c r="C227" t="n">
-        <v>346.51</v>
+        <v>360.98</v>
       </c>
       <c r="D227" t="n">
-        <v>357.22</v>
+        <v>373.28</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5074,13 +5214,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>377.9</v>
+        <v>370.96</v>
       </c>
       <c r="C228" t="n">
-        <v>378.16</v>
+        <v>363.5</v>
       </c>
       <c r="D228" t="n">
-        <v>384.31</v>
+        <v>373.64</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5095,13 +5235,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>364.5</v>
+        <v>369.67</v>
       </c>
       <c r="C229" t="n">
-        <v>355.23</v>
+        <v>361.85</v>
       </c>
       <c r="D229" t="n">
-        <v>365.85</v>
+        <v>372.08</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5116,13 +5256,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>359.46</v>
+        <v>361.88</v>
       </c>
       <c r="C230" t="n">
-        <v>355.6</v>
+        <v>358.88</v>
       </c>
       <c r="D230" t="n">
-        <v>369.1</v>
+        <v>369.12</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5137,13 +5277,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>373.96</v>
+        <v>364.29</v>
       </c>
       <c r="C231" t="n">
-        <v>369.9</v>
+        <v>361.08</v>
       </c>
       <c r="D231" t="n">
-        <v>376.19</v>
+        <v>370.53</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5158,13 +5298,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>368.83</v>
+        <v>365.05</v>
       </c>
       <c r="C232" t="n">
-        <v>368.9</v>
+        <v>362.38</v>
       </c>
       <c r="D232" t="n">
-        <v>374.54</v>
+        <v>371.2</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5179,12 +5319,14 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>355.59</v>
+        <v>363.7</v>
       </c>
       <c r="C233" t="n">
-        <v>346.16</v>
-      </c>
-      <c r="D233" t="inlineStr"/>
+        <v>360.07</v>
+      </c>
+      <c r="D233" t="n">
+        <v>371.2</v>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>L9</t>
@@ -5198,13 +5340,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>335.17</v>
+        <v>360.13</v>
       </c>
       <c r="C234" t="n">
-        <v>337.67</v>
+        <v>357.27</v>
       </c>
       <c r="D234" t="n">
-        <v>357.2</v>
+        <v>369.2</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5219,13 +5361,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>359.49</v>
+        <v>361.86</v>
       </c>
       <c r="C235" t="n">
-        <v>346.2</v>
+        <v>357.23</v>
       </c>
       <c r="D235" t="n">
-        <v>364.65</v>
+        <v>370.26</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5240,13 +5382,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>351.14</v>
+        <v>360.67</v>
       </c>
       <c r="C236" t="n">
-        <v>346.56</v>
+        <v>356.04</v>
       </c>
       <c r="D236" t="n">
-        <v>369.62</v>
+        <v>370.18</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5261,13 +5403,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>350.36</v>
+        <v>359.64</v>
       </c>
       <c r="C237" t="n">
-        <v>354.27</v>
+        <v>355.87</v>
       </c>
       <c r="D237" t="n">
-        <v>365.58</v>
+        <v>369.67</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5282,13 +5424,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>372.64</v>
+        <v>360.82</v>
       </c>
       <c r="C238" t="n">
-        <v>374.56</v>
+        <v>357.56</v>
       </c>
       <c r="D238" t="n">
-        <v>375.92</v>
+        <v>370.3</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5303,13 +5445,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>346.83</v>
+        <v>358</v>
       </c>
       <c r="C239" t="n">
-        <v>343.9</v>
+        <v>354.45</v>
       </c>
       <c r="D239" t="n">
-        <v>365</v>
+        <v>368.37</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5324,13 +5466,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>349.55</v>
+        <v>357.29</v>
       </c>
       <c r="C240" t="n">
-        <v>341.14</v>
+        <v>353.34</v>
       </c>
       <c r="D240" t="n">
-        <v>356.78</v>
+        <v>367.31</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5345,12 +5487,14 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>341.27</v>
+        <v>355.36</v>
       </c>
       <c r="C241" t="n">
-        <v>333.36</v>
-      </c>
-      <c r="D241" t="inlineStr"/>
+        <v>351.52</v>
+      </c>
+      <c r="D241" t="n">
+        <v>367.46</v>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>L9</t>
@@ -5364,13 +5508,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>359.28</v>
+        <v>352.13</v>
       </c>
       <c r="C242" t="n">
-        <v>350.37</v>
+        <v>347.42</v>
       </c>
       <c r="D242" t="n">
-        <v>366.65</v>
+        <v>365.18</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5385,13 +5529,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>352.92</v>
+        <v>351.87</v>
       </c>
       <c r="C243" t="n">
-        <v>341.25</v>
+        <v>346.93</v>
       </c>
       <c r="D243" t="n">
-        <v>362.37</v>
+        <v>364.86</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -8171,28 +8315,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2840877212833051</v>
+        <v>-0.3021647696662999</v>
       </c>
       <c r="J2" t="n">
         <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03384147517148783</v>
+        <v>0.09440224231774741</v>
       </c>
       <c r="M2" t="n">
-        <v>9.293659051278114</v>
+        <v>5.6937396900944</v>
       </c>
       <c r="N2" t="n">
-        <v>136.3497346474391</v>
+        <v>51.87077703041371</v>
       </c>
       <c r="O2" t="n">
-        <v>11.67688891132561</v>
+        <v>7.202136976648924</v>
       </c>
       <c r="P2" t="n">
-        <v>370.9591007565091</v>
+        <v>371.6666458744062</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8249,28 +8393,28 @@
         <v>0.0956</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1711473989843429</v>
+        <v>-0.1882220516726496</v>
       </c>
       <c r="J3" t="n">
         <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01244595826564021</v>
+        <v>0.03389770571458561</v>
       </c>
       <c r="M3" t="n">
-        <v>9.570447528251902</v>
+        <v>6.163155343970057</v>
       </c>
       <c r="N3" t="n">
-        <v>142.8425293442585</v>
+        <v>59.79651664648549</v>
       </c>
       <c r="O3" t="n">
-        <v>11.9516747506054</v>
+        <v>7.732820743201377</v>
       </c>
       <c r="P3" t="n">
-        <v>361.6111809841493</v>
+        <v>362.4188377311024</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8327,28 +8471,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0334862011954247</v>
+        <v>-0.003739006441024681</v>
       </c>
       <c r="J4" t="n">
         <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007939459223097467</v>
+        <v>2.637456716902964e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.210628765628357</v>
+        <v>4.288762424219598</v>
       </c>
       <c r="N4" t="n">
-        <v>83.86864929908332</v>
+        <v>31.07367009882502</v>
       </c>
       <c r="O4" t="n">
-        <v>9.157982818234773</v>
+        <v>5.574376207148655</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8430474597729</v>
+        <v>369.188171414994</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -8456,12 +8600,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.807609114855936,173.16396547599203</t>
+          <t>-34.80760275116183,173.1639014335047</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.80833936218462,173.16384167881424</t>
+          <t>-34.80833101908575,173.1637549098286</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8481,11 +8625,19 @@
           <t>2000-02-09 22:10:19+00:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-34.80760275116183,173.1639014335047</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-34.80833101908575,173.1637549098286</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.80906215480972,173.16363651350372</t>
+          <t>-34.80906753692229,173.1636944216976</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8502,17 +8654,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.80760238443945,173.16389774292097</t>
+          <t>-34.8076057496524,173.16393160945515</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.80833510188654,173.16379737124495</t>
+          <t>-34.80833723203761,173.16381952502903</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.809072282852306,173.16374548521432</t>
+          <t>-34.80906912226725,173.16371147908447</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8529,17 +8681,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.8076055339339,173.16392943852338</t>
+          <t>-34.8076039591877,173.1639135907219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.8083347886287,173.16379411333563</t>
+          <t>-34.80833494525764,173.1637957422903</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-34.809070919661835,173.1637308180334</t>
+          <t>-34.80906845581679,173.16370430846317</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8556,17 +8708,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.80759378800325,173.1638112313059</t>
+          <t>-34.807600572397796,173.163879507096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.8083242839983,173.16368486479024</t>
+          <t>-34.808331394996415,173.16375881931944</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-34.809057499714505,173.16358642781105</t>
+          <t>-34.80906571932638,173.1636748654587</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8583,15 +8735,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.80757137442088,173.16358567161998</t>
+          <t>-34.807593270273635,173.1638060210712</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.80828062503422,173.1632308211782</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>-34.80831869749979,173.16362676542582</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-34.80906690076407,173.16368757701392</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8606,17 +8762,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.80757658415998,173.16363809958244</t>
+          <t>-34.807589937383895,173.16377248018674</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.808305644825,173.16349101927744</t>
+          <t>-34.80831608697696,173.16359961619278</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-34.80905847920481,173.16359696644875</t>
+          <t>-34.809064790331696,173.16366487004802</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8633,17 +8789,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.80759884664129,173.16386213964438</t>
+          <t>-34.80758922550333,173.16376531611465</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.80832208072838,173.16366195083438</t>
+          <t>-34.80831348689019,173.16357257555833</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-34.80907014213759,173.1637224523082</t>
+          <t>-34.80906425514961,173.1636591118224</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8660,17 +8816,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.80760297766678,173.1639037129829</t>
+          <t>-34.80758744580006,173.16374740593503</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.80832113050162,173.16365206851256</t>
+          <t>-34.808307367786746,173.1635089377666</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-34.809067072425854,173.16368942399203</t>
+          <t>-34.809065234633614,173.1636696504618</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8687,17 +8843,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.807602513870876,173.16389904547992</t>
+          <t>-34.80759523333058,173.16382577654485</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.80831889589929,173.1636288287676</t>
+          <t>-34.80831693278703,173.1636084125441</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.809066910861816,173.16368768565968</t>
+          <t>-34.809065648642026,173.1636741049383</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8714,17 +8870,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.807597854330176,173.16385215336</t>
+          <t>-34.807601111696194,173.16388493442477</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.808318154511554,173.1636211183852</t>
+          <t>-34.80831939711889,173.16363404142058</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.80906626460548,173.16368073233028</t>
+          <t>-34.80906674929778,173.1636859473273</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8739,15 +8895,19 @@
           <t>2001-06-03 22:07:16+00:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-34.807601111696194,173.16388493442477</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.80831722516567,173.16361145325817</t>
+          <t>-34.808318854130974,173.16362839437986</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-34.80906055935641,173.16361934747394</t>
+          <t>-34.80906520434029,173.16366932452448</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -8764,17 +8924,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.80758335786564,173.16370626679802</t>
+          <t>-34.807594575383284,173.1638191552047</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.80830054901961,173.16343802399257</t>
+          <t>-34.80831370617485,173.1635748560937</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.80905977172667,173.16361087310506</t>
+          <t>-34.80906337664257,173.1636496596409</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8791,17 +8951,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.80758211746062,173.1636937839472</t>
+          <t>-34.80758273227021,173.1636999710993</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.80830256437163,173.16345898319258</t>
+          <t>-34.80830678302427,173.16350285633993</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.80905319802467,173.16354014472472</t>
+          <t>-34.8090578430411,173.1635901217665</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8818,17 +8978,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.807610117943625,173.1639755708257</t>
+          <t>-34.80759186808814,173.16379191001914</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.80832153774175,173.1636563037933</t>
+          <t>-34.80830821360338,173.1635177341161</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.8090637502606,173.16365367953418</t>
+          <t>-34.809058903313726,173.1636015295703</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8845,17 +9005,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.80761078666828,173.1639823007149</t>
+          <t>-34.80760100383653,173.16388384895902</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.80833503923497,173.16379671966308</t>
+          <t>-34.80831971038102,173.1636372993287</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.80907464571161,173.16377090832904</t>
+          <t>-34.8090638613362,173.16365487463756</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8872,17 +9032,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.80760608401599,173.1639349743994</t>
+          <t>-34.80760227657989,173.16389665745518</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.808331353228574,173.16375838493158</t>
+          <t>-34.80832262371473,173.16366759787553</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-34.809068566891895,173.1637055035667</t>
+          <t>-34.809065042776,173.1636675861922</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8926,17 +9086,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.80760596537086,173.1639337803869</t>
+          <t>-34.80760632130624,173.16393736242438</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.808337211153784,173.16381930783504</t>
+          <t>-34.80833306570897,173.16377619483472</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.80906521443807,173.16366943317027</t>
+          <t>-34.80906846591453,173.16370441710893</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -8953,17 +9113,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.807610117943625,173.1639755708257</t>
+          <t>-34.80760758325807,173.16395006237556</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.80833479907062,173.1637942219326</t>
+          <t>-34.80833364001584,173.1637821676683</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-34.80906912226725,173.16371147908447</t>
+          <t>-34.809068677966984,173.16370669867024</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8980,17 +9140,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.807594650885456,173.1638199150306</t>
+          <t>-34.80760358167976,173.16390979159146</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.80832232089545,173.16366444856408</t>
+          <t>-34.808331447206214,173.16375936230432</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.8090591456616,173.16360413706835</t>
+          <t>-34.80906449749626,173.1636617193208</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9032,11 +9192,19 @@
           <t>2004-04-08 22:06:49+00:00</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-34.807615370657935,173.164028433023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-34.808338474623845,173.16383244807022</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-34.8090749890326,173.16377460228603</t>
+          <t>-34.809076897491366,173.16379513634143</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9053,17 +9221,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.80760201771695,173.1638940523373</t>
+          <t>-34.80760869420602,173.1639612426748</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.80832499405594,173.1636922493829</t>
+          <t>-34.80833173958108,173.1637624030194</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-34.80906056945424,173.1636194561197</t>
+          <t>-34.80907145484054,173.16373657625994</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9080,17 +9248,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.80759083262703,173.16378148955025</t>
+          <t>-34.80760274037588,173.16390132495812</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.80831258886686,173.16356323622313</t>
+          <t>-34.808325349084576,173.16369594167926</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-34.80906030691105,173.16361663133006</t>
+          <t>-34.80906866786926,173.16370659002447</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9105,15 +9273,19 @@
           <t>2004-06-11 22:06:38+00:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-34.80760274037588,173.16390132495812</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.80833691878034,173.1638162671195</t>
+          <t>-34.80832824151969,173.16372602303622</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.80907336330572,173.16375711031364</t>
+          <t>-34.809069606958225,173.16371669408187</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9128,11 +9300,19 @@
           <t>2004-07-13 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-34.80760274037588,173.16390132495812</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-34.80832824151969,173.16372602303622</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.80905516711023,173.16356133064392</t>
+          <t>-34.80906720369659,173.16369083638708</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9147,15 +9327,19 @@
           <t>2004-07-29 22:06:27+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-34.80759641979201,173.16383771666673</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.808319585076184,173.16363599616545</t>
+          <t>-34.80832352173004,173.16367693721295</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.80906547698001,173.16367225796026</t>
+          <t>-34.80906498218937,173.1636669343176</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9172,17 +9356,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.80761142303495,173.16398870496442</t>
+          <t>-34.80760113326812,173.16388515151792</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.808333953274015,173.16378542557752</t>
+          <t>-34.8083257667652,173.16370028555738</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.8090648610161,173.1636656305684</t>
+          <t>-34.809063831042856,173.16365454870026</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9199,17 +9383,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.80757412490708,173.16361335097827</t>
+          <t>-34.807592126953274,173.1637945151364</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.808308098739424,173.16351653955013</t>
+          <t>-34.808322226917035,173.1636634711916</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.80904812887459,173.163485604568</t>
+          <t>-34.809061215714074,173.16362640944814</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9226,15 +9410,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.80760627816256,173.16393692823803</t>
+          <t>-34.80759727188631,173.1638462918454</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.808338255344026,173.16383016753352</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>-34.80832736439213,173.16371690089167</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-34.809061397474586,173.1636283650718</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9249,17 +9437,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-34.80760969729405,173.16397133750831</t>
+          <t>-34.80760037825031,173.16387755325763</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.80833107129556,173.16375545281343</t>
+          <t>-34.80832619488767,173.16370473803252</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-34.809076342120136,173.16378916082257</t>
+          <t>-34.80906369977168,173.16365313630536</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9276,17 +9464,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.807618056328444,173.16405546113052</t>
+          <t>-34.80760391604395,173.16391315653556</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.80833877743878,173.16383559738287</t>
+          <t>-34.80832829372964,173.163726566021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-34.80907526166977,173.16377753572243</t>
+          <t>-34.80906601216147,173.16367801618603</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9301,11 +9489,19 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-34.80760391604395,173.16391315653556</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-34.808330027098656,173.16374459311683</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.80904500860868,173.16345203304058</t>
+          <t>-34.809061922560325,173.16363401465125</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9322,17 +9518,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.80760929821611,173.1639673212842</t>
+          <t>-34.807604811276654,173.16392216590208</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.808337378224294,173.16382104538678</t>
+          <t>-34.808331259250906,173.16375740755885</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-34.80907804862356,173.1638075219626</t>
+          <t>-34.809064608571774,173.16366291442424</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9347,15 +9543,19 @@
           <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-34.807604811276654,173.16392216590208</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.80831416562829,173.1635796343583</t>
+          <t>-34.80832881582903,173.16373199586909</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.80905481368489,173.163557528043</t>
+          <t>-34.809063204980184,173.16364781266293</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9372,17 +9572,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.8076168698884,173.1640435210025</t>
+          <t>-34.80760653702459,173.16393953335617</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.80833882964824,173.1638361403678</t>
+          <t>-34.80833006886655,173.1637450275047</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.8090693040264,173.16371343470848</t>
+          <t>-34.8090639724118,173.163656069741</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9399,17 +9599,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.807601392131254,173.16388775663575</t>
+          <t>-34.807605889869414,173.16393302056082</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.80832831461361,173.16372678321494</t>
+          <t>-34.80832987046904,173.16374296416237</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.809068112493655,173.16370061450678</t>
+          <t>-34.809064426811815,173.16366095880042</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9426,17 +9626,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.807611681895864,173.1639913100829</t>
+          <t>-34.80761116417397,173.163986099846</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.80834035416346,173.1638519955283</t>
+          <t>-34.80833270024081,173.16377239394072</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-34.80907730139755,173.1637994821734</t>
+          <t>-34.80906802161399,173.1636996366948</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9451,11 +9651,19 @@
           <t>2005-06-14 22:07:02+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-34.80761116417397,173.163986099846</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-34.80833270024081,173.16377239394072</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.80906423495405,173.16365889453087</t>
+          <t>-34.80906760760651,173.16369518221805</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9470,15 +9678,19 @@
           <t>2005-06-30 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-34.80761116417397,173.163986099846</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.80832736439213,173.16371690089167</t>
+          <t>-34.80833203195586,173.16376544373458</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-34.809062447645815,173.16363966423077</t>
+          <t>-34.8090670825236,173.1636895326378</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9493,15 +9705,19 @@
           <t>2005-08-01 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-34.80760981593881,173.16397253152093</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.80832306228044,173.16367215894726</t>
+          <t>-34.80832992267891,173.16374350714716</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.80906508316707,173.16366802077528</t>
+          <t>-34.80906493170051,173.16366639108878</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9518,17 +9734,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.80758137321697,173.16368629423692</t>
+          <t>-34.8076041209768,173.16391521892064</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.808306313125634,173.16349796947924</t>
+          <t>-34.808326967596116,173.16371277420728</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.80905103707523,173.1635168945376</t>
+          <t>-34.809065598153204,173.1636735617095</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9545,17 +9761,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.80759434887675,173.16381687572695</t>
+          <t>-34.80760113326812,173.16388515151792</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.80832044132568,173.16364490111445</t>
+          <t>-34.80832638284382,173.16370669277774</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.80905990299835,173.16361228549985</t>
+          <t>-34.80906467925619,173.1636636749446</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9572,17 +9788,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.80759561084116,173.1638295756745</t>
+          <t>-34.80760021646071,173.16387592505905</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.808315648408524,173.1635950551218</t>
+          <t>-34.808325046266035,173.16369279236764</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.809068294252974,173.16370257013074</t>
+          <t>-34.80906508316707,173.16366802077528</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9599,17 +9815,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.80760830591364,173.16395733499735</t>
+          <t>-34.80760137055933,173.16388753954263</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.808339142904956,173.16383939827745</t>
+          <t>-34.80832661256798,173.16370908191075</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.80907199001896,173.16374233448653</t>
+          <t>-34.8090657698152,173.16367540868757</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9626,17 +9842,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.80760098226459,173.16388363186587</t>
+          <t>-34.80759871720945,173.16386083708554</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.80831895855176,173.16362948034924</t>
+          <t>-34.80832390808526,173.16368095530004</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.809062962633256,173.16364520516464</t>
+          <t>-34.809064810527246,173.16366508733955</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9651,15 +9867,19 @@
           <t>2005-12-23 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-34.80759612856977,173.16383478590953</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.8083388922996,173.16383679194973</t>
+          <t>-34.80832373057072,173.1636791091519</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-34.80907901799705,173.16381795195966</t>
+          <t>-34.809065093264834,173.16366812942104</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9676,17 +9896,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.80761185446979,173.16399304682858</t>
+          <t>-34.80759874956741,173.16386116272523</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.80833681436124,173.16381518114972</t>
+          <t>-34.80832491051977,173.16369138060728</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.80907626133884,173.16378829165618</t>
+          <t>-34.80906681998206,173.16368670784772</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9703,17 +9923,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.80760854320344,173.16395972302243</t>
+          <t>-34.80760326888736,173.1639066437406</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.80833700231562,173.16381713589539</t>
+          <t>-34.808329557209724,173.16373970625344</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-34.80907521118142,173.16377699249347</t>
+          <t>-34.80907051575321,173.16372647220211</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9730,17 +9950,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.807604131762744,173.1639153274672</t>
+          <t>-34.807603398318705,173.16390794629956</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.808323573940214,173.1636774801977</t>
+          <t>-34.80832880538704,173.16373188727212</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.80906365938055,173.16365270172227</t>
+          <t>-34.80906966754458,173.1637173459565</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9757,17 +9977,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.80759684044623,173.16384194998278</t>
+          <t>-34.807603754254835,173.1639115283368</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.80831723560777,173.1636115618551</t>
+          <t>-34.80832840859152,173.1637277605876</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.80905825705244,173.16359457624225</t>
+          <t>-34.80906945549233,173.16371506439518</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9784,17 +10004,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.80758986188142,173.1637717203609</t>
+          <t>-34.80760224422204,173.16389633181544</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.80831352865871,173.16357300994602</t>
+          <t>-34.80832784472398,173.16372189635175</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.80906283136197,173.1636437927697</t>
+          <t>-34.8090692030491,173.1637123482507</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -9811,17 +10031,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.80758684177897,173.16374132732878</t>
+          <t>-34.80759967716191,173.1638704977304</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.808312442676936,173.16356171586628</t>
+          <t>-34.80832343819376,173.16367606843735</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.8090632756647,173.16364857318328</t>
+          <t>-34.80906658773371,173.16368420899497</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9836,11 +10056,19 @@
           <t>2006-07-03 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-34.80759967716191,173.1638704977304</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-34.80832343819376,173.16367606843735</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.80905780264975,173.1635896871835</t>
+          <t>-34.809065325513515,173.1636706282737</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9855,15 +10083,19 @@
           <t>2006-07-19 22:07:20+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-34.80759723952832,173.1638459662057</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.80830848509993,173.16352055763576</t>
+          <t>-34.808318707941886,173.16362687402275</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.80905198627787,173.16352710723646</t>
+          <t>-34.809061861973525,173.1636333627767</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9880,17 +10112,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.807597638610275,173.16384998242864</t>
+          <t>-34.80759730424431,173.1638466174851</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.80832390808526,173.16368095530004</t>
+          <t>-34.80831944932924,173.16363458440526</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.80906984930364,173.16371930158056</t>
+          <t>-34.80906286165535,173.163644118707</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -9907,17 +10139,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.80762062334925,173.1640812952269</t>
+          <t>-34.80759873878142,173.16386105417868</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.80834760080345,173.16392736184696</t>
+          <t>-34.808321193153965,173.1636527200942</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.809081239474594,173.16384185403712</t>
+          <t>-34.80906449749626,173.1636617193208</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9932,15 +10164,19 @@
           <t>2006-12-02 22:12:34+00:00</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-34.80759873878142,173.16386105417868</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.808293918172694,173.16336906497372</t>
+          <t>-34.80831665085041,173.16360548042698</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-34.80902597377615,173.1632472359126</t>
+          <t>-34.80905899419418,173.16360250738208</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -9957,11 +10193,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.807633803512516,173.16421393922556</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+          <t>-34.8076057496524,173.16393160945515</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-34.80831665085041,173.16360548042698</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-34.80905899419418,173.16360250738208</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9976,15 +10220,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.80758934415011,173.16376651012666</t>
+          <t>-34.80761459407739,173.16402061766692</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.80831500099769,173.16358832211233</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>-34.80831884368891,173.16362828578292</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-34.809053612037836,173.16354459919995</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9997,15 +10245,19 @@
           <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-34.80761459407739,173.16402061766692</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.808317621965124,173.16361557994162</t>
+          <t>-34.808318540868605,173.1636251364718</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.80905251136832,173.16353275681465</t>
+          <t>-34.809053238416205,173.16354057930764</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10022,15 +10274,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.807619835986316,173.1640733713232</t>
+          <t>-34.80761589916384,173.16403375180707</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.80834632690183,173.1639141130119</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>-34.80832409604179,173.16368291004514</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-34.809053238416205,173.16354057930764</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10043,15 +10299,19 @@
           <t>2007-07-22 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-34.80760458477206,173.1639198864238</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.808321046965176,173.16365119973702</t>
+          <t>-34.80832500449796,173.16369235797984</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-34.80906419456294,173.16365845994784</t>
+          <t>-34.80905835803079,173.16359566269975</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10068,17 +10328,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.80758801746261,173.16375315890173</t>
+          <t>-34.807599062361,173.1638643105758</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.80831800832236,173.16361959802813</t>
+          <t>-34.80832360526632,173.16367780598853</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-34.8090626496017,173.163641837146</t>
+          <t>-34.8090597818245,173.16361098175082</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10093,15 +10353,19 @@
           <t>2007-09-24 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-34.807603926829906,173.16391326508213</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.80832439886059,173.16368605935668</t>
+          <t>-34.808327447928114,173.16371776966733</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-34.80904722006023,173.16347582645295</t>
+          <t>-34.8090580248022,173.16359207738998</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10118,17 +10382,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.80757835309318,173.16365590121092</t>
+          <t>-34.80759540590686,173.16382751328985</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.80830137395688,173.16344660314687</t>
+          <t>-34.808322226917035,173.1636634711916</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-34.8090616903109,173.16363151579878</t>
+          <t>-34.809058933607204,173.16360185550755</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10143,11 +10407,19 @@
           <t>2007-10-10 22:07:19+00:00</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-34.80759540590686,173.16382751328985</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-34.808322226917035,173.1636634711916</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.809051824711524,173.16352536890471</t>
+          <t>-34.8090575199102,173.16358664510255</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10164,17 +10436,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.80759599913764,173.16383348335077</t>
+          <t>-34.80758745658616,173.16374751448157</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.808311220946216,173.16354901002686</t>
+          <t>-34.80831520983993,173.16359049405088</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.80906450759403,173.16366182796656</t>
+          <t>-34.80905868116145,173.16359913936375</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10191,15 +10463,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.80760333360303,173.16390729502007</t>
+          <t>-34.80759142586007,173.16378745961055</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.80831788301732,173.16361829486493</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>-34.80831565885064,173.16359516371872</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-34.80905868116145,173.16359913936375</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10214,17 +10490,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.8075854935165,173.16372775901158</t>
+          <t>-34.8075907894828,173.16378105536404</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.80830669948675,173.16350198756467</t>
+          <t>-34.80831231737129,173.16356041270322</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-34.809054975250774,173.16355926637482</t>
+          <t>-34.80905604562414,173.1635707828236</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10241,17 +10517,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.80759687280425,173.16384227562247</t>
+          <t>-34.80759117778083,173.16378496303986</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.80831886457305,173.1636285029768</t>
+          <t>-34.8083127768253,173.1635651909677</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-34.80906109454038,173.16362510569905</t>
+          <t>-34.80905803490003,173.16359218603574</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10266,11 +10542,19 @@
           <t>2008-09-10 22:06:32+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-34.80759117778083,173.16378496303986</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-34.8083127768253,173.1635651909677</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.80905550033973,173.16356491595343</t>
+          <t>-34.80905718668134,173.16358305979287</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10287,13 +10571,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.80760972965172,173.16397166314812</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>-34.807603301245194,173.16390696938035</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-34.80831886457305,173.1636285029768</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.80907139425428,173.1637359243852</t>
+          <t>-34.80906265969951,173.16364194579177</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10310,17 +10598,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.80759652765208,173.16383880213237</t>
+          <t>-34.80760104698038,173.16388428314534</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.80831778903855,173.16361731749254</t>
+          <t>-34.80831833202698,173.1636229645331</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-34.80905909517245,173.1636035938396</t>
+          <t>-34.809061771093326,173.16363238496484</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10337,11 +10625,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.807599515372225,173.1638688695318</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+          <t>-34.807600658685544,173.16388037546858</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-34.80831833202698,173.1636229645331</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-34.809061771093326,173.16363238496484</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10356,17 +10652,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.80758306664022,173.16370333604172</t>
+          <t>-34.80759714245431,173.1638449892866</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.808309028092864,173.16352620467507</t>
+          <t>-34.808315230724155,173.16359071124472</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-34.80905154197036,173.1635223268242</t>
+          <t>-34.809059721237574,173.1636103298763</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10383,17 +10679,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.80760655859642,173.16393975044934</t>
+          <t>-34.80759871720945,173.16386083708554</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.80831810230113,173.16362057540053</t>
+          <t>-34.80831594078751,173.1635980958358</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-34.80906437632293,173.1636604155716</t>
+          <t>-34.80906049876954,173.16361869559938</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10410,17 +10706,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.807573348299854,173.16360553562987</t>
+          <t>-34.807595093112326,173.16382436543955</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.80828867612114,173.16331454934763</t>
+          <t>-34.80831048999556,173.16354140824282</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.809047068591106,173.16347419676714</t>
+          <t>-34.80905858018313,173.16359805290625</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10437,17 +10733,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.8076126310521,173.16400086218414</t>
+          <t>-34.80759728267232,173.16384640039195</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.80832817886775,173.1637253714545</t>
+          <t>-34.808313434679555,173.16357203257374</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.809073302719575,173.16375645843888</t>
+          <t>-34.80906041798701,173.16361782643335</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10464,15 +10760,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.80759410079811,173.1638143791561</t>
+          <t>-34.80759693752027,173.16384292690185</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.80831418651252,173.16357985155219</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>-34.8083126619618,173.1635639964016</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-34.809060327106685,173.16361684862156</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10487,17 +10787,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.80760288059324,173.16390273606365</t>
+          <t>-34.80759759546626,173.1638495482424</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.80833214681737,173.16376663830124</t>
+          <t>-34.80831543956636,173.16359288318324</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-34.80907129327717,173.1637348379274</t>
+          <t>-34.80906257891715,173.16364107662568</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10512,15 +10812,19 @@
           <t>2009-06-09 22:08:01+00:00</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>-34.807595740273335,173.16383087823326</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.80830944577954,173.1635305485515</t>
+          <t>-34.80831453110247,173.16358343525067</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-34.80905688374592,173.16357980042048</t>
+          <t>-34.80906213461412,173.1636362962122</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10537,17 +10841,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.80758247340305,173.1636973659826</t>
+          <t>-34.807592677041505,173.16380005101067</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.80830878792295,173.1635237069461</t>
+          <t>-34.808316797039765,173.163607000784</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-34.80905638895121,173.1635744767789</t>
+          <t>-34.80906151864825,173.1636296688209</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10564,17 +10868,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.80758771545225,173.16375011959857</t>
+          <t>-34.80758509443051,173.16372374278978</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.80830877748077,173.1635235983492</t>
+          <t>-34.808309007208514,173.16352598748125</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.809063629087206,173.16365237578498</t>
+          <t>-34.8090589639007,173.16360218144482</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10591,17 +10895,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.80760538293094,173.16392791887117</t>
+          <t>-34.807591857302086,173.1637918014726</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.808328721851154,173.1637310184964</t>
+          <t>-34.80831542912425,173.1635927745863</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.80907042487374,173.16372549439006</t>
+          <t>-34.80906347762043,173.16365074609854</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10618,17 +10922,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.807585536660916,173.16372819319773</t>
+          <t>-34.80759028253795,173.16377595367626</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.808314019438576,173.1635781140014</t>
+          <t>-34.80831507409248,173.1635890822908</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.80905757039941,173.1635871883313</t>
+          <t>-34.80906200334273,173.16363488381734</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10645,17 +10949,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.8076070763203,173.1639449606857</t>
+          <t>-34.807593636998796,173.16380971165412</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.8083321154915,173.16376631251035</t>
+          <t>-34.8083184886582,173.16362459348713</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.8090724646109,173.16374744083848</t>
+          <t>-34.80906409358516,173.16365737349017</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10672,17 +10976,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.8076069792471,173.1639439837664</t>
+          <t>-34.807595858919484,173.16383207224544</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.80832496272988,173.16369192359204</t>
+          <t>-34.80831956419204,173.16363577897158</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.80907002096494,173.16372114855884</t>
+          <t>-34.80906508316707,173.16366802077528</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10699,17 +11003,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.80760086361895,173.16388243785352</t>
+          <t>-34.807596570796115,173.16383923631864</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.80832800135388,173.16372352530615</t>
+          <t>-34.80832076502959,173.1636482676196</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-34.80906835483941,173.16370322200538</t>
+          <t>-34.809065547664375,173.1636730184806</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10726,17 +11030,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.80760826277003,173.16395690081097</t>
+          <t>-34.80760025960461,173.16387635924534</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.80833062229102,173.16375078314385</t>
+          <t>-34.80832388720119,173.16368073810614</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-34.80907335320803,173.16375700166782</t>
+          <t>-34.80906797112527,173.16369909346594</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10753,17 +11057,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.80759512547039,173.16382469107924</t>
+          <t>-34.80759962323202,173.16386995499752</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.808330737152666,173.1637519777105</t>
+          <t>-34.808324743447415,173.16368964305605</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.80906687047082,173.1636872510766</t>
+          <t>-34.80906783985463,173.16369768107086</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10780,17 +11084,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.807602082432695,173.16389470361676</t>
+          <t>-34.80760141370318,173.16388797372892</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.808324858309646,173.1636908376225</t>
+          <t>-34.80832675875605,173.16371060226814</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-34.809065264926915,173.16366997639912</t>
+          <t>-34.80906804180946,173.16369985398634</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10807,13 +11111,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.807577770639845,173.16365003969904</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>-34.80759878192537,173.16386148836494</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-34.80832675875605,173.16371060226814</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-34.80906670890676,173.16368551274422</t>
+          <t>-34.80906789034334,173.16369822429974</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -10830,11 +11138,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.807617808254705,173.16405296455827</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+          <t>-34.80759819948197,173.1638556268502</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-34.80832780295599,173.16372146196392</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-34.80906628480099,173.16368094962183</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10849,7 +11165,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.807598059264066,173.1638542157448</t>
+          <t>-34.80759787590217,173.16385237045316</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10859,7 +11175,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-34.80907182845568,173.16374059615396</t>
+          <t>-34.809069263635465,173.16371300012537</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10876,17 +11192,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-34.80759410079811,173.1638143791561</t>
+          <t>-34.80760332281709,173.1639071864735</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.80832637240183,173.16370658418077</t>
+          <t>-34.808324367534524,173.16368573356584</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-34.8090636896739,173.16365302765956</t>
+          <t>-34.80906775907268,173.16369681190466</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -10901,15 +11217,19 @@
           <t>2011-02-23 22:11:05+00:00</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-34.80760332281709,173.1639071864735</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.80831882280474,173.16362806858905</t>
+          <t>-34.8083225192943,173.16366651190606</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-34.80905835803079,173.16359566269975</t>
+          <t>-34.809064628767324,173.16366313171574</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -10924,11 +11244,19 @@
           <t>2011-03-11 22:11:09+00:00</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>-34.80760332281709,173.1639071864735</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.8083225192943,173.16366651190606</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-34.809072878616476,173.16375189531578</t>
+          <t>-34.80906668871125,173.16368529545267</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10945,17 +11273,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.80759883585531,173.1638620310978</t>
+          <t>-34.80759700223629,173.16384357818126</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.808333932390134,173.1637852083836</t>
+          <t>-34.808325380410636,173.16369626747013</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-34.80907219197301,173.16374450740224</t>
+          <t>-34.809067789365905,173.16369713784198</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10972,17 +11300,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.80758840576154,173.1637570665773</t>
+          <t>-34.80759485581988,173.16382197741524</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.80831451021825,173.16358321805683</t>
+          <t>-34.80832319802693,173.16367357070757</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.80905951928113,173.1636081569612</t>
+          <t>-34.80906641607183,173.16368236201686</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10999,15 +11327,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.80758954908544,173.16376857251103</t>
+          <t>-34.80759226717188,173.1637959262416</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.80831768461766,173.1636162315232</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>-34.8083212349222,173.16365315448198</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>-34.8090657395219,173.16367508275025</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11020,11 +11352,19 @@
           <t>2011-08-02 22:11:02+00:00</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-34.80759226717188,173.1637959262416</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-34.8083212349222,173.16365315448198</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-34.80904913866739,173.16349646914054</t>
+          <t>-34.809062417352436,173.1636393382935</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -11041,12 +11381,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.80759693752027,173.16384292690185</t>
+          <t>-34.807593432064174,173.16380764926953</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.80831431181798,173.16358115471527</t>
+          <t>-34.808319856569994,173.16363881968584</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -11068,13 +11408,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.807598339699844,173.1638570379556</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>-34.80759331341778,173.16380645525743</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-34.80831550221901,173.1635935347648</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-34.80908974163164,173.16393333381802</t>
+          <t>-34.80906520434029,173.16366932452448</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11091,17 +11435,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.80759679730222,173.1638415157965</t>
+          <t>-34.80759735817432,173.16384716021793</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.80832691538611,173.1637122312225</t>
+          <t>-34.808320608398674,173.16364663866548</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-34.80906857698963,173.16370561221248</t>
+          <t>-34.809067466238055,173.1636936611772</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11118,11 +11462,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.807594003723864,173.16381340223708</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+          <t>-34.80759651686607,173.16383869358583</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>-34.808320608398674,173.16364663866548</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>-34.8090735753572,173.1637593918752</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11137,17 +11489,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.807590260965824,173.16377573658318</t>
+          <t>-34.80759485581988,173.16382197741524</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.80831651510312,173.16360406866687</t>
+          <t>-34.80832171525664,173.1636581499413</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.80905853979181,173.16359761832325</t>
+          <t>-34.809072282852306,173.16374548521432</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11164,17 +11516,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.80759419787237,173.16381535607513</t>
+          <t>-34.80759380957531,173.16381144839903</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.808319585076184,173.16363599616545</t>
+          <t>-34.808321005196944,173.16365076534927</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.80906549717555,173.16367247525176</t>
+          <t>-34.80906420466072,173.1636585685936</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11191,15 +11543,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.8075960638537,173.16383413463015</t>
+          <t>-34.807594262588545,173.16381600735448</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.80832262371473,173.16366759787553</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>-34.808321412437124,173.16365500063</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>-34.80906420466072,173.1636585685936</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11214,11 +11570,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.8075961501418,173.16383500300265</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+          <t>-34.807594575383284,173.1638191552047</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>-34.808321412437124,173.16365500063</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>-34.80906420466072,173.1636585685936</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11233,17 +11597,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.807600011527185,173.16387386267414</t>
+          <t>-34.80759660315413,173.16383956195835</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.808322822113524,173.16366966121748</t>
+          <t>-34.808321673488436,173.16365771555357</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-34.8090659818682,173.1636776902487</t>
+          <t>-34.8090657395219,173.16367508275025</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11260,17 +11624,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.807607205751246,173.1639462632448</t>
+          <t>-34.807603603251636,173.16391000868464</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.80832709290014,173.16371407737074</t>
+          <t>-34.80832495228784,173.16369181499508</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-34.80907026331025,173.16372375605758</t>
+          <t>-34.809068122591405,173.16370072315254</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11285,11 +11649,19 @@
           <t>2013-01-27 22:13:47+00:00</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-34.807603603251636,173.16391000868464</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>-34.80832495228784,173.16369181499508</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-34.809045634682214,173.163458769075</t>
+          <t>-34.8090606300411,173.16362010799423</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11304,11 +11676,19 @@
           <t>2013-03-16 22:13:42+00:00</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-34.807603603251636,173.16391000868464</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>-34.80832495228784,173.16369181499508</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-34.809063396838155,173.16364987693242</t>
+          <t>-34.80906131669215,173.16362749590573</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11325,17 +11705,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.807612501621755,173.1639995596249</t>
+          <t>-34.80760985908237,173.1639729657073</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.80833093555002,173.16375404105287</t>
+          <t>-34.80832901422672,173.16373405921138</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.80905356154843,173.16354405597127</t>
+          <t>-34.8090582166611,173.16359414165925</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11352,17 +11732,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.80759438123483,173.1638172013666</t>
+          <t>-34.80760469263141,173.16392097188964</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.80831998187481,173.1636401228491</t>
+          <t>-34.808326006931495,173.16370278328733</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-34.80905943849854,173.1636072877952</t>
+          <t>-34.80905845900913,173.16359674915725</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11379,17 +11759,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.80759976344975,173.16387136610297</t>
+          <t>-34.80760346303437,173.16390859757908</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.80832957809369,173.16373992344737</t>
+          <t>-34.8083268945021,173.16371201402856</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-34.80907068741439,173.16372831918042</t>
+          <t>-34.80906049876954,173.16361869559938</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11406,17 +11786,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.8075769832488,173.16364211580344</t>
+          <t>-34.80759816712398,173.1638553012105</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.80830679346644,173.16350296493684</t>
+          <t>-34.80832287432373,173.16367020420222</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.809050724040134,173.16351352651992</t>
+          <t>-34.809059105270286,173.16360370248535</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11433,17 +11813,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.80758920393118,173.1637650990216</t>
+          <t>-34.807596678656175,173.16384032178428</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.80832273857719,173.1636687924419</t>
+          <t>-34.80832285343965,173.16366998700832</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-34.80906477013615,173.1636646527565</t>
+          <t>-34.809059812117965,173.1636113076881</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11460,17 +11840,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.80759221324164,173.16379538350884</t>
+          <t>-34.80759603149567,173.16383380899046</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.80831512630304,173.16358962527542</t>
+          <t>-34.8083217465828,173.16365847573215</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-34.80905864077012,173.16359870478075</t>
+          <t>-34.80905968084628,173.16360989529326</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11487,15 +11867,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.80758320685988,173.1637047471466</t>
+          <t>-34.80759443516496,173.16381774409942</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.808315376913704,173.16359223160168</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>-34.80832095298665,173.16365022236454</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>-34.80905968084628,173.16360989529326</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11510,17 +11894,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.80759539512085,173.16382740474327</t>
+          <t>-34.80759295747855,173.1638028732211</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.80831301699435,173.16356768869687</t>
+          <t>-34.80831919871948,173.16363197807874</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-34.809059004292,173.16360261602784</t>
+          <t>-34.80905842871563,173.16359642321999</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11537,17 +11921,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.80759544905092,173.16382794747608</t>
+          <t>-34.807593237915526,173.16380569543153</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.80832290564984,173.16367052999306</t>
+          <t>-34.80831960596033,173.16363621335933</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.809069576665046,173.16371636814452</t>
+          <t>-34.80906108444258,173.1636249970533</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11564,17 +11948,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.80759101598999,173.1637833348416</t>
+          <t>-34.80759301140875,173.16380341595388</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.80831546045058,173.1635931003771</t>
+          <t>-34.808319188277416,173.16363186948183</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-34.80906546688225,173.1636721493145</t>
+          <t>-34.80906152874604,173.16362977746664</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11591,17 +11975,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.807610117943625,173.1639755708257</t>
+          <t>-34.807597994548104,173.1638535644654</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.80832481654157,173.1636904032347</t>
+          <t>-34.80831905253044,173.16363045772167</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.80906818317785,173.16370137502722</t>
+          <t>-34.80906555776214,173.1636731271264</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11618,17 +12002,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.807598059264066,173.1638542157448</t>
+          <t>-34.807599731091805,173.16387104046325</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.80831930314022,173.16363306404813</t>
+          <t>-34.808319856569994,173.16363881968584</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.80905966065064,173.16360967800176</t>
+          <t>-34.80906443690959,173.16366106744618</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11645,17 +12029,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.80759480188977,173.16382143468243</t>
+          <t>-34.80760099305057,173.16388374041244</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.80832912908853,173.16373525377793</t>
+          <t>-34.80832441974465,173.16368627655058</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.80906718350111,173.16369061909552</t>
+          <t>-34.80906501248268,173.1636672602549</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11672,17 +12056,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.8075916415811,173.16378963054157</t>
+          <t>-34.80759865249354,173.1638601858061</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.80831753842841,173.16361471116616</t>
+          <t>-34.80832269680902,173.16366835805414</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-34.80905990299835,173.16361228549985</t>
+          <t>-34.80906373006503,173.16365346224265</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11699,17 +12083,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.807598404415785,173.16385768923502</t>
+          <t>-34.80759860934958,173.16385975161984</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.80832369924462,173.16367878336106</t>
+          <t>-34.8083228952078,173.16367042139612</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.80906945549233,173.16371506439518</t>
+          <t>-34.809064881211654,173.16366584785993</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11726,17 +12110,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.80758108199109,173.16368336348074</t>
+          <t>-34.80759568634326,173.16383033550045</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.808316661292515,173.16360558902392</t>
+          <t>-34.80832186144536,173.16365967029856</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-34.80906034730232,173.16361706591306</t>
+          <t>-34.80906412387848,173.16365769942746</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -11753,17 +12137,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.80760586829756,173.16393280346762</t>
+          <t>-34.80759714245431,173.1638449892866</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.80832515068623,173.16369387833717</t>
+          <t>-34.80832233133749,173.16366455716104</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.80907201021436,173.1637425517781</t>
+          <t>-34.80906524473137,173.16366975910756</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11780,17 +12164,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.807569583904915,173.1635676529015</t>
+          <t>-34.8075913503577,173.16378669978468</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.808293333403206,173.16336298354898</t>
+          <t>-34.80831783080689,173.16361775188028</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.80905780264975,173.1635896871835</t>
+          <t>-34.80906377045616,173.1636538968257</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11807,17 +12191,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.807581642870524,173.16368900790005</t>
+          <t>-34.80758899899578,173.1637630366372</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.80831470861846,173.1635852813984</t>
+          <t>-34.80831717295521,173.16361091027352</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-34.80906140757239,173.16362847371755</t>
+          <t>-34.809064012802914,173.16365650432402</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -11834,17 +12218,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.80759255839505,173.16379885699857</t>
+          <t>-34.8075871006452,173.16374393244575</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.80831188924353,173.16355596022956</t>
+          <t>-34.808313298931886,173.16357062081374</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.80905609611342,173.1635713260523</t>
+          <t>-34.809058751846266,173.16359989988402</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -11861,17 +12245,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.80759276332984,173.1638009193831</t>
+          <t>-34.80759265546943,173.16379983391755</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.80831287080449,173.16356616834</t>
+          <t>-34.80831238002413,173.16356106428475</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-34.80905667169107,173.1635775188598</t>
+          <t>-34.80905638895121,173.1635744767789</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -11888,17 +12272,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.80761251240762,173.1639996681715</t>
+          <t>-34.80759927808065,173.1638664815072</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.80832982870113,173.16374252977448</t>
+          <t>-34.80831819627989,173.16362155277295</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-34.809071717380924,173.16373940105032</t>
+          <t>-34.80906149845264,173.16362945152937</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -11915,17 +12299,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.80760797155067,173.16395397005292</t>
+          <t>-34.80760145684703,173.16388840791524</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.808330194170225,173.16374633066826</t>
+          <t>-34.808321193153965,173.1636527200942</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.80907552420922,173.1637803605131</t>
+          <t>-34.809065002384905,173.16366715160913</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -11942,17 +12326,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.80760121955584,173.16388601989055</t>
+          <t>-34.80760361403759,173.16391011723124</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.80831908385666,173.16363078351247</t>
+          <t>-34.80832298918616,173.16367139876863</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.8090629020465,173.16364455329006</t>
+          <t>-34.809066698809,173.16368540409846</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -11969,17 +12353,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.807606019300465,173.1639343231199</t>
+          <t>-34.80760409940493,173.16391500182746</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.80833305526702,173.1637760862378</t>
+          <t>-34.80832500449796,173.16369235797984</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-34.80907292910496,173.16375243854472</t>
+          <t>-34.80906795092981,173.16369887617438</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -11996,17 +12380,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.807604369053365,173.1639177154921</t>
+          <t>-34.807604142548676,173.1639154360138</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.80832901422672,173.16373405921138</t>
+          <t>-34.80832567278708,173.16369930818482</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.809067466238055,173.1636936611772</t>
+          <t>-34.80906787014786,173.16369800700818</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12023,17 +12407,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.80761241533484,173.16399869125203</t>
+          <t>-34.80760742146945,173.16394843417666</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.80834133569957,173.1638622036456</t>
+          <t>-34.8083304238936,173.1637487198015</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.80907242422011,173.16374700625533</t>
+          <t>-34.809070495557776,173.16372625491056</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12050,17 +12434,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.807615629518004,173.1640310381417</t>
+          <t>-34.80760858634703,173.16396015720883</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.80833025682206,173.16374698225007</t>
+          <t>-34.80833039256768,173.1637483940106</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-34.80907076819612,173.16372918834668</t>
+          <t>-34.80907053594864,173.16372668949367</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12077,17 +12461,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.807613644922704,173.16401106556523</t>
+          <t>-34.80760874813549,173.1639617854078</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.808326205329685,173.16370484662949</t>
+          <t>-34.808329880910996,173.16374307275933</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-34.80907009164897,173.1637219090793</t>
+          <t>-34.80907030370112,173.1637241906407</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12104,17 +12488,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.80759461852738,173.1638195893909</t>
+          <t>-34.80760813333921,173.16395559825185</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.80831572150327,173.16359581530028</t>
+          <t>-34.808328502569424,173.16372873796024</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.809063114100105,173.16364683485105</t>
+          <t>-34.80906876884661,173.16370767648223</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12131,17 +12515,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.80759480188977,173.16382143468243</t>
+          <t>-34.807594704815564,173.1638204577634</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.808323939411345,173.1636812810909</t>
+          <t>-34.80831983568586,173.16363860249197</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-34.809064547985116,173.16366226254962</t>
+          <t>-34.809063831042856,173.16365454870026</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12158,17 +12542,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.80760668802742,173.16394105300844</t>
+          <t>-34.80759870642347,173.16386072853896</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.808333138802595,173.16377695501356</t>
+          <t>-34.808324263114244,173.16368464759634</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-34.80907654407334,173.1637913337385</t>
+          <t>-34.8090680721027,173.1637001799237</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12185,17 +12569,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.80761955555555,173.164070549111</t>
+          <t>-34.80760701160484,173.1639443094062</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.80833514365425,173.16379780563284</t>
+          <t>-34.808330737152666,173.1637519777105</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-34.80907964405029,173.16382468799955</t>
+          <t>-34.8090735753572,173.1637593918752</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12212,17 +12596,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.80761290069863,173.16400357584928</t>
+          <t>-34.807608489273946,173.16395918028948</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.808337252921426,173.16381974222298</t>
+          <t>-34.80833236609839,173.16376891883763</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-34.80908220884515,173.16385228403496</t>
+          <t>-34.809075736260255,173.16378264207478</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12237,11 +12621,19 @@
           <t>2017-04-20 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>-34.80761623352461,173.16403711675213</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>-34.80833619828833,173.1638087739278</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-34.80907594831125,173.1637849236365</t>
+          <t>-34.80907927043791,173.16382066810476</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12258,17 +12650,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.8076018774995,173.16389264123177</t>
+          <t>-34.80761144460669,173.16398892205765</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.80833423520628,173.16378835769584</t>
+          <t>-34.80833554044739,173.16380193231805</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.80907540303718,173.16377905676356</t>
+          <t>-34.80907830106466,173.16381023810763</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12283,15 +12675,19 @@
           <t>2017-07-09 22:17:23+00:00</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>-34.80761144460669,173.16398892205765</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.80832309360655,173.1636724847381</t>
+          <t>-34.808332428750106,173.16376957041948</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.80906961705596,173.16371680272763</t>
+          <t>-34.80907656426866,173.1637915510301</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12308,17 +12704,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.80761348313491,173.1640094373661</t>
+          <t>-34.80760941686091,173.16396851529677</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.80832563101901,173.163698873797</t>
+          <t>-34.8083300479826,173.16374481031073</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-34.8090729997888,173.1637531990652</t>
+          <t>-34.80907523137677,173.16377720978505</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12335,17 +12731,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.80759563241319,173.16382979276761</t>
+          <t>-34.807603667967285,173.16391065996413</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.808326925828105,173.16371233981945</t>
+          <t>-34.80832746881212,173.16371798686123</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-34.809068294252974,173.16370257013074</t>
+          <t>-34.80907157601302,173.16373788000934</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12362,17 +12758,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.80759304376686,173.16380374159354</t>
+          <t>-34.80760100383653,173.16388384895902</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.80832398117946,173.1636817154787</t>
+          <t>-34.808326769198054,173.1637107108651</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-34.80906353820714,173.16365139797313</t>
+          <t>-34.80906997047631,173.16372060532993</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12389,11 +12785,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.80761113181635,173.16398577420617</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+          <t>-34.807599936025376,173.16387310284813</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>-34.808325453504764,173.1636970276488</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>-34.80906591118388,173.16367692972833</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12408,17 +12812,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.80763085902051,173.16418430598821</t>
+          <t>-34.80760766954532,173.16395093074829</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.80832271769311,173.16366857524804</t>
+          <t>-34.808324545048954,173.16368757971398</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-34.80906865777152,173.1637064813787</t>
+          <t>-34.8090668300798,173.16368681649348</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12435,17 +12839,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.807602179506304,173.16389568053594</t>
+          <t>-34.80760656938235,173.16393985899595</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.80833396371595,173.16378553417448</t>
+          <t>-34.8083268945021,173.16371201402856</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-34.80907139425428,173.1637359243852</t>
+          <t>-34.80906797112527,173.16369909346594</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12462,17 +12866,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.80760409940493,173.16391500182746</t>
+          <t>-34.80760826277003,173.16395690081097</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.80833466332554,173.16379281017188</t>
+          <t>-34.808328836712995,173.163732213063</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-34.80907164669698,173.16373864052983</t>
+          <t>-34.80906880923754,173.16370811106535</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12489,17 +12893,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.80759571870131,173.16383066114014</t>
+          <t>-34.80760880206498,173.16396232814077</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.80832380366494,173.16367986933056</t>
+          <t>-34.80832878450306,173.1637316700782</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.80906128639872,173.16362716996844</t>
+          <t>-34.80906824376429,173.16370202690186</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12516,17 +12920,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.80759982816559,173.1638720173824</t>
+          <t>-34.80760730282445,173.16394724016413</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.80832507759208,173.1636931181585</t>
+          <t>-34.808328043121854,173.16372395969398</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-34.809064133976264,173.16365780807322</t>
+          <t>-34.80906742584707,173.1636932265941</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12543,17 +12947,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.807607367539894,173.1639478914437</t>
+          <t>-34.807600971478635,173.16388352331927</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.80833580149542,173.16380464724253</t>
+          <t>-34.8083282310777,173.16372591443925</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-34.809071404351975,173.163736033031</t>
+          <t>-34.80906560825097,173.16367367035525</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12570,17 +12974,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.80760243836921,173.16389828565386</t>
+          <t>-34.807601338201444,173.16388721390288</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.808331488974055,173.16375979669218</t>
+          <t>-34.80832904555267,173.16373438500224</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-34.80906995028087,173.16372038803837</t>
+          <t>-34.809066698809,173.16368540409846</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12597,17 +13001,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.80760858634703,173.16396015720883</t>
+          <t>-34.80760455241426,173.16391956078402</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.80833866257796,173.163834402816</t>
+          <t>-34.808332752450546,173.16377293692557</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.80907102063897,173.16373190449124</t>
+          <t>-34.809069132364975,173.16371158773026</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -12624,17 +13028,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.80761318113093,173.16400639806108</t>
+          <t>-34.807607896049326,173.16395321022677</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.80833733645666,173.16382061099884</t>
+          <t>-34.80833582237926,173.16380486443649</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-34.809081532305385,173.1638450047656</t>
+          <t>-34.80907347438031,173.1637583054173</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12651,17 +13055,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.807613310561216,173.16400770062037</t>
+          <t>-34.80760897463931,173.16396406488627</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.80833592679848,173.16380595040627</t>
+          <t>-34.80833584326311,173.16380508163044</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.809083733582426,173.16386868955288</t>
+          <t>-34.80907552420922,173.1637803605131</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12678,11 +13082,19 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.807612717339005,173.16400173055698</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+          <t>-34.80760960022104,173.16397036058893</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-34.80833584326311,173.16380508163044</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>-34.80907552420922,173.1637803605131</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12697,17 +13109,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.80760906092647,173.16396493325905</t>
+          <t>-34.80760988065413,173.1639731828005</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.808337795900435,173.16382538926615</t>
+          <t>-34.808336240056,173.1638092083157</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.80907566557659,173.16378188155423</t>
+          <t>-34.80907638251078,173.16378959540575</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12724,17 +13136,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.807608014694274,173.1639544042393</t>
+          <t>-34.80760854320344,173.16395972302243</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.80833811959935,173.1638287557727</t>
+          <t>-34.808337952528966,173.16382701822096</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.80907454473481,173.16376982187114</t>
+          <t>-34.80907510010702,173.16377579738975</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12751,17 +13163,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.807606526238665,173.1639394248096</t>
+          <t>-34.80760786369162,173.163952884587</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.80833595812421,173.16380627619722</t>
+          <t>-34.80833729468904,173.16382017661093</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-34.80907319164498,173.1637552633352</t>
+          <t>-34.80907446395338,173.1637689527048</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -12778,17 +13190,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.80759396057974,173.16381296805085</t>
+          <t>-34.80760283744944,173.16390230187733</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.8083293692541,173.16373775150808</t>
+          <t>-34.80833448581269,173.1637909640233</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.80906826395976,173.16370224419342</t>
+          <t>-34.80907200011666,173.16374244313232</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12805,17 +13217,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.80762007327383,173.16407575934895</t>
+          <t>-34.80760714103578,173.1639456119653</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.80834547067206,173.1639052080574</t>
+          <t>-34.80833723203761,173.16381952502903</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.809082350211604,173.16385380507634</t>
+          <t>-34.80907458512555,173.16377025645428</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -12832,17 +13244,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.80762405322564,173.16411581305562</t>
+          <t>-34.80761052780716,173.16397969559648</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.80835142249968,173.16396710835454</t>
+          <t>-34.808340072232724,173.16384906340951</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-34.8090876413427,173.16391073548562</t>
+          <t>-34.80907720042101,173.1637983957154</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -12859,17 +13271,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.80762043999081,173.16407944993423</t>
+          <t>-34.807612178045815,173.16399630322672</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.808354116474455,173.16399512638662</t>
+          <t>-34.80834241121157,173.16387338913614</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-34.80907930073081,173.16382099404217</t>
+          <t>-34.809077543741175,173.16380208967257</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -12886,17 +13298,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.80762617801835,173.16413719674335</t>
+          <t>-34.80761417342939,173.16401638434908</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.808354200008466,173.16399599516285</t>
+          <t>-34.808344092349586,173.163890873253</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.8090823300164,173.1638535877847</t>
+          <t>-34.809078230381154,173.16380947758705</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -12913,17 +13325,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.8075961609278,173.16383511154922</t>
+          <t>-34.80761737682201,173.1640486226935</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.808332543611556,173.16377076498614</t>
+          <t>-34.808347548594405,173.16392681886188</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.809074665906955,173.16377112562063</t>
+          <t>-34.80908125966984,173.16384207132873</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -12940,17 +13352,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.80760165099434,173.16389036175363</t>
+          <t>-34.80761111024459,173.16398555711297</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.80831925092986,173.16363252106345</t>
+          <t>-34.8083400304652,173.16384862902157</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.809062689992885,173.16364227172906</t>
+          <t>-34.80907474668838,173.163771994787</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -12967,17 +13379,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.8076045308424,173.16391934369085</t>
+          <t>-34.80760713024986,173.16394550341866</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.80832381410696,173.1636799779275</t>
+          <t>-34.808332449634,173.1637697876134</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.809065547664375,173.1636730184806</t>
+          <t>-34.80907130337488,173.1637349465732</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12994,17 +13406,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.807600000741225,173.16387375412756</t>
+          <t>-34.80760206086078,173.1638944865236</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.808333974157875,173.16378564277147</t>
+          <t>-34.80832568322908,173.16369941678178</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-34.809075887725264,173.16378427176173</t>
+          <t>-34.80906804180946,173.16369985398634</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13021,17 +13433,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.807610829811786,173.1639827349013</t>
+          <t>-34.80760541528872,173.1639282445109</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.80834363290838,173.16388609498497</t>
+          <t>-34.80833879832256,173.16383581457683</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-34.80907449424643,173.16376927864218</t>
+          <t>-34.809075190986064,173.1637767752019</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13048,17 +13460,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.80757423276914,173.1636144364433</t>
+          <t>-34.80759501761019,173.16382360561363</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.808301206881026,173.16344486559663</t>
+          <t>-34.80832626798174,173.16370549821121</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.809051764124135,173.1635247170303</t>
+          <t>-34.809067385456075,173.163692792011</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13075,17 +13487,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.807585536660916,173.16372819319773</t>
+          <t>-34.80759019624944,173.16377508530388</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.808312181623485,173.1635590009433</t>
+          <t>-34.80831901076213,173.16363002333392</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.809060922877634,173.16362325872117</t>
+          <t>-34.80906239715684,173.16363912100198</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13102,17 +13514,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.80760631052032,173.16393725387778</t>
+          <t>-34.80758869698567,173.16375999733395</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.80831829025863,173.16362253014535</t>
+          <t>-34.80831056309066,173.1635421684212</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.80906157923506,173.16363032069546</t>
+          <t>-34.809058085389225,173.1635927292645</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13129,17 +13541,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.80759935358252,173.16386724133324</t>
+          <t>-34.80759136114375,173.16378680833122</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.808316546429424,173.16360439445768</t>
+          <t>-34.8083120563178,173.16355769778028</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.80906033720449,173.1636169572673</t>
+          <t>-34.809058650867954,173.16359881342652</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13156,17 +13568,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.807598037692074,173.16385399865166</t>
+          <t>-34.80759269861359,173.16380026810376</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.80832034734711,173.16364392374197</t>
+          <t>-34.808313716616986,173.16357496469064</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-34.809067668192974,173.16369583409266</t>
+          <t>-34.809060458378276,173.16361826101638</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13183,17 +13595,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.80758536408322,173.16372645645316</t>
+          <t>-34.80759492053601,173.1638226286946</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.80830740955549,173.16350937215427</t>
+          <t>-34.80831495922922,173.16358788772462</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-34.809053389884454,173.1635422089937</t>
+          <t>-34.809060781508286,173.1636217376806</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13210,17 +13622,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.80758633483246,173.16373622564146</t>
+          <t>-34.80759348599434,173.16380819200234</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.808317956111935,173.16361905504348</t>
+          <t>-34.80831545000847,173.16359299178018</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.80905111785846,173.16351776370345</t>
+          <t>-34.80905916585725,173.16360435435988</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13237,17 +13649,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.807573283582556,173.16360488435083</t>
+          <t>-34.80759144743218,173.16378767670363</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.80829936904499,173.16342575254436</t>
+          <t>-34.80831331981614,173.1635708380076</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.809043312149555,173.16343378056067</t>
+          <t>-34.8090562374834,173.16357284709275</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13264,17 +13676,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.80757102926138,173.16358219813202</t>
+          <t>-34.807588535194505,173.1637583691358</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.808308819249454,173.16352403273686</t>
+          <t>-34.80831267240395,173.1635641049985</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.809046937317824,173.16347278437277</t>
+          <t>-34.809054904565706,173.16355850585464</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13291,17 +13703,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.80759502839621,173.1638237141602</t>
+          <t>-34.80758691728162,173.16374208715456</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.80832124536425,173.1636532630789</t>
+          <t>-34.80831310053141,173.16356855747225</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.80906698154608,173.1636884461801</t>
+          <t>-34.80905568210123,173.16356687157682</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13316,15 +13728,19 @@
           <t>2022-06-05 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>-34.80758484634997,173.1637212462195</t>
+        </is>
+      </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.80831275594102,173.16356497377384</t>
+          <t>-34.808312557540454,173.16356291043238</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.8090622456899,173.16363749131557</t>
+          <t>-34.809055954743414,173.1635698050119</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13341,17 +13757,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.80758591417455,173.16373199232652</t>
+          <t>-34.807582829345385,173.16370094801806</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.80830495563955,173.163483851882</t>
+          <t>-34.80831035424754,173.1635399964829</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-34.809060296813236,173.1636165226843</t>
+          <t>-34.80905489446783,173.1635583972089</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -13368,17 +13784,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.80757000456854,173.1635718862148</t>
+          <t>-34.807580262243754,173.16367511394495</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.808303462402975,173.16346832252557</t>
+          <t>-34.808309790370934,173.1635341322496</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-34.809046715163014,173.16347039416692</t>
+          <t>-34.80905394526782,173.16354818450932</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13395,17 +13811,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.80757741469601,173.16364645766402</t>
+          <t>-34.8075787845399,173.16366024307166</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.80830933091571,173.1635293539855</t>
+          <t>-34.80830855819515,173.16352131781412</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-34.80905508632731,173.163560461478</t>
+          <t>-34.80905451074879,173.16355426867074</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13422,17 +13838,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.80759032568219,173.16377638786244</t>
+          <t>-34.80758162129824,173.16368879080702</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.808312557540454,173.16356291043238</t>
+          <t>-34.80831044822695,173.16354097385516</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-34.80906156913726,173.1636302120497</t>
+          <t>-34.80905711599641,173.16358229927263</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13449,17 +13865,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.80757205395336,173.1635925100495</t>
+          <t>-34.80757744705454,173.1636467833036</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.808304203800404,173.16347603290527</t>
+          <t>-34.808307388671125,173.16350915496045</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.809046967611664,173.16347311030995</t>
+          <t>-34.80905258205355,173.1635335173348</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13476,17 +13892,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.80757946406816,173.16366708150235</t>
+          <t>-34.80757785692924,173.16365090807116</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.80829950479434,173.16342716430384</t>
+          <t>-34.80830581190018,173.16349275682788</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.80905167324306,173.16352373921873</t>
+          <t>-34.80905240029151,173.16353156171155</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13503,17 +13919,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.80758306664022,173.16370333604172</t>
+          <t>-34.80758123299711,173.16368488313208</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.808304151589326,173.16347548992078</t>
+          <t>-34.80830510183044,173.1634853722386</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-34.80906432583405,173.16365987234278</t>
+          <t>-34.809056136504836,173.16357176063528</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13530,17 +13946,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.807581890951724,173.16369150447017</t>
+          <t>-34.807581362430845,173.16368618569038</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.8083067516977,173.16350253054918</t>
+          <t>-34.80830543598097,173.16348884733944</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.80905662120181,173.16357697563106</t>
+          <t>-34.80905622738555,173.163572738447</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13557,15 +13973,19 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.807593529138465,173.16380862618857</t>
+          <t>-34.80758339022401,173.16370659243762</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.80831800832236,173.16361959802813</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>-34.808307524419504,173.16351056672022</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-34.80905622738555,173.163572738447</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13580,17 +14000,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.80759757389427,173.16384933114927</t>
+          <t>-34.80758459826937,173.1637187496492</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.80832452416491,173.1636873625201</t>
+          <t>-34.80830951887469,173.1635313087299</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-34.80906674929778,173.1636859473273</t>
+          <t>-34.80905726746409,173.16358392895884</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13607,15 +14027,19 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.807579280703436,173.16366523621153</t>
+          <t>-34.807583832455045,173.1637110428454</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.80829762518642,173.16340761686482</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>-34.808307827242785,173.16351371603054</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-34.80905726746409,173.16358392895884</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>L8</t>
@@ -13630,17 +14054,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.8075907355525,173.16378051263132</t>
+          <t>-34.8075846953444,173.163719726568</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.80831252621403,173.16356258464162</t>
+          <t>-34.808308412004706,173.16351979745738</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-34.80906134698556,173.163627821843</t>
+          <t>-34.80905794401949,173.16359120822398</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13657,17 +14081,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.80757726368951,173.16364493801282</t>
+          <t>-34.80758387559952,173.1637114770315</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.808308391120356,173.16351958026357</t>
+          <t>-34.808308412004706,173.16351979745738</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-34.8090528950881,173.1635368853526</t>
+          <t>-34.80905722707271,173.16358349437587</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13684,17 +14108,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.80758746737225,173.16374762302812</t>
+          <t>-34.807585590591444,173.16372873593042</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.80831363307996,173.16357409591527</t>
+          <t>-34.80830945622171,173.16353065714844</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-34.80906157923506,173.16363032069546</t>
+          <t>-34.80905931732463,173.16360598404614</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13711,17 +14135,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.8075878880296,173.16375185634323</t>
+          <t>-34.80758651819611,173.16373807093262</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.80831411341768,173.16357909137372</t>
+          <t>-34.80831108519828,173.16354759826697</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-34.80906731477184,173.16369203149057</t>
+          <t>-34.809061548941656,173.16362999475817</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13738,17 +14162,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.80759819948197,173.1638556268502</t>
+          <t>-34.807587693880066,173.1637499025055</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.80831951198168,173.1636352359869</t>
+          <t>-34.80831192056996,173.1635562860203</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.80907331281727,173.16375656708468</t>
+          <t>-34.80906301312219,173.16364574839344</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13765,17 +14189,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.80759870642347,173.16386072853896</t>
+          <t>-34.807589635374,173.1637694408834</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.808313518216586,173.1635729013491</t>
+          <t>-34.80831298566795,173.1635673629061</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.809059054781144,173.16360315925658</t>
+          <t>-34.80906317468682,173.16364748672564</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13792,17 +14216,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.807603657181346,173.16391055141756</t>
+          <t>-34.807591199352935,173.16378518013298</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.808319324024374,173.163633281242</t>
+          <t>-34.80831368529061,173.16357463889986</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.80906767829072,173.16369594273846</t>
+          <t>-34.809063740162806,173.1636535708884</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13819,17 +14243,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.80759751996428,173.16384878841643</t>
+          <t>-34.80759182494394,173.16379147583297</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.808317360912866,173.1636128650183</t>
+          <t>-34.80831405076494,173.1635784397922</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.80906595157491,173.16367736431138</t>
+          <t>-34.809063982509585,173.16365617838676</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13846,17 +14270,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.8075987603534,173.16386127127183</t>
+          <t>-34.80759246132066,173.16379788007958</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.80831263063541,173.16356367061084</t>
+          <t>-34.808313925459466,173.16357713662907</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.80906175089771,173.16363216767334</t>
+          <t>-34.80906376035838,173.16365378817994</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13873,17 +14297,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.80758316371536,173.16370431296048</t>
+          <t>-34.80759114542266,173.1637846374002</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.8082983665877,173.16341532724343</t>
+          <t>-34.808311544652774,173.1635523765313</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-34.80905863067229,173.163598596135</t>
+          <t>-34.809062952535456,173.16364509651888</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13900,17 +14324,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.80758940886654,173.16376716140596</t>
+          <t>-34.80759563241319,173.16382979276761</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.80830989479256,173.16353521821873</t>
+          <t>-34.80831294389942,173.16356692851843</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-34.80905034031956,173.16350939798218</t>
+          <t>-34.80906238705905,173.1636390123562</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13927,17 +14351,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.80759008838879,173.16377399983838</t>
+          <t>-34.807594467523025,173.16381806973908</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.80830988435039,173.16353510962182</t>
+          <t>-34.80831156553707,173.16355259372511</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-34.80905267293457,173.16353449514642</t>
+          <t>-34.80905943849854,173.1636072877952</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -13954,17 +14378,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.80759715324031,173.16384509783316</t>
+          <t>-34.80759480188977,173.16382143468243</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.808330977317894,173.16375447544073</t>
+          <t>-34.80831399855434,173.16357789680757</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-34.80906870826019,173.1637070246076</t>
+          <t>-34.80906059974766,173.16361978205697</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -13981,17 +14405,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.80761492843852,173.16402398261187</t>
+          <t>-34.807595858919484,173.16383207224544</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.80834608673988,173.16391161528074</t>
+          <t>-34.80831788301732,173.16361829486493</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-34.80908997387485,173.16393583267214</t>
+          <t>-34.80906400270513,173.1636563956783</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14008,17 +14432,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.807600971478635,173.16388352331927</t>
+          <t>-34.80759595599359,173.1638330491645</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.80832402294758,173.16368214986647</t>
+          <t>-34.808319877454124,173.16363903687974</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-34.809068718357935,173.16370713325338</t>
+          <t>-34.80906484082056,173.16366541327685</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14035,17 +14459,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.807588103751264,173.16375402727408</t>
+          <t>-34.80759483424784,173.16382176032212</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.808324367534524,173.16368573356584</t>
+          <t>-34.80832051442013,173.16364566129303</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-34.80906617372565,173.16367975451834</t>
+          <t>-34.80906503267821,173.16366747754643</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14062,17 +14486,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.80759624721588,173.1638359799217</t>
+          <t>-34.80759670022819,173.16384053887742</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.80833087289822,173.16375338947105</t>
+          <t>-34.80832516112826,173.16369398693413</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-34.809070081551255,173.16372180043354</t>
+          <t>-34.80906666851574,173.16368507816114</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14089,17 +14513,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.807593636998796,173.16380971165412</t>
+          <t>-34.80759632271793,173.16383673974767</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.808328836712995,173.163732213063</t>
+          <t>-34.80832562057701,173.16369876520005</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-34.809064113780714,173.1636575907817</t>
+          <t>-34.80906634538755,173.16368160149645</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14116,17 +14540,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.80760627816256,173.16393692823803</t>
+          <t>-34.80759742289031,173.1638478114973</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.808324743447415,173.16368964305605</t>
+          <t>-34.808325516156856,173.16369767923052</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-34.80907438317195,173.16376808353846</t>
+          <t>-34.80906724408759,173.1636912709702</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14143,17 +14567,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.80760489756412,173.16392303427475</t>
+          <t>-34.80759914864886,173.16386517894836</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.808324900077736,173.16369127201034</t>
+          <t>-34.808327186878145,173.16371505474336</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-34.8090783111623,173.16381034675345</t>
+          <t>-34.809070344091985,173.16372462522384</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14170,17 +14594,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.807610829811786,173.1639827349013</t>
+          <t>-34.80760144606107,173.16388829936867</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.808327510580106,173.1637184212491</t>
+          <t>-34.80832914997251,173.16373547097186</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-34.809071919335025,173.16374157396604</t>
+          <t>-34.80907248480631,173.16374765813006</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14197,17 +14621,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.80761334291879,173.1640080262602</t>
+          <t>-34.80760324731546,173.16390642664743</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.8083275627901,173.16371896423385</t>
+          <t>-34.80832876361909,173.1637314528843</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-34.809072706955654,173.16375004833736</t>
+          <t>-34.80907292910496,173.16375243854472</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14224,17 +14648,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.807574858369,173.16362073214074</t>
+          <t>-34.80760063711361,173.16388015837546</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.8083085790795,173.16352153500793</t>
+          <t>-34.80832368880258,173.16367867476413</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-34.80905282440289,173.16353612483246</t>
+          <t>-34.809069041485394,173.16371060991827</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14251,17 +14675,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.80760965415048,173.1639709033219</t>
+          <t>-34.807602168720344,173.16389557198937</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.80834162807187,173.16386524436146</t>
+          <t>-34.80832632019178,173.16370604119598</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-34.80908017922454,173.16383044622725</t>
+          <t>-34.80906940500368,173.16371452116627</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14278,17 +14702,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.80759520097253,173.16382545090516</t>
+          <t>-34.80760077733122,173.16388156948094</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.80831768461766,173.1636162315232</t>
+          <t>-34.80832459725908,173.16368812269874</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-34.80906153884386,173.1636298861124</t>
+          <t>-34.80906782975688,173.16369757242506</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14305,17 +14729,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.80758976480681,173.16377074344197</t>
+          <t>-34.80759237503231,173.16379701170715</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.80831807097488,173.16362024960972</t>
+          <t>-34.80832149597356,173.16365586940552</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-34.80906482062501,173.16366519598532</t>
+          <t>-34.80906484082056,173.16366541327685</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14332,17 +14756,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.807605404502794,173.16392813596434</t>
+          <t>-34.80759497446611,173.1638231714274</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.80833300305731,173.16377554325288</t>
+          <t>-34.80832379322292,173.1636797607336</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-34.80907197992125,173.16374222584076</t>
+          <t>-34.80906626460548,173.16368073233028</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14359,17 +14783,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.80759987130951,173.1638724515687</t>
+          <t>-34.80759579420341,173.16383142096606</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.808331958862176,173.1637646835558</t>
+          <t>-34.80832515068623,173.16369387833717</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-34.809070313798834,173.16372429928649</t>
+          <t>-34.80906694115508,173.16368801159697</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14386,15 +14810,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.807585590591444,173.16372873593042</t>
+          <t>-34.807594338090716,173.16381676718038</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.80830821360338,173.1635177341161</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>-34.80832273857719,173.1636687924419</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-34.80906694115508,173.16368801159697</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>L9</t>
@@ -14409,17 +14837,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.80756356516298,173.16350708396178</t>
+          <t>-34.80759048747312,173.1637780160607</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.80829934816047,173.16342553535054</t>
+          <t>-34.80831981480172,173.1636383852981</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-34.80905280420711,173.16353590754096</t>
+          <t>-34.80906492160274,173.163666282443</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14436,17 +14864,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.80758979716503,173.1637710690816</t>
+          <t>-34.80759235346022,173.16379679461406</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.80830825537207,173.16351816850377</t>
+          <t>-34.808319773033446,173.16363795091033</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-34.809060327106685,173.16361684862156</t>
+          <t>-34.809065991965966,173.16367779889447</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14463,17 +14891,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.80758079076512,173.1636804327246</t>
+          <t>-34.807591069920285,173.16378387757436</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.80830863129036,173.1635220779925</t>
+          <t>-34.80831853042652,173.16362502787487</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-34.80906534570906,173.16367084556524</t>
+          <t>-34.80906591118388,173.16367692972833</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14490,17 +14918,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.80757994944526,173.1636719660958</t>
+          <t>-34.80758995895602,173.16377269727982</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.808316682176695,173.16360580621776</t>
+          <t>-34.80831835291114,173.16362318172696</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-34.809061266203116,173.16362695267694</t>
+          <t>-34.80906539619789,173.16367138879409</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14517,17 +14945,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.80760398075959,173.16391380781505</t>
+          <t>-34.8075912317111,173.1637855057726</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.80833786899375,173.16382614944507</t>
+          <t>-34.808320117621676,173.16364153460933</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-34.809071707283216,173.16373929240453</t>
+          <t>-34.809066032357,173.16367823347755</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14544,17 +14972,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.80757614192628,173.16363364917544</t>
+          <t>-34.80758819003993,173.1637548956464</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.80830585366898,173.1634931912155</t>
+          <t>-34.808316870134455,173.16360776096252</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-34.80906068053017,173.163620651223</t>
+          <t>-34.80906408348737,173.1636572648444</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -14571,17 +14999,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.80757907576634,173.16366317382767</t>
+          <t>-34.8075874242279,173.16374718884194</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.80830297161848,173.1634632184715</t>
+          <t>-34.80831571106117,173.16359570670335</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-34.809052380095736,173.16353134442008</t>
+          <t>-34.80906301312219,173.16364574839344</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -14598,15 +15026,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.807570144789715,173.16357329731923</t>
+          <t>-34.80758534251101,173.1637262393601</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.80829484753785,173.1633787300954</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>-34.80831381059611,173.16357594206292</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-34.809063164589034,173.16364737807987</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>L9</t>
@@ -14621,17 +15053,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-34.8075895706576,173.16376878960412</t>
+          <t>-34.80758185859331,173.16369117883056</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.80831260975114,173.163563453417</t>
+          <t>-34.80830952931686,173.1635314173268</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-34.809062346667865,173.16363857777318</t>
+          <t>-34.80906086229077,173.16362260684664</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -14648,17 +15080,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-34.80758271069796,173.16369975400625</t>
+          <t>-34.80758157815367,173.1636883566209</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.80830308648297,173.1634644130373</t>
+          <t>-34.808309017650686,173.16352609607816</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-34.8090580248022,173.16359207738998</t>
+          <t>-34.8090605391608,173.1636191301824</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">

--- a/data/nzd0021/nzd0021.xlsx
+++ b/data/nzd0021/nzd0021.xlsx
@@ -5554,7 +5554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8142,6 +8142,16 @@
       </c>
       <c r="B258" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -8465,7 +8475,7 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0567</v>
+        <v>0.0568</v>
       </c>
       <c r="H4" t="n">
         <v>0.075</v>
